--- a/מצגות/L2-טבלא לדוגמא.xlsx
+++ b/מצגות/L2-טבלא לדוגמא.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgalil-my.sharepoint.com/personal/alexg_wgalil_ac_il/Documents/Documents/Personal/מתנס/QA/QA-13-06/מצגות/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{0AAA5522-0B24-418A-A391-0773A641791C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1CC31D7-9540-445B-B71B-81D7CB53083A}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{0AAA5522-0B24-418A-A391-0773A641791C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47277EB-7D1B-4644-ACE6-49F8709024DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,7 +835,8 @@
   <dimension ref="A1:W997"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,7 +864,7 @@
     <col min="28" max="16384" width="12.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -965,7 +966,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1020,7 +1021,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1075,7 +1076,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1130,7 +1131,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1185,7 +1186,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1240,7 +1241,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1295,7 +1296,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1350,7 +1351,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1405,7 +1406,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1460,7 +1461,7 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1515,7 +1516,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1570,7 +1571,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1625,7 +1626,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1680,7 +1681,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1735,7 +1736,7 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1790,7 +1791,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1845,7 +1846,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1900,7 +1901,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1955,7 +1956,7 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2010,7 +2011,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2065,7 +2066,7 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2120,7 +2121,7 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2175,7 +2176,7 @@
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2230,7 +2231,7 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2285,7 +2286,7 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2340,7 +2341,7 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2395,7 +2396,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2450,7 +2451,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2505,7 +2506,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2560,7 +2561,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2585,7 +2586,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2610,7 +2611,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="5"/>
       <c r="C34" s="3"/>
@@ -2635,7 +2636,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="3"/>
@@ -2660,7 +2661,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="5"/>
       <c r="C36" s="3"/>
@@ -2685,7 +2686,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="5"/>
       <c r="C37" s="3"/>
@@ -2710,7 +2711,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="5"/>
       <c r="C38" s="3"/>
@@ -2735,7 +2736,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="5"/>
       <c r="C39" s="3"/>
@@ -2760,7 +2761,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="5"/>
       <c r="C40" s="3"/>
@@ -2785,7 +2786,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
     </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
@@ -2810,7 +2811,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
     </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="5"/>
       <c r="C42" s="3"/>
@@ -2835,7 +2836,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
@@ -2860,7 +2861,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
     </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="8"/>
       <c r="C44" s="3"/>
@@ -2885,7 +2886,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
     </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2910,7 +2911,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
     </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2935,7 +2936,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
     </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2960,7 +2961,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
     </row>
-    <row r="48" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2985,7 +2986,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
     </row>
-    <row r="49" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3010,7 +3011,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
     </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3025,7 +3026,7 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
     </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3040,7 +3041,7 @@
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3055,7 +3056,7 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -3070,7 +3071,7 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -3085,7 +3086,7 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
     </row>
-    <row r="55" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -3100,7 +3101,7 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
     </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -3115,7 +3116,7 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
     </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -3130,7 +3131,7 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
     </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -3145,7 +3146,7 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
     </row>
-    <row r="59" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -3160,7 +3161,7 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
     </row>
-    <row r="60" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -3175,7 +3176,7 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
     </row>
-    <row r="61" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -3190,7 +3191,7 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
     </row>
-    <row r="62" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -3205,7 +3206,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
     </row>
-    <row r="63" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -3220,7 +3221,7 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
     </row>
-    <row r="64" spans="1:23" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -3235,7 +3236,7 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
     </row>
-    <row r="65" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -3250,7 +3251,7 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
     </row>
-    <row r="66" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -3265,7 +3266,7 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
     </row>
-    <row r="67" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -3280,7 +3281,7 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
     </row>
-    <row r="68" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -3295,7 +3296,7 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
     </row>
-    <row r="69" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -3310,7 +3311,7 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
     </row>
-    <row r="70" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -3325,7 +3326,7 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
     </row>
-    <row r="71" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -3340,7 +3341,7 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
     </row>
-    <row r="72" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -3355,7 +3356,7 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
     </row>
-    <row r="73" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -3370,7 +3371,7 @@
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
     </row>
-    <row r="74" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -3385,7 +3386,7 @@
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
     </row>
-    <row r="75" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -3400,7 +3401,7 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
     </row>
-    <row r="76" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -3415,7 +3416,7 @@
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
     </row>
-    <row r="77" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -3430,7 +3431,7 @@
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
     </row>
-    <row r="78" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -3445,7 +3446,7 @@
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
     </row>
-    <row r="79" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -3460,7 +3461,7 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
     </row>
-    <row r="80" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -3475,7 +3476,7 @@
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
     </row>
-    <row r="81" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -3490,7 +3491,7 @@
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
     </row>
-    <row r="82" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -3505,7 +3506,7 @@
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
     </row>
-    <row r="83" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -3520,7 +3521,7 @@
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
     </row>
-    <row r="84" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -3535,7 +3536,7 @@
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
     </row>
-    <row r="85" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -3550,7 +3551,7 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
     </row>
-    <row r="86" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -3565,7 +3566,7 @@
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
     </row>
-    <row r="87" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -3580,7 +3581,7 @@
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
     </row>
-    <row r="88" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -3595,7 +3596,7 @@
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
     </row>
-    <row r="89" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
@@ -3610,7 +3611,7 @@
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
     </row>
-    <row r="90" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -3625,7 +3626,7 @@
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
     </row>
-    <row r="91" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -3640,7 +3641,7 @@
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
     </row>
-    <row r="92" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -3655,7 +3656,7 @@
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
     </row>
-    <row r="93" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -3670,7 +3671,7 @@
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
     </row>
-    <row r="94" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -3685,7 +3686,7 @@
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
     </row>
-    <row r="95" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -3700,7 +3701,7 @@
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
     </row>
-    <row r="96" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -3715,7 +3716,7 @@
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
     </row>
-    <row r="97" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -3730,7 +3731,7 @@
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
     </row>
-    <row r="98" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
@@ -3745,7 +3746,7 @@
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
     </row>
-    <row r="99" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
@@ -3760,7 +3761,7 @@
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
     </row>
-    <row r="100" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
@@ -3775,7 +3776,7 @@
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
     </row>
-    <row r="101" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -3790,7 +3791,7 @@
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
     </row>
-    <row r="102" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
@@ -3805,7 +3806,7 @@
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
     </row>
-    <row r="103" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
@@ -3820,7 +3821,7 @@
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
     </row>
-    <row r="104" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
@@ -3835,7 +3836,7 @@
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
     </row>
-    <row r="105" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
@@ -3850,7 +3851,7 @@
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
     </row>
-    <row r="106" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
@@ -3865,7 +3866,7 @@
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
     </row>
-    <row r="107" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -3880,7 +3881,7 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
     </row>
-    <row r="108" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
@@ -3895,7 +3896,7 @@
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
     </row>
-    <row r="109" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
@@ -3910,7 +3911,7 @@
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
     </row>
-    <row r="110" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -3925,7 +3926,7 @@
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
     </row>
-    <row r="111" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -3940,7 +3941,7 @@
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
     </row>
-    <row r="112" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
@@ -3955,7 +3956,7 @@
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
     </row>
-    <row r="113" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -3970,7 +3971,7 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
     </row>
-    <row r="114" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
@@ -3985,7 +3986,7 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
     </row>
-    <row r="115" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
@@ -4000,7 +4001,7 @@
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
     </row>
-    <row r="116" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
@@ -4015,7 +4016,7 @@
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
     </row>
-    <row r="117" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
@@ -4030,7 +4031,7 @@
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
     </row>
-    <row r="118" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -4045,7 +4046,7 @@
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
     </row>
-    <row r="119" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -4060,7 +4061,7 @@
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
     </row>
-    <row r="120" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
@@ -4075,7 +4076,7 @@
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
     </row>
-    <row r="121" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
@@ -4090,7 +4091,7 @@
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
     </row>
-    <row r="122" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -4105,7 +4106,7 @@
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
     </row>
-    <row r="123" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
@@ -4120,7 +4121,7 @@
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
     </row>
-    <row r="124" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -4135,7 +4136,7 @@
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
     </row>
-    <row r="125" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
@@ -4150,7 +4151,7 @@
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
     </row>
-    <row r="126" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
@@ -4165,7 +4166,7 @@
       <c r="P126" s="9"/>
       <c r="Q126" s="9"/>
     </row>
-    <row r="127" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
@@ -4180,7 +4181,7 @@
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
     </row>
-    <row r="128" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
@@ -4195,7 +4196,7 @@
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
     </row>
-    <row r="129" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -4210,7 +4211,7 @@
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
     </row>
-    <row r="130" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -4225,7 +4226,7 @@
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
     </row>
-    <row r="131" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
@@ -4240,7 +4241,7 @@
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
     </row>
-    <row r="132" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -4255,7 +4256,7 @@
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
     </row>
-    <row r="133" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
@@ -4270,7 +4271,7 @@
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
     </row>
-    <row r="134" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -4285,7 +4286,7 @@
       <c r="P134" s="9"/>
       <c r="Q134" s="9"/>
     </row>
-    <row r="135" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
@@ -4300,7 +4301,7 @@
       <c r="P135" s="9"/>
       <c r="Q135" s="9"/>
     </row>
-    <row r="136" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -4315,7 +4316,7 @@
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
     </row>
-    <row r="137" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
@@ -4330,7 +4331,7 @@
       <c r="P137" s="9"/>
       <c r="Q137" s="9"/>
     </row>
-    <row r="138" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -4345,7 +4346,7 @@
       <c r="P138" s="9"/>
       <c r="Q138" s="9"/>
     </row>
-    <row r="139" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
@@ -4360,7 +4361,7 @@
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
     </row>
-    <row r="140" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -4375,7 +4376,7 @@
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
     </row>
-    <row r="141" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -4390,7 +4391,7 @@
       <c r="P141" s="9"/>
       <c r="Q141" s="9"/>
     </row>
-    <row r="142" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -4405,7 +4406,7 @@
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
     </row>
-    <row r="143" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -4420,7 +4421,7 @@
       <c r="P143" s="9"/>
       <c r="Q143" s="9"/>
     </row>
-    <row r="144" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -4435,7 +4436,7 @@
       <c r="P144" s="9"/>
       <c r="Q144" s="9"/>
     </row>
-    <row r="145" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
@@ -4450,7 +4451,7 @@
       <c r="P145" s="9"/>
       <c r="Q145" s="9"/>
     </row>
-    <row r="146" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
@@ -4465,7 +4466,7 @@
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
     </row>
-    <row r="147" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -4480,7 +4481,7 @@
       <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
     </row>
-    <row r="148" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -4495,7 +4496,7 @@
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
     </row>
-    <row r="149" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
@@ -4510,7 +4511,7 @@
       <c r="P149" s="9"/>
       <c r="Q149" s="9"/>
     </row>
-    <row r="150" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
@@ -4525,7 +4526,7 @@
       <c r="P150" s="9"/>
       <c r="Q150" s="9"/>
     </row>
-    <row r="151" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
@@ -4540,7 +4541,7 @@
       <c r="P151" s="9"/>
       <c r="Q151" s="9"/>
     </row>
-    <row r="152" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
@@ -4555,7 +4556,7 @@
       <c r="P152" s="9"/>
       <c r="Q152" s="9"/>
     </row>
-    <row r="153" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
@@ -4570,7 +4571,7 @@
       <c r="P153" s="9"/>
       <c r="Q153" s="9"/>
     </row>
-    <row r="154" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
@@ -4585,7 +4586,7 @@
       <c r="P154" s="9"/>
       <c r="Q154" s="9"/>
     </row>
-    <row r="155" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
@@ -4600,7 +4601,7 @@
       <c r="P155" s="9"/>
       <c r="Q155" s="9"/>
     </row>
-    <row r="156" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
@@ -4615,7 +4616,7 @@
       <c r="P156" s="9"/>
       <c r="Q156" s="9"/>
     </row>
-    <row r="157" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
@@ -4630,7 +4631,7 @@
       <c r="P157" s="9"/>
       <c r="Q157" s="9"/>
     </row>
-    <row r="158" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
@@ -4645,7 +4646,7 @@
       <c r="P158" s="9"/>
       <c r="Q158" s="9"/>
     </row>
-    <row r="159" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
@@ -4660,7 +4661,7 @@
       <c r="P159" s="9"/>
       <c r="Q159" s="9"/>
     </row>
-    <row r="160" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -4675,7 +4676,7 @@
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
     </row>
-    <row r="161" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
@@ -4690,7 +4691,7 @@
       <c r="P161" s="9"/>
       <c r="Q161" s="9"/>
     </row>
-    <row r="162" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
@@ -4705,7 +4706,7 @@
       <c r="P162" s="9"/>
       <c r="Q162" s="9"/>
     </row>
-    <row r="163" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
@@ -4720,7 +4721,7 @@
       <c r="P163" s="9"/>
       <c r="Q163" s="9"/>
     </row>
-    <row r="164" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
@@ -4735,7 +4736,7 @@
       <c r="P164" s="9"/>
       <c r="Q164" s="9"/>
     </row>
-    <row r="165" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
@@ -4750,7 +4751,7 @@
       <c r="P165" s="9"/>
       <c r="Q165" s="9"/>
     </row>
-    <row r="166" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
@@ -4765,7 +4766,7 @@
       <c r="P166" s="9"/>
       <c r="Q166" s="9"/>
     </row>
-    <row r="167" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
@@ -4780,7 +4781,7 @@
       <c r="P167" s="9"/>
       <c r="Q167" s="9"/>
     </row>
-    <row r="168" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
@@ -4795,7 +4796,7 @@
       <c r="P168" s="9"/>
       <c r="Q168" s="9"/>
     </row>
-    <row r="169" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
@@ -4810,7 +4811,7 @@
       <c r="P169" s="9"/>
       <c r="Q169" s="9"/>
     </row>
-    <row r="170" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
@@ -4825,7 +4826,7 @@
       <c r="P170" s="9"/>
       <c r="Q170" s="9"/>
     </row>
-    <row r="171" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
@@ -4840,7 +4841,7 @@
       <c r="P171" s="9"/>
       <c r="Q171" s="9"/>
     </row>
-    <row r="172" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
@@ -4855,7 +4856,7 @@
       <c r="P172" s="9"/>
       <c r="Q172" s="9"/>
     </row>
-    <row r="173" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
@@ -4870,7 +4871,7 @@
       <c r="P173" s="9"/>
       <c r="Q173" s="9"/>
     </row>
-    <row r="174" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
@@ -4885,7 +4886,7 @@
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
     </row>
-    <row r="175" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
@@ -4900,7 +4901,7 @@
       <c r="P175" s="9"/>
       <c r="Q175" s="9"/>
     </row>
-    <row r="176" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
@@ -4915,7 +4916,7 @@
       <c r="P176" s="9"/>
       <c r="Q176" s="9"/>
     </row>
-    <row r="177" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
@@ -4930,7 +4931,7 @@
       <c r="P177" s="9"/>
       <c r="Q177" s="9"/>
     </row>
-    <row r="178" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
@@ -4945,7 +4946,7 @@
       <c r="P178" s="9"/>
       <c r="Q178" s="9"/>
     </row>
-    <row r="179" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -4960,7 +4961,7 @@
       <c r="P179" s="9"/>
       <c r="Q179" s="9"/>
     </row>
-    <row r="180" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
@@ -4975,7 +4976,7 @@
       <c r="P180" s="9"/>
       <c r="Q180" s="9"/>
     </row>
-    <row r="181" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
@@ -4990,7 +4991,7 @@
       <c r="P181" s="9"/>
       <c r="Q181" s="9"/>
     </row>
-    <row r="182" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
@@ -5005,7 +5006,7 @@
       <c r="P182" s="9"/>
       <c r="Q182" s="9"/>
     </row>
-    <row r="183" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
@@ -5020,7 +5021,7 @@
       <c r="P183" s="9"/>
       <c r="Q183" s="9"/>
     </row>
-    <row r="184" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
@@ -5035,7 +5036,7 @@
       <c r="P184" s="9"/>
       <c r="Q184" s="9"/>
     </row>
-    <row r="185" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
@@ -5050,7 +5051,7 @@
       <c r="P185" s="9"/>
       <c r="Q185" s="9"/>
     </row>
-    <row r="186" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
@@ -5065,7 +5066,7 @@
       <c r="P186" s="9"/>
       <c r="Q186" s="9"/>
     </row>
-    <row r="187" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
@@ -5080,7 +5081,7 @@
       <c r="P187" s="9"/>
       <c r="Q187" s="9"/>
     </row>
-    <row r="188" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
@@ -5095,7 +5096,7 @@
       <c r="P188" s="9"/>
       <c r="Q188" s="9"/>
     </row>
-    <row r="189" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
@@ -5110,7 +5111,7 @@
       <c r="P189" s="9"/>
       <c r="Q189" s="9"/>
     </row>
-    <row r="190" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
@@ -5125,7 +5126,7 @@
       <c r="P190" s="9"/>
       <c r="Q190" s="9"/>
     </row>
-    <row r="191" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -5140,7 +5141,7 @@
       <c r="P191" s="9"/>
       <c r="Q191" s="9"/>
     </row>
-    <row r="192" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
@@ -5155,7 +5156,7 @@
       <c r="P192" s="9"/>
       <c r="Q192" s="9"/>
     </row>
-    <row r="193" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
@@ -5170,7 +5171,7 @@
       <c r="P193" s="9"/>
       <c r="Q193" s="9"/>
     </row>
-    <row r="194" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
@@ -5185,7 +5186,7 @@
       <c r="P194" s="9"/>
       <c r="Q194" s="9"/>
     </row>
-    <row r="195" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
@@ -5200,7 +5201,7 @@
       <c r="P195" s="9"/>
       <c r="Q195" s="9"/>
     </row>
-    <row r="196" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
@@ -5215,7 +5216,7 @@
       <c r="P196" s="9"/>
       <c r="Q196" s="9"/>
     </row>
-    <row r="197" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
@@ -5230,7 +5231,7 @@
       <c r="P197" s="9"/>
       <c r="Q197" s="9"/>
     </row>
-    <row r="198" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
@@ -5245,7 +5246,7 @@
       <c r="P198" s="9"/>
       <c r="Q198" s="9"/>
     </row>
-    <row r="199" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
@@ -5260,7 +5261,7 @@
       <c r="P199" s="9"/>
       <c r="Q199" s="9"/>
     </row>
-    <row r="200" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
@@ -5275,7 +5276,7 @@
       <c r="P200" s="9"/>
       <c r="Q200" s="9"/>
     </row>
-    <row r="201" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
@@ -5290,7 +5291,7 @@
       <c r="P201" s="9"/>
       <c r="Q201" s="9"/>
     </row>
-    <row r="202" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
@@ -5305,7 +5306,7 @@
       <c r="P202" s="9"/>
       <c r="Q202" s="9"/>
     </row>
-    <row r="203" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
@@ -5320,7 +5321,7 @@
       <c r="P203" s="9"/>
       <c r="Q203" s="9"/>
     </row>
-    <row r="204" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
@@ -5335,7 +5336,7 @@
       <c r="P204" s="9"/>
       <c r="Q204" s="9"/>
     </row>
-    <row r="205" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
@@ -5350,7 +5351,7 @@
       <c r="P205" s="9"/>
       <c r="Q205" s="9"/>
     </row>
-    <row r="206" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
@@ -5365,7 +5366,7 @@
       <c r="P206" s="9"/>
       <c r="Q206" s="9"/>
     </row>
-    <row r="207" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
@@ -5380,7 +5381,7 @@
       <c r="P207" s="9"/>
       <c r="Q207" s="9"/>
     </row>
-    <row r="208" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
@@ -5395,7 +5396,7 @@
       <c r="P208" s="9"/>
       <c r="Q208" s="9"/>
     </row>
-    <row r="209" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
@@ -5410,7 +5411,7 @@
       <c r="P209" s="9"/>
       <c r="Q209" s="9"/>
     </row>
-    <row r="210" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
@@ -5425,7 +5426,7 @@
       <c r="P210" s="9"/>
       <c r="Q210" s="9"/>
     </row>
-    <row r="211" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
@@ -5440,7 +5441,7 @@
       <c r="P211" s="9"/>
       <c r="Q211" s="9"/>
     </row>
-    <row r="212" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
@@ -5455,7 +5456,7 @@
       <c r="P212" s="9"/>
       <c r="Q212" s="9"/>
     </row>
-    <row r="213" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
@@ -5470,7 +5471,7 @@
       <c r="P213" s="9"/>
       <c r="Q213" s="9"/>
     </row>
-    <row r="214" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
@@ -5485,7 +5486,7 @@
       <c r="P214" s="9"/>
       <c r="Q214" s="9"/>
     </row>
-    <row r="215" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
@@ -5500,7 +5501,7 @@
       <c r="P215" s="9"/>
       <c r="Q215" s="9"/>
     </row>
-    <row r="216" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
@@ -5515,7 +5516,7 @@
       <c r="P216" s="9"/>
       <c r="Q216" s="9"/>
     </row>
-    <row r="217" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
@@ -5530,7 +5531,7 @@
       <c r="P217" s="9"/>
       <c r="Q217" s="9"/>
     </row>
-    <row r="218" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
@@ -5545,7 +5546,7 @@
       <c r="P218" s="9"/>
       <c r="Q218" s="9"/>
     </row>
-    <row r="219" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
@@ -5560,7 +5561,7 @@
       <c r="P219" s="9"/>
       <c r="Q219" s="9"/>
     </row>
-    <row r="220" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
@@ -5575,7 +5576,7 @@
       <c r="P220" s="9"/>
       <c r="Q220" s="9"/>
     </row>
-    <row r="221" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
@@ -5590,7 +5591,7 @@
       <c r="P221" s="9"/>
       <c r="Q221" s="9"/>
     </row>
-    <row r="222" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
@@ -5605,7 +5606,7 @@
       <c r="P222" s="9"/>
       <c r="Q222" s="9"/>
     </row>
-    <row r="223" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
@@ -5620,7 +5621,7 @@
       <c r="P223" s="9"/>
       <c r="Q223" s="9"/>
     </row>
-    <row r="224" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
@@ -5635,7 +5636,7 @@
       <c r="P224" s="9"/>
       <c r="Q224" s="9"/>
     </row>
-    <row r="225" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
@@ -5650,7 +5651,7 @@
       <c r="P225" s="9"/>
       <c r="Q225" s="9"/>
     </row>
-    <row r="226" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
@@ -5665,7 +5666,7 @@
       <c r="P226" s="9"/>
       <c r="Q226" s="9"/>
     </row>
-    <row r="227" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
@@ -5680,7 +5681,7 @@
       <c r="P227" s="9"/>
       <c r="Q227" s="9"/>
     </row>
-    <row r="228" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
@@ -5695,7 +5696,7 @@
       <c r="P228" s="9"/>
       <c r="Q228" s="9"/>
     </row>
-    <row r="229" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
@@ -5710,7 +5711,7 @@
       <c r="P229" s="9"/>
       <c r="Q229" s="9"/>
     </row>
-    <row r="230" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
@@ -5725,7 +5726,7 @@
       <c r="P230" s="9"/>
       <c r="Q230" s="9"/>
     </row>
-    <row r="231" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
@@ -5740,7 +5741,7 @@
       <c r="P231" s="9"/>
       <c r="Q231" s="9"/>
     </row>
-    <row r="232" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
@@ -5755,7 +5756,7 @@
       <c r="P232" s="9"/>
       <c r="Q232" s="9"/>
     </row>
-    <row r="233" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
@@ -5770,7 +5771,7 @@
       <c r="P233" s="9"/>
       <c r="Q233" s="9"/>
     </row>
-    <row r="234" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
@@ -5785,7 +5786,7 @@
       <c r="P234" s="9"/>
       <c r="Q234" s="9"/>
     </row>
-    <row r="235" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
@@ -5800,7 +5801,7 @@
       <c r="P235" s="9"/>
       <c r="Q235" s="9"/>
     </row>
-    <row r="236" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
@@ -5815,7 +5816,7 @@
       <c r="P236" s="9"/>
       <c r="Q236" s="9"/>
     </row>
-    <row r="237" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
@@ -5830,7 +5831,7 @@
       <c r="P237" s="9"/>
       <c r="Q237" s="9"/>
     </row>
-    <row r="238" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
@@ -5845,7 +5846,7 @@
       <c r="P238" s="9"/>
       <c r="Q238" s="9"/>
     </row>
-    <row r="239" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
@@ -5860,7 +5861,7 @@
       <c r="P239" s="9"/>
       <c r="Q239" s="9"/>
     </row>
-    <row r="240" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
@@ -5875,7 +5876,7 @@
       <c r="P240" s="9"/>
       <c r="Q240" s="9"/>
     </row>
-    <row r="241" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
@@ -5890,7 +5891,7 @@
       <c r="P241" s="9"/>
       <c r="Q241" s="9"/>
     </row>
-    <row r="242" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
@@ -5905,7 +5906,7 @@
       <c r="P242" s="9"/>
       <c r="Q242" s="9"/>
     </row>
-    <row r="243" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
@@ -5920,7 +5921,7 @@
       <c r="P243" s="9"/>
       <c r="Q243" s="9"/>
     </row>
-    <row r="244" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
@@ -5935,7 +5936,7 @@
       <c r="P244" s="9"/>
       <c r="Q244" s="9"/>
     </row>
-    <row r="245" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
@@ -5950,7 +5951,7 @@
       <c r="P245" s="9"/>
       <c r="Q245" s="9"/>
     </row>
-    <row r="246" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
@@ -5965,7 +5966,7 @@
       <c r="P246" s="9"/>
       <c r="Q246" s="9"/>
     </row>
-    <row r="247" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
@@ -5980,7 +5981,7 @@
       <c r="P247" s="9"/>
       <c r="Q247" s="9"/>
     </row>
-    <row r="248" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
@@ -5995,7 +5996,7 @@
       <c r="P248" s="9"/>
       <c r="Q248" s="9"/>
     </row>
-    <row r="249" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
@@ -6010,7 +6011,7 @@
       <c r="P249" s="9"/>
       <c r="Q249" s="9"/>
     </row>
-    <row r="250" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
@@ -6025,7 +6026,7 @@
       <c r="P250" s="9"/>
       <c r="Q250" s="9"/>
     </row>
-    <row r="251" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
@@ -6040,7 +6041,7 @@
       <c r="P251" s="9"/>
       <c r="Q251" s="9"/>
     </row>
-    <row r="252" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
@@ -6055,7 +6056,7 @@
       <c r="P252" s="9"/>
       <c r="Q252" s="9"/>
     </row>
-    <row r="253" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
@@ -6070,7 +6071,7 @@
       <c r="P253" s="9"/>
       <c r="Q253" s="9"/>
     </row>
-    <row r="254" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
@@ -6085,7 +6086,7 @@
       <c r="P254" s="9"/>
       <c r="Q254" s="9"/>
     </row>
-    <row r="255" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
@@ -6100,7 +6101,7 @@
       <c r="P255" s="9"/>
       <c r="Q255" s="9"/>
     </row>
-    <row r="256" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
@@ -6115,7 +6116,7 @@
       <c r="P256" s="9"/>
       <c r="Q256" s="9"/>
     </row>
-    <row r="257" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
@@ -6130,7 +6131,7 @@
       <c r="P257" s="9"/>
       <c r="Q257" s="9"/>
     </row>
-    <row r="258" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
@@ -6145,7 +6146,7 @@
       <c r="P258" s="9"/>
       <c r="Q258" s="9"/>
     </row>
-    <row r="259" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
@@ -6160,7 +6161,7 @@
       <c r="P259" s="9"/>
       <c r="Q259" s="9"/>
     </row>
-    <row r="260" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
@@ -6175,7 +6176,7 @@
       <c r="P260" s="9"/>
       <c r="Q260" s="9"/>
     </row>
-    <row r="261" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
@@ -6190,7 +6191,7 @@
       <c r="P261" s="9"/>
       <c r="Q261" s="9"/>
     </row>
-    <row r="262" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
@@ -6205,7 +6206,7 @@
       <c r="P262" s="9"/>
       <c r="Q262" s="9"/>
     </row>
-    <row r="263" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
@@ -6220,7 +6221,7 @@
       <c r="P263" s="9"/>
       <c r="Q263" s="9"/>
     </row>
-    <row r="264" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
@@ -6235,7 +6236,7 @@
       <c r="P264" s="9"/>
       <c r="Q264" s="9"/>
     </row>
-    <row r="265" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
@@ -6250,7 +6251,7 @@
       <c r="P265" s="9"/>
       <c r="Q265" s="9"/>
     </row>
-    <row r="266" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
@@ -6265,7 +6266,7 @@
       <c r="P266" s="9"/>
       <c r="Q266" s="9"/>
     </row>
-    <row r="267" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
@@ -6280,7 +6281,7 @@
       <c r="P267" s="9"/>
       <c r="Q267" s="9"/>
     </row>
-    <row r="268" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
@@ -6295,7 +6296,7 @@
       <c r="P268" s="9"/>
       <c r="Q268" s="9"/>
     </row>
-    <row r="269" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
@@ -6310,7 +6311,7 @@
       <c r="P269" s="9"/>
       <c r="Q269" s="9"/>
     </row>
-    <row r="270" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
@@ -6325,7 +6326,7 @@
       <c r="P270" s="9"/>
       <c r="Q270" s="9"/>
     </row>
-    <row r="271" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
@@ -6340,7 +6341,7 @@
       <c r="P271" s="9"/>
       <c r="Q271" s="9"/>
     </row>
-    <row r="272" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
@@ -6355,7 +6356,7 @@
       <c r="P272" s="9"/>
       <c r="Q272" s="9"/>
     </row>
-    <row r="273" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
@@ -6370,7 +6371,7 @@
       <c r="P273" s="9"/>
       <c r="Q273" s="9"/>
     </row>
-    <row r="274" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
@@ -6385,7 +6386,7 @@
       <c r="P274" s="9"/>
       <c r="Q274" s="9"/>
     </row>
-    <row r="275" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
@@ -6400,7 +6401,7 @@
       <c r="P275" s="9"/>
       <c r="Q275" s="9"/>
     </row>
-    <row r="276" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
@@ -6415,7 +6416,7 @@
       <c r="P276" s="9"/>
       <c r="Q276" s="9"/>
     </row>
-    <row r="277" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
       <c r="F277" s="9"/>
@@ -6430,7 +6431,7 @@
       <c r="P277" s="9"/>
       <c r="Q277" s="9"/>
     </row>
-    <row r="278" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
@@ -6445,7 +6446,7 @@
       <c r="P278" s="9"/>
       <c r="Q278" s="9"/>
     </row>
-    <row r="279" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
@@ -6460,7 +6461,7 @@
       <c r="P279" s="9"/>
       <c r="Q279" s="9"/>
     </row>
-    <row r="280" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
@@ -6475,7 +6476,7 @@
       <c r="P280" s="9"/>
       <c r="Q280" s="9"/>
     </row>
-    <row r="281" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
@@ -6490,7 +6491,7 @@
       <c r="P281" s="9"/>
       <c r="Q281" s="9"/>
     </row>
-    <row r="282" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
@@ -6505,7 +6506,7 @@
       <c r="P282" s="9"/>
       <c r="Q282" s="9"/>
     </row>
-    <row r="283" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
@@ -6520,7 +6521,7 @@
       <c r="P283" s="9"/>
       <c r="Q283" s="9"/>
     </row>
-    <row r="284" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
@@ -6535,7 +6536,7 @@
       <c r="P284" s="9"/>
       <c r="Q284" s="9"/>
     </row>
-    <row r="285" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
@@ -6550,7 +6551,7 @@
       <c r="P285" s="9"/>
       <c r="Q285" s="9"/>
     </row>
-    <row r="286" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
@@ -6565,7 +6566,7 @@
       <c r="P286" s="9"/>
       <c r="Q286" s="9"/>
     </row>
-    <row r="287" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
@@ -6580,7 +6581,7 @@
       <c r="P287" s="9"/>
       <c r="Q287" s="9"/>
     </row>
-    <row r="288" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
@@ -6595,7 +6596,7 @@
       <c r="P288" s="9"/>
       <c r="Q288" s="9"/>
     </row>
-    <row r="289" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
@@ -6610,7 +6611,7 @@
       <c r="P289" s="9"/>
       <c r="Q289" s="9"/>
     </row>
-    <row r="290" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
@@ -6625,7 +6626,7 @@
       <c r="P290" s="9"/>
       <c r="Q290" s="9"/>
     </row>
-    <row r="291" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
@@ -6640,7 +6641,7 @@
       <c r="P291" s="9"/>
       <c r="Q291" s="9"/>
     </row>
-    <row r="292" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
@@ -6655,7 +6656,7 @@
       <c r="P292" s="9"/>
       <c r="Q292" s="9"/>
     </row>
-    <row r="293" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
@@ -6670,7 +6671,7 @@
       <c r="P293" s="9"/>
       <c r="Q293" s="9"/>
     </row>
-    <row r="294" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
@@ -6685,7 +6686,7 @@
       <c r="P294" s="9"/>
       <c r="Q294" s="9"/>
     </row>
-    <row r="295" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
@@ -6700,7 +6701,7 @@
       <c r="P295" s="9"/>
       <c r="Q295" s="9"/>
     </row>
-    <row r="296" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
@@ -6715,7 +6716,7 @@
       <c r="P296" s="9"/>
       <c r="Q296" s="9"/>
     </row>
-    <row r="297" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
@@ -6730,7 +6731,7 @@
       <c r="P297" s="9"/>
       <c r="Q297" s="9"/>
     </row>
-    <row r="298" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
@@ -6745,7 +6746,7 @@
       <c r="P298" s="9"/>
       <c r="Q298" s="9"/>
     </row>
-    <row r="299" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
@@ -6760,7 +6761,7 @@
       <c r="P299" s="9"/>
       <c r="Q299" s="9"/>
     </row>
-    <row r="300" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
@@ -6775,7 +6776,7 @@
       <c r="P300" s="9"/>
       <c r="Q300" s="9"/>
     </row>
-    <row r="301" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
@@ -6790,7 +6791,7 @@
       <c r="P301" s="9"/>
       <c r="Q301" s="9"/>
     </row>
-    <row r="302" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
@@ -6805,7 +6806,7 @@
       <c r="P302" s="9"/>
       <c r="Q302" s="9"/>
     </row>
-    <row r="303" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
@@ -6820,7 +6821,7 @@
       <c r="P303" s="9"/>
       <c r="Q303" s="9"/>
     </row>
-    <row r="304" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
@@ -6835,7 +6836,7 @@
       <c r="P304" s="9"/>
       <c r="Q304" s="9"/>
     </row>
-    <row r="305" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
@@ -6850,7 +6851,7 @@
       <c r="P305" s="9"/>
       <c r="Q305" s="9"/>
     </row>
-    <row r="306" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
@@ -6865,7 +6866,7 @@
       <c r="P306" s="9"/>
       <c r="Q306" s="9"/>
     </row>
-    <row r="307" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
@@ -6880,7 +6881,7 @@
       <c r="P307" s="9"/>
       <c r="Q307" s="9"/>
     </row>
-    <row r="308" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
@@ -6895,7 +6896,7 @@
       <c r="P308" s="9"/>
       <c r="Q308" s="9"/>
     </row>
-    <row r="309" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
@@ -6910,7 +6911,7 @@
       <c r="P309" s="9"/>
       <c r="Q309" s="9"/>
     </row>
-    <row r="310" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
@@ -6925,7 +6926,7 @@
       <c r="P310" s="9"/>
       <c r="Q310" s="9"/>
     </row>
-    <row r="311" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
@@ -6940,7 +6941,7 @@
       <c r="P311" s="9"/>
       <c r="Q311" s="9"/>
     </row>
-    <row r="312" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
@@ -6955,7 +6956,7 @@
       <c r="P312" s="9"/>
       <c r="Q312" s="9"/>
     </row>
-    <row r="313" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
@@ -6970,7 +6971,7 @@
       <c r="P313" s="9"/>
       <c r="Q313" s="9"/>
     </row>
-    <row r="314" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
@@ -6985,7 +6986,7 @@
       <c r="P314" s="9"/>
       <c r="Q314" s="9"/>
     </row>
-    <row r="315" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
@@ -7000,7 +7001,7 @@
       <c r="P315" s="9"/>
       <c r="Q315" s="9"/>
     </row>
-    <row r="316" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D316" s="9"/>
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
@@ -7015,7 +7016,7 @@
       <c r="P316" s="9"/>
       <c r="Q316" s="9"/>
     </row>
-    <row r="317" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
@@ -7030,7 +7031,7 @@
       <c r="P317" s="9"/>
       <c r="Q317" s="9"/>
     </row>
-    <row r="318" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
@@ -7045,7 +7046,7 @@
       <c r="P318" s="9"/>
       <c r="Q318" s="9"/>
     </row>
-    <row r="319" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D319" s="9"/>
       <c r="E319" s="9"/>
       <c r="F319" s="9"/>
@@ -7060,7 +7061,7 @@
       <c r="P319" s="9"/>
       <c r="Q319" s="9"/>
     </row>
-    <row r="320" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D320" s="9"/>
       <c r="E320" s="9"/>
       <c r="F320" s="9"/>
@@ -7075,7 +7076,7 @@
       <c r="P320" s="9"/>
       <c r="Q320" s="9"/>
     </row>
-    <row r="321" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D321" s="9"/>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
@@ -7090,7 +7091,7 @@
       <c r="P321" s="9"/>
       <c r="Q321" s="9"/>
     </row>
-    <row r="322" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
@@ -7105,7 +7106,7 @@
       <c r="P322" s="9"/>
       <c r="Q322" s="9"/>
     </row>
-    <row r="323" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D323" s="9"/>
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
@@ -7120,7 +7121,7 @@
       <c r="P323" s="9"/>
       <c r="Q323" s="9"/>
     </row>
-    <row r="324" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D324" s="9"/>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
@@ -7135,7 +7136,7 @@
       <c r="P324" s="9"/>
       <c r="Q324" s="9"/>
     </row>
-    <row r="325" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
       <c r="F325" s="9"/>
@@ -7150,7 +7151,7 @@
       <c r="P325" s="9"/>
       <c r="Q325" s="9"/>
     </row>
-    <row r="326" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D326" s="9"/>
       <c r="E326" s="9"/>
       <c r="F326" s="9"/>
@@ -7165,7 +7166,7 @@
       <c r="P326" s="9"/>
       <c r="Q326" s="9"/>
     </row>
-    <row r="327" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D327" s="9"/>
       <c r="E327" s="9"/>
       <c r="F327" s="9"/>
@@ -7180,7 +7181,7 @@
       <c r="P327" s="9"/>
       <c r="Q327" s="9"/>
     </row>
-    <row r="328" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D328" s="9"/>
       <c r="E328" s="9"/>
       <c r="F328" s="9"/>
@@ -7195,7 +7196,7 @@
       <c r="P328" s="9"/>
       <c r="Q328" s="9"/>
     </row>
-    <row r="329" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D329" s="9"/>
       <c r="E329" s="9"/>
       <c r="F329" s="9"/>
@@ -7210,7 +7211,7 @@
       <c r="P329" s="9"/>
       <c r="Q329" s="9"/>
     </row>
-    <row r="330" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D330" s="9"/>
       <c r="E330" s="9"/>
       <c r="F330" s="9"/>
@@ -7225,7 +7226,7 @@
       <c r="P330" s="9"/>
       <c r="Q330" s="9"/>
     </row>
-    <row r="331" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
       <c r="F331" s="9"/>
@@ -7240,7 +7241,7 @@
       <c r="P331" s="9"/>
       <c r="Q331" s="9"/>
     </row>
-    <row r="332" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D332" s="9"/>
       <c r="E332" s="9"/>
       <c r="F332" s="9"/>
@@ -7255,7 +7256,7 @@
       <c r="P332" s="9"/>
       <c r="Q332" s="9"/>
     </row>
-    <row r="333" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D333" s="9"/>
       <c r="E333" s="9"/>
       <c r="F333" s="9"/>
@@ -7270,7 +7271,7 @@
       <c r="P333" s="9"/>
       <c r="Q333" s="9"/>
     </row>
-    <row r="334" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D334" s="9"/>
       <c r="E334" s="9"/>
       <c r="F334" s="9"/>
@@ -7285,7 +7286,7 @@
       <c r="P334" s="9"/>
       <c r="Q334" s="9"/>
     </row>
-    <row r="335" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D335" s="9"/>
       <c r="E335" s="9"/>
       <c r="F335" s="9"/>
@@ -7300,7 +7301,7 @@
       <c r="P335" s="9"/>
       <c r="Q335" s="9"/>
     </row>
-    <row r="336" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D336" s="9"/>
       <c r="E336" s="9"/>
       <c r="F336" s="9"/>
@@ -7315,7 +7316,7 @@
       <c r="P336" s="9"/>
       <c r="Q336" s="9"/>
     </row>
-    <row r="337" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D337" s="9"/>
       <c r="E337" s="9"/>
       <c r="F337" s="9"/>
@@ -7330,7 +7331,7 @@
       <c r="P337" s="9"/>
       <c r="Q337" s="9"/>
     </row>
-    <row r="338" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D338" s="9"/>
       <c r="E338" s="9"/>
       <c r="F338" s="9"/>
@@ -7345,7 +7346,7 @@
       <c r="P338" s="9"/>
       <c r="Q338" s="9"/>
     </row>
-    <row r="339" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D339" s="9"/>
       <c r="E339" s="9"/>
       <c r="F339" s="9"/>
@@ -7360,7 +7361,7 @@
       <c r="P339" s="9"/>
       <c r="Q339" s="9"/>
     </row>
-    <row r="340" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D340" s="9"/>
       <c r="E340" s="9"/>
       <c r="F340" s="9"/>
@@ -7375,7 +7376,7 @@
       <c r="P340" s="9"/>
       <c r="Q340" s="9"/>
     </row>
-    <row r="341" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D341" s="9"/>
       <c r="E341" s="9"/>
       <c r="F341" s="9"/>
@@ -7390,7 +7391,7 @@
       <c r="P341" s="9"/>
       <c r="Q341" s="9"/>
     </row>
-    <row r="342" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D342" s="9"/>
       <c r="E342" s="9"/>
       <c r="F342" s="9"/>
@@ -7405,7 +7406,7 @@
       <c r="P342" s="9"/>
       <c r="Q342" s="9"/>
     </row>
-    <row r="343" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D343" s="9"/>
       <c r="E343" s="9"/>
       <c r="F343" s="9"/>
@@ -7420,7 +7421,7 @@
       <c r="P343" s="9"/>
       <c r="Q343" s="9"/>
     </row>
-    <row r="344" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D344" s="9"/>
       <c r="E344" s="9"/>
       <c r="F344" s="9"/>
@@ -7435,7 +7436,7 @@
       <c r="P344" s="9"/>
       <c r="Q344" s="9"/>
     </row>
-    <row r="345" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D345" s="9"/>
       <c r="E345" s="9"/>
       <c r="F345" s="9"/>
@@ -7450,7 +7451,7 @@
       <c r="P345" s="9"/>
       <c r="Q345" s="9"/>
     </row>
-    <row r="346" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D346" s="9"/>
       <c r="E346" s="9"/>
       <c r="F346" s="9"/>
@@ -7465,7 +7466,7 @@
       <c r="P346" s="9"/>
       <c r="Q346" s="9"/>
     </row>
-    <row r="347" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D347" s="9"/>
       <c r="E347" s="9"/>
       <c r="F347" s="9"/>
@@ -7480,7 +7481,7 @@
       <c r="P347" s="9"/>
       <c r="Q347" s="9"/>
     </row>
-    <row r="348" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D348" s="9"/>
       <c r="E348" s="9"/>
       <c r="F348" s="9"/>
@@ -7495,7 +7496,7 @@
       <c r="P348" s="9"/>
       <c r="Q348" s="9"/>
     </row>
-    <row r="349" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
       <c r="F349" s="9"/>
@@ -7510,7 +7511,7 @@
       <c r="P349" s="9"/>
       <c r="Q349" s="9"/>
     </row>
-    <row r="350" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D350" s="9"/>
       <c r="E350" s="9"/>
       <c r="F350" s="9"/>
@@ -7525,7 +7526,7 @@
       <c r="P350" s="9"/>
       <c r="Q350" s="9"/>
     </row>
-    <row r="351" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D351" s="9"/>
       <c r="E351" s="9"/>
       <c r="F351" s="9"/>
@@ -7540,7 +7541,7 @@
       <c r="P351" s="9"/>
       <c r="Q351" s="9"/>
     </row>
-    <row r="352" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
       <c r="F352" s="9"/>
@@ -7555,7 +7556,7 @@
       <c r="P352" s="9"/>
       <c r="Q352" s="9"/>
     </row>
-    <row r="353" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D353" s="9"/>
       <c r="E353" s="9"/>
       <c r="F353" s="9"/>
@@ -7570,7 +7571,7 @@
       <c r="P353" s="9"/>
       <c r="Q353" s="9"/>
     </row>
-    <row r="354" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D354" s="9"/>
       <c r="E354" s="9"/>
       <c r="F354" s="9"/>
@@ -7585,7 +7586,7 @@
       <c r="P354" s="9"/>
       <c r="Q354" s="9"/>
     </row>
-    <row r="355" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D355" s="9"/>
       <c r="E355" s="9"/>
       <c r="F355" s="9"/>
@@ -7600,7 +7601,7 @@
       <c r="P355" s="9"/>
       <c r="Q355" s="9"/>
     </row>
-    <row r="356" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D356" s="9"/>
       <c r="E356" s="9"/>
       <c r="F356" s="9"/>
@@ -7615,7 +7616,7 @@
       <c r="P356" s="9"/>
       <c r="Q356" s="9"/>
     </row>
-    <row r="357" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D357" s="9"/>
       <c r="E357" s="9"/>
       <c r="F357" s="9"/>
@@ -7630,7 +7631,7 @@
       <c r="P357" s="9"/>
       <c r="Q357" s="9"/>
     </row>
-    <row r="358" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D358" s="9"/>
       <c r="E358" s="9"/>
       <c r="F358" s="9"/>
@@ -7645,7 +7646,7 @@
       <c r="P358" s="9"/>
       <c r="Q358" s="9"/>
     </row>
-    <row r="359" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D359" s="9"/>
       <c r="E359" s="9"/>
       <c r="F359" s="9"/>
@@ -7660,7 +7661,7 @@
       <c r="P359" s="9"/>
       <c r="Q359" s="9"/>
     </row>
-    <row r="360" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D360" s="9"/>
       <c r="E360" s="9"/>
       <c r="F360" s="9"/>
@@ -7675,7 +7676,7 @@
       <c r="P360" s="9"/>
       <c r="Q360" s="9"/>
     </row>
-    <row r="361" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D361" s="9"/>
       <c r="E361" s="9"/>
       <c r="F361" s="9"/>
@@ -7690,7 +7691,7 @@
       <c r="P361" s="9"/>
       <c r="Q361" s="9"/>
     </row>
-    <row r="362" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D362" s="9"/>
       <c r="E362" s="9"/>
       <c r="F362" s="9"/>
@@ -7705,7 +7706,7 @@
       <c r="P362" s="9"/>
       <c r="Q362" s="9"/>
     </row>
-    <row r="363" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D363" s="9"/>
       <c r="E363" s="9"/>
       <c r="F363" s="9"/>
@@ -7720,7 +7721,7 @@
       <c r="P363" s="9"/>
       <c r="Q363" s="9"/>
     </row>
-    <row r="364" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D364" s="9"/>
       <c r="E364" s="9"/>
       <c r="F364" s="9"/>
@@ -7735,7 +7736,7 @@
       <c r="P364" s="9"/>
       <c r="Q364" s="9"/>
     </row>
-    <row r="365" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D365" s="9"/>
       <c r="E365" s="9"/>
       <c r="F365" s="9"/>
@@ -7750,7 +7751,7 @@
       <c r="P365" s="9"/>
       <c r="Q365" s="9"/>
     </row>
-    <row r="366" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D366" s="9"/>
       <c r="E366" s="9"/>
       <c r="F366" s="9"/>
@@ -7765,7 +7766,7 @@
       <c r="P366" s="9"/>
       <c r="Q366" s="9"/>
     </row>
-    <row r="367" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
       <c r="F367" s="9"/>
@@ -7780,7 +7781,7 @@
       <c r="P367" s="9"/>
       <c r="Q367" s="9"/>
     </row>
-    <row r="368" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D368" s="9"/>
       <c r="E368" s="9"/>
       <c r="F368" s="9"/>
@@ -7795,7 +7796,7 @@
       <c r="P368" s="9"/>
       <c r="Q368" s="9"/>
     </row>
-    <row r="369" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D369" s="9"/>
       <c r="E369" s="9"/>
       <c r="F369" s="9"/>
@@ -7810,7 +7811,7 @@
       <c r="P369" s="9"/>
       <c r="Q369" s="9"/>
     </row>
-    <row r="370" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D370" s="9"/>
       <c r="E370" s="9"/>
       <c r="F370" s="9"/>
@@ -7825,7 +7826,7 @@
       <c r="P370" s="9"/>
       <c r="Q370" s="9"/>
     </row>
-    <row r="371" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D371" s="9"/>
       <c r="E371" s="9"/>
       <c r="F371" s="9"/>
@@ -7840,7 +7841,7 @@
       <c r="P371" s="9"/>
       <c r="Q371" s="9"/>
     </row>
-    <row r="372" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D372" s="9"/>
       <c r="E372" s="9"/>
       <c r="F372" s="9"/>
@@ -7855,7 +7856,7 @@
       <c r="P372" s="9"/>
       <c r="Q372" s="9"/>
     </row>
-    <row r="373" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D373" s="9"/>
       <c r="E373" s="9"/>
       <c r="F373" s="9"/>
@@ -7870,7 +7871,7 @@
       <c r="P373" s="9"/>
       <c r="Q373" s="9"/>
     </row>
-    <row r="374" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D374" s="9"/>
       <c r="E374" s="9"/>
       <c r="F374" s="9"/>
@@ -7885,7 +7886,7 @@
       <c r="P374" s="9"/>
       <c r="Q374" s="9"/>
     </row>
-    <row r="375" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D375" s="9"/>
       <c r="E375" s="9"/>
       <c r="F375" s="9"/>
@@ -7900,7 +7901,7 @@
       <c r="P375" s="9"/>
       <c r="Q375" s="9"/>
     </row>
-    <row r="376" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D376" s="9"/>
       <c r="E376" s="9"/>
       <c r="F376" s="9"/>
@@ -7915,7 +7916,7 @@
       <c r="P376" s="9"/>
       <c r="Q376" s="9"/>
     </row>
-    <row r="377" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D377" s="9"/>
       <c r="E377" s="9"/>
       <c r="F377" s="9"/>
@@ -7930,7 +7931,7 @@
       <c r="P377" s="9"/>
       <c r="Q377" s="9"/>
     </row>
-    <row r="378" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D378" s="9"/>
       <c r="E378" s="9"/>
       <c r="F378" s="9"/>
@@ -7945,7 +7946,7 @@
       <c r="P378" s="9"/>
       <c r="Q378" s="9"/>
     </row>
-    <row r="379" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D379" s="9"/>
       <c r="E379" s="9"/>
       <c r="F379" s="9"/>
@@ -7960,7 +7961,7 @@
       <c r="P379" s="9"/>
       <c r="Q379" s="9"/>
     </row>
-    <row r="380" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D380" s="9"/>
       <c r="E380" s="9"/>
       <c r="F380" s="9"/>
@@ -7975,7 +7976,7 @@
       <c r="P380" s="9"/>
       <c r="Q380" s="9"/>
     </row>
-    <row r="381" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D381" s="9"/>
       <c r="E381" s="9"/>
       <c r="F381" s="9"/>
@@ -7990,7 +7991,7 @@
       <c r="P381" s="9"/>
       <c r="Q381" s="9"/>
     </row>
-    <row r="382" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D382" s="9"/>
       <c r="E382" s="9"/>
       <c r="F382" s="9"/>
@@ -8005,7 +8006,7 @@
       <c r="P382" s="9"/>
       <c r="Q382" s="9"/>
     </row>
-    <row r="383" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D383" s="9"/>
       <c r="E383" s="9"/>
       <c r="F383" s="9"/>
@@ -8020,7 +8021,7 @@
       <c r="P383" s="9"/>
       <c r="Q383" s="9"/>
     </row>
-    <row r="384" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D384" s="9"/>
       <c r="E384" s="9"/>
       <c r="F384" s="9"/>
@@ -8035,7 +8036,7 @@
       <c r="P384" s="9"/>
       <c r="Q384" s="9"/>
     </row>
-    <row r="385" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D385" s="9"/>
       <c r="E385" s="9"/>
       <c r="F385" s="9"/>
@@ -8050,7 +8051,7 @@
       <c r="P385" s="9"/>
       <c r="Q385" s="9"/>
     </row>
-    <row r="386" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D386" s="9"/>
       <c r="E386" s="9"/>
       <c r="F386" s="9"/>
@@ -8065,7 +8066,7 @@
       <c r="P386" s="9"/>
       <c r="Q386" s="9"/>
     </row>
-    <row r="387" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D387" s="9"/>
       <c r="E387" s="9"/>
       <c r="F387" s="9"/>
@@ -8080,7 +8081,7 @@
       <c r="P387" s="9"/>
       <c r="Q387" s="9"/>
     </row>
-    <row r="388" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D388" s="9"/>
       <c r="E388" s="9"/>
       <c r="F388" s="9"/>
@@ -8095,7 +8096,7 @@
       <c r="P388" s="9"/>
       <c r="Q388" s="9"/>
     </row>
-    <row r="389" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D389" s="9"/>
       <c r="E389" s="9"/>
       <c r="F389" s="9"/>
@@ -8110,7 +8111,7 @@
       <c r="P389" s="9"/>
       <c r="Q389" s="9"/>
     </row>
-    <row r="390" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D390" s="9"/>
       <c r="E390" s="9"/>
       <c r="F390" s="9"/>
@@ -8125,7 +8126,7 @@
       <c r="P390" s="9"/>
       <c r="Q390" s="9"/>
     </row>
-    <row r="391" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D391" s="9"/>
       <c r="E391" s="9"/>
       <c r="F391" s="9"/>
@@ -8140,7 +8141,7 @@
       <c r="P391" s="9"/>
       <c r="Q391" s="9"/>
     </row>
-    <row r="392" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D392" s="9"/>
       <c r="E392" s="9"/>
       <c r="F392" s="9"/>
@@ -8155,7 +8156,7 @@
       <c r="P392" s="9"/>
       <c r="Q392" s="9"/>
     </row>
-    <row r="393" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D393" s="9"/>
       <c r="E393" s="9"/>
       <c r="F393" s="9"/>
@@ -8170,7 +8171,7 @@
       <c r="P393" s="9"/>
       <c r="Q393" s="9"/>
     </row>
-    <row r="394" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D394" s="9"/>
       <c r="E394" s="9"/>
       <c r="F394" s="9"/>
@@ -8185,7 +8186,7 @@
       <c r="P394" s="9"/>
       <c r="Q394" s="9"/>
     </row>
-    <row r="395" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D395" s="9"/>
       <c r="E395" s="9"/>
       <c r="F395" s="9"/>
@@ -8200,7 +8201,7 @@
       <c r="P395" s="9"/>
       <c r="Q395" s="9"/>
     </row>
-    <row r="396" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D396" s="9"/>
       <c r="E396" s="9"/>
       <c r="F396" s="9"/>
@@ -8215,7 +8216,7 @@
       <c r="P396" s="9"/>
       <c r="Q396" s="9"/>
     </row>
-    <row r="397" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D397" s="9"/>
       <c r="E397" s="9"/>
       <c r="F397" s="9"/>
@@ -8230,7 +8231,7 @@
       <c r="P397" s="9"/>
       <c r="Q397" s="9"/>
     </row>
-    <row r="398" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D398" s="9"/>
       <c r="E398" s="9"/>
       <c r="F398" s="9"/>
@@ -8245,7 +8246,7 @@
       <c r="P398" s="9"/>
       <c r="Q398" s="9"/>
     </row>
-    <row r="399" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D399" s="9"/>
       <c r="E399" s="9"/>
       <c r="F399" s="9"/>
@@ -8260,7 +8261,7 @@
       <c r="P399" s="9"/>
       <c r="Q399" s="9"/>
     </row>
-    <row r="400" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D400" s="9"/>
       <c r="E400" s="9"/>
       <c r="F400" s="9"/>
@@ -8275,7 +8276,7 @@
       <c r="P400" s="9"/>
       <c r="Q400" s="9"/>
     </row>
-    <row r="401" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D401" s="9"/>
       <c r="E401" s="9"/>
       <c r="F401" s="9"/>
@@ -8290,7 +8291,7 @@
       <c r="P401" s="9"/>
       <c r="Q401" s="9"/>
     </row>
-    <row r="402" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D402" s="9"/>
       <c r="E402" s="9"/>
       <c r="F402" s="9"/>
@@ -8305,7 +8306,7 @@
       <c r="P402" s="9"/>
       <c r="Q402" s="9"/>
     </row>
-    <row r="403" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D403" s="9"/>
       <c r="E403" s="9"/>
       <c r="F403" s="9"/>
@@ -8320,7 +8321,7 @@
       <c r="P403" s="9"/>
       <c r="Q403" s="9"/>
     </row>
-    <row r="404" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D404" s="9"/>
       <c r="E404" s="9"/>
       <c r="F404" s="9"/>
@@ -8335,7 +8336,7 @@
       <c r="P404" s="9"/>
       <c r="Q404" s="9"/>
     </row>
-    <row r="405" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D405" s="9"/>
       <c r="E405" s="9"/>
       <c r="F405" s="9"/>
@@ -8350,7 +8351,7 @@
       <c r="P405" s="9"/>
       <c r="Q405" s="9"/>
     </row>
-    <row r="406" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D406" s="9"/>
       <c r="E406" s="9"/>
       <c r="F406" s="9"/>
@@ -8365,7 +8366,7 @@
       <c r="P406" s="9"/>
       <c r="Q406" s="9"/>
     </row>
-    <row r="407" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D407" s="9"/>
       <c r="E407" s="9"/>
       <c r="F407" s="9"/>
@@ -8380,7 +8381,7 @@
       <c r="P407" s="9"/>
       <c r="Q407" s="9"/>
     </row>
-    <row r="408" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D408" s="9"/>
       <c r="E408" s="9"/>
       <c r="F408" s="9"/>
@@ -8395,7 +8396,7 @@
       <c r="P408" s="9"/>
       <c r="Q408" s="9"/>
     </row>
-    <row r="409" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D409" s="9"/>
       <c r="E409" s="9"/>
       <c r="F409" s="9"/>
@@ -8410,7 +8411,7 @@
       <c r="P409" s="9"/>
       <c r="Q409" s="9"/>
     </row>
-    <row r="410" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D410" s="9"/>
       <c r="E410" s="9"/>
       <c r="F410" s="9"/>
@@ -8425,7 +8426,7 @@
       <c r="P410" s="9"/>
       <c r="Q410" s="9"/>
     </row>
-    <row r="411" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D411" s="9"/>
       <c r="E411" s="9"/>
       <c r="F411" s="9"/>
@@ -8440,7 +8441,7 @@
       <c r="P411" s="9"/>
       <c r="Q411" s="9"/>
     </row>
-    <row r="412" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D412" s="9"/>
       <c r="E412" s="9"/>
       <c r="F412" s="9"/>
@@ -8455,7 +8456,7 @@
       <c r="P412" s="9"/>
       <c r="Q412" s="9"/>
     </row>
-    <row r="413" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D413" s="9"/>
       <c r="E413" s="9"/>
       <c r="F413" s="9"/>
@@ -8470,7 +8471,7 @@
       <c r="P413" s="9"/>
       <c r="Q413" s="9"/>
     </row>
-    <row r="414" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D414" s="9"/>
       <c r="E414" s="9"/>
       <c r="F414" s="9"/>
@@ -8485,7 +8486,7 @@
       <c r="P414" s="9"/>
       <c r="Q414" s="9"/>
     </row>
-    <row r="415" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D415" s="9"/>
       <c r="E415" s="9"/>
       <c r="F415" s="9"/>
@@ -8500,7 +8501,7 @@
       <c r="P415" s="9"/>
       <c r="Q415" s="9"/>
     </row>
-    <row r="416" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D416" s="9"/>
       <c r="E416" s="9"/>
       <c r="F416" s="9"/>
@@ -8515,7 +8516,7 @@
       <c r="P416" s="9"/>
       <c r="Q416" s="9"/>
     </row>
-    <row r="417" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D417" s="9"/>
       <c r="E417" s="9"/>
       <c r="F417" s="9"/>
@@ -8530,7 +8531,7 @@
       <c r="P417" s="9"/>
       <c r="Q417" s="9"/>
     </row>
-    <row r="418" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D418" s="9"/>
       <c r="E418" s="9"/>
       <c r="F418" s="9"/>
@@ -8545,7 +8546,7 @@
       <c r="P418" s="9"/>
       <c r="Q418" s="9"/>
     </row>
-    <row r="419" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D419" s="9"/>
       <c r="E419" s="9"/>
       <c r="F419" s="9"/>
@@ -8560,7 +8561,7 @@
       <c r="P419" s="9"/>
       <c r="Q419" s="9"/>
     </row>
-    <row r="420" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D420" s="9"/>
       <c r="E420" s="9"/>
       <c r="F420" s="9"/>
@@ -8575,7 +8576,7 @@
       <c r="P420" s="9"/>
       <c r="Q420" s="9"/>
     </row>
-    <row r="421" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D421" s="9"/>
       <c r="E421" s="9"/>
       <c r="F421" s="9"/>
@@ -8590,7 +8591,7 @@
       <c r="P421" s="9"/>
       <c r="Q421" s="9"/>
     </row>
-    <row r="422" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D422" s="9"/>
       <c r="E422" s="9"/>
       <c r="F422" s="9"/>
@@ -8605,7 +8606,7 @@
       <c r="P422" s="9"/>
       <c r="Q422" s="9"/>
     </row>
-    <row r="423" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D423" s="9"/>
       <c r="E423" s="9"/>
       <c r="F423" s="9"/>
@@ -8620,7 +8621,7 @@
       <c r="P423" s="9"/>
       <c r="Q423" s="9"/>
     </row>
-    <row r="424" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D424" s="9"/>
       <c r="E424" s="9"/>
       <c r="F424" s="9"/>
@@ -8635,7 +8636,7 @@
       <c r="P424" s="9"/>
       <c r="Q424" s="9"/>
     </row>
-    <row r="425" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D425" s="9"/>
       <c r="E425" s="9"/>
       <c r="F425" s="9"/>
@@ -8650,7 +8651,7 @@
       <c r="P425" s="9"/>
       <c r="Q425" s="9"/>
     </row>
-    <row r="426" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D426" s="9"/>
       <c r="E426" s="9"/>
       <c r="F426" s="9"/>
@@ -8665,7 +8666,7 @@
       <c r="P426" s="9"/>
       <c r="Q426" s="9"/>
     </row>
-    <row r="427" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D427" s="9"/>
       <c r="E427" s="9"/>
       <c r="F427" s="9"/>
@@ -8680,7 +8681,7 @@
       <c r="P427" s="9"/>
       <c r="Q427" s="9"/>
     </row>
-    <row r="428" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D428" s="9"/>
       <c r="E428" s="9"/>
       <c r="F428" s="9"/>
@@ -8695,7 +8696,7 @@
       <c r="P428" s="9"/>
       <c r="Q428" s="9"/>
     </row>
-    <row r="429" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D429" s="9"/>
       <c r="E429" s="9"/>
       <c r="F429" s="9"/>
@@ -8710,7 +8711,7 @@
       <c r="P429" s="9"/>
       <c r="Q429" s="9"/>
     </row>
-    <row r="430" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D430" s="9"/>
       <c r="E430" s="9"/>
       <c r="F430" s="9"/>
@@ -8725,7 +8726,7 @@
       <c r="P430" s="9"/>
       <c r="Q430" s="9"/>
     </row>
-    <row r="431" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D431" s="9"/>
       <c r="E431" s="9"/>
       <c r="F431" s="9"/>
@@ -8740,7 +8741,7 @@
       <c r="P431" s="9"/>
       <c r="Q431" s="9"/>
     </row>
-    <row r="432" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D432" s="9"/>
       <c r="E432" s="9"/>
       <c r="F432" s="9"/>
@@ -8755,7 +8756,7 @@
       <c r="P432" s="9"/>
       <c r="Q432" s="9"/>
     </row>
-    <row r="433" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D433" s="9"/>
       <c r="E433" s="9"/>
       <c r="F433" s="9"/>
@@ -8770,7 +8771,7 @@
       <c r="P433" s="9"/>
       <c r="Q433" s="9"/>
     </row>
-    <row r="434" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D434" s="9"/>
       <c r="E434" s="9"/>
       <c r="F434" s="9"/>
@@ -8785,7 +8786,7 @@
       <c r="P434" s="9"/>
       <c r="Q434" s="9"/>
     </row>
-    <row r="435" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D435" s="9"/>
       <c r="E435" s="9"/>
       <c r="F435" s="9"/>
@@ -8800,7 +8801,7 @@
       <c r="P435" s="9"/>
       <c r="Q435" s="9"/>
     </row>
-    <row r="436" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D436" s="9"/>
       <c r="E436" s="9"/>
       <c r="F436" s="9"/>
@@ -8815,7 +8816,7 @@
       <c r="P436" s="9"/>
       <c r="Q436" s="9"/>
     </row>
-    <row r="437" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D437" s="9"/>
       <c r="E437" s="9"/>
       <c r="F437" s="9"/>
@@ -8830,7 +8831,7 @@
       <c r="P437" s="9"/>
       <c r="Q437" s="9"/>
     </row>
-    <row r="438" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D438" s="9"/>
       <c r="E438" s="9"/>
       <c r="F438" s="9"/>
@@ -8845,7 +8846,7 @@
       <c r="P438" s="9"/>
       <c r="Q438" s="9"/>
     </row>
-    <row r="439" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D439" s="9"/>
       <c r="E439" s="9"/>
       <c r="F439" s="9"/>
@@ -8860,7 +8861,7 @@
       <c r="P439" s="9"/>
       <c r="Q439" s="9"/>
     </row>
-    <row r="440" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D440" s="9"/>
       <c r="E440" s="9"/>
       <c r="F440" s="9"/>
@@ -8875,7 +8876,7 @@
       <c r="P440" s="9"/>
       <c r="Q440" s="9"/>
     </row>
-    <row r="441" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D441" s="9"/>
       <c r="E441" s="9"/>
       <c r="F441" s="9"/>
@@ -8890,7 +8891,7 @@
       <c r="P441" s="9"/>
       <c r="Q441" s="9"/>
     </row>
-    <row r="442" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D442" s="9"/>
       <c r="E442" s="9"/>
       <c r="F442" s="9"/>
@@ -8905,7 +8906,7 @@
       <c r="P442" s="9"/>
       <c r="Q442" s="9"/>
     </row>
-    <row r="443" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D443" s="9"/>
       <c r="E443" s="9"/>
       <c r="F443" s="9"/>
@@ -8920,7 +8921,7 @@
       <c r="P443" s="9"/>
       <c r="Q443" s="9"/>
     </row>
-    <row r="444" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D444" s="9"/>
       <c r="E444" s="9"/>
       <c r="F444" s="9"/>
@@ -8935,7 +8936,7 @@
       <c r="P444" s="9"/>
       <c r="Q444" s="9"/>
     </row>
-    <row r="445" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D445" s="9"/>
       <c r="E445" s="9"/>
       <c r="F445" s="9"/>
@@ -8950,7 +8951,7 @@
       <c r="P445" s="9"/>
       <c r="Q445" s="9"/>
     </row>
-    <row r="446" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D446" s="9"/>
       <c r="E446" s="9"/>
       <c r="F446" s="9"/>
@@ -8965,7 +8966,7 @@
       <c r="P446" s="9"/>
       <c r="Q446" s="9"/>
     </row>
-    <row r="447" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D447" s="9"/>
       <c r="E447" s="9"/>
       <c r="F447" s="9"/>
@@ -8980,7 +8981,7 @@
       <c r="P447" s="9"/>
       <c r="Q447" s="9"/>
     </row>
-    <row r="448" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D448" s="9"/>
       <c r="E448" s="9"/>
       <c r="F448" s="9"/>
@@ -8995,7 +8996,7 @@
       <c r="P448" s="9"/>
       <c r="Q448" s="9"/>
     </row>
-    <row r="449" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D449" s="9"/>
       <c r="E449" s="9"/>
       <c r="F449" s="9"/>
@@ -9010,7 +9011,7 @@
       <c r="P449" s="9"/>
       <c r="Q449" s="9"/>
     </row>
-    <row r="450" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D450" s="9"/>
       <c r="E450" s="9"/>
       <c r="F450" s="9"/>
@@ -9025,7 +9026,7 @@
       <c r="P450" s="9"/>
       <c r="Q450" s="9"/>
     </row>
-    <row r="451" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D451" s="9"/>
       <c r="E451" s="9"/>
       <c r="F451" s="9"/>
@@ -9040,7 +9041,7 @@
       <c r="P451" s="9"/>
       <c r="Q451" s="9"/>
     </row>
-    <row r="452" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D452" s="9"/>
       <c r="E452" s="9"/>
       <c r="F452" s="9"/>
@@ -9055,7 +9056,7 @@
       <c r="P452" s="9"/>
       <c r="Q452" s="9"/>
     </row>
-    <row r="453" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D453" s="9"/>
       <c r="E453" s="9"/>
       <c r="F453" s="9"/>
@@ -9070,7 +9071,7 @@
       <c r="P453" s="9"/>
       <c r="Q453" s="9"/>
     </row>
-    <row r="454" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D454" s="9"/>
       <c r="E454" s="9"/>
       <c r="F454" s="9"/>
@@ -9085,7 +9086,7 @@
       <c r="P454" s="9"/>
       <c r="Q454" s="9"/>
     </row>
-    <row r="455" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D455" s="9"/>
       <c r="E455" s="9"/>
       <c r="F455" s="9"/>
@@ -9100,7 +9101,7 @@
       <c r="P455" s="9"/>
       <c r="Q455" s="9"/>
     </row>
-    <row r="456" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D456" s="9"/>
       <c r="E456" s="9"/>
       <c r="F456" s="9"/>
@@ -9115,7 +9116,7 @@
       <c r="P456" s="9"/>
       <c r="Q456" s="9"/>
     </row>
-    <row r="457" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D457" s="9"/>
       <c r="E457" s="9"/>
       <c r="F457" s="9"/>
@@ -9130,7 +9131,7 @@
       <c r="P457" s="9"/>
       <c r="Q457" s="9"/>
     </row>
-    <row r="458" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D458" s="9"/>
       <c r="E458" s="9"/>
       <c r="F458" s="9"/>
@@ -9145,7 +9146,7 @@
       <c r="P458" s="9"/>
       <c r="Q458" s="9"/>
     </row>
-    <row r="459" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D459" s="9"/>
       <c r="E459" s="9"/>
       <c r="F459" s="9"/>
@@ -9160,7 +9161,7 @@
       <c r="P459" s="9"/>
       <c r="Q459" s="9"/>
     </row>
-    <row r="460" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D460" s="9"/>
       <c r="E460" s="9"/>
       <c r="F460" s="9"/>
@@ -9175,7 +9176,7 @@
       <c r="P460" s="9"/>
       <c r="Q460" s="9"/>
     </row>
-    <row r="461" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D461" s="9"/>
       <c r="E461" s="9"/>
       <c r="F461" s="9"/>
@@ -9190,7 +9191,7 @@
       <c r="P461" s="9"/>
       <c r="Q461" s="9"/>
     </row>
-    <row r="462" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D462" s="9"/>
       <c r="E462" s="9"/>
       <c r="F462" s="9"/>
@@ -9205,7 +9206,7 @@
       <c r="P462" s="9"/>
       <c r="Q462" s="9"/>
     </row>
-    <row r="463" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D463" s="9"/>
       <c r="E463" s="9"/>
       <c r="F463" s="9"/>
@@ -9220,7 +9221,7 @@
       <c r="P463" s="9"/>
       <c r="Q463" s="9"/>
     </row>
-    <row r="464" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D464" s="9"/>
       <c r="E464" s="9"/>
       <c r="F464" s="9"/>
@@ -9235,7 +9236,7 @@
       <c r="P464" s="9"/>
       <c r="Q464" s="9"/>
     </row>
-    <row r="465" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D465" s="9"/>
       <c r="E465" s="9"/>
       <c r="F465" s="9"/>
@@ -9250,7 +9251,7 @@
       <c r="P465" s="9"/>
       <c r="Q465" s="9"/>
     </row>
-    <row r="466" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D466" s="9"/>
       <c r="E466" s="9"/>
       <c r="F466" s="9"/>
@@ -9265,7 +9266,7 @@
       <c r="P466" s="9"/>
       <c r="Q466" s="9"/>
     </row>
-    <row r="467" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D467" s="9"/>
       <c r="E467" s="9"/>
       <c r="F467" s="9"/>
@@ -9280,7 +9281,7 @@
       <c r="P467" s="9"/>
       <c r="Q467" s="9"/>
     </row>
-    <row r="468" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D468" s="9"/>
       <c r="E468" s="9"/>
       <c r="F468" s="9"/>
@@ -9295,7 +9296,7 @@
       <c r="P468" s="9"/>
       <c r="Q468" s="9"/>
     </row>
-    <row r="469" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D469" s="9"/>
       <c r="E469" s="9"/>
       <c r="F469" s="9"/>
@@ -9310,7 +9311,7 @@
       <c r="P469" s="9"/>
       <c r="Q469" s="9"/>
     </row>
-    <row r="470" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D470" s="9"/>
       <c r="E470" s="9"/>
       <c r="F470" s="9"/>
@@ -9325,7 +9326,7 @@
       <c r="P470" s="9"/>
       <c r="Q470" s="9"/>
     </row>
-    <row r="471" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D471" s="9"/>
       <c r="E471" s="9"/>
       <c r="F471" s="9"/>
@@ -9340,7 +9341,7 @@
       <c r="P471" s="9"/>
       <c r="Q471" s="9"/>
     </row>
-    <row r="472" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D472" s="9"/>
       <c r="E472" s="9"/>
       <c r="F472" s="9"/>
@@ -9355,7 +9356,7 @@
       <c r="P472" s="9"/>
       <c r="Q472" s="9"/>
     </row>
-    <row r="473" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D473" s="9"/>
       <c r="E473" s="9"/>
       <c r="F473" s="9"/>
@@ -9370,7 +9371,7 @@
       <c r="P473" s="9"/>
       <c r="Q473" s="9"/>
     </row>
-    <row r="474" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D474" s="9"/>
       <c r="E474" s="9"/>
       <c r="F474" s="9"/>
@@ -9385,7 +9386,7 @@
       <c r="P474" s="9"/>
       <c r="Q474" s="9"/>
     </row>
-    <row r="475" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D475" s="9"/>
       <c r="E475" s="9"/>
       <c r="F475" s="9"/>
@@ -9400,7 +9401,7 @@
       <c r="P475" s="9"/>
       <c r="Q475" s="9"/>
     </row>
-    <row r="476" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D476" s="9"/>
       <c r="E476" s="9"/>
       <c r="F476" s="9"/>
@@ -9415,7 +9416,7 @@
       <c r="P476" s="9"/>
       <c r="Q476" s="9"/>
     </row>
-    <row r="477" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D477" s="9"/>
       <c r="E477" s="9"/>
       <c r="F477" s="9"/>
@@ -9430,7 +9431,7 @@
       <c r="P477" s="9"/>
       <c r="Q477" s="9"/>
     </row>
-    <row r="478" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D478" s="9"/>
       <c r="E478" s="9"/>
       <c r="F478" s="9"/>
@@ -9445,7 +9446,7 @@
       <c r="P478" s="9"/>
       <c r="Q478" s="9"/>
     </row>
-    <row r="479" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D479" s="9"/>
       <c r="E479" s="9"/>
       <c r="F479" s="9"/>
@@ -9460,7 +9461,7 @@
       <c r="P479" s="9"/>
       <c r="Q479" s="9"/>
     </row>
-    <row r="480" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D480" s="9"/>
       <c r="E480" s="9"/>
       <c r="F480" s="9"/>
@@ -9475,7 +9476,7 @@
       <c r="P480" s="9"/>
       <c r="Q480" s="9"/>
     </row>
-    <row r="481" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D481" s="9"/>
       <c r="E481" s="9"/>
       <c r="F481" s="9"/>
@@ -9490,7 +9491,7 @@
       <c r="P481" s="9"/>
       <c r="Q481" s="9"/>
     </row>
-    <row r="482" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D482" s="9"/>
       <c r="E482" s="9"/>
       <c r="F482" s="9"/>
@@ -9505,7 +9506,7 @@
       <c r="P482" s="9"/>
       <c r="Q482" s="9"/>
     </row>
-    <row r="483" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D483" s="9"/>
       <c r="E483" s="9"/>
       <c r="F483" s="9"/>
@@ -9520,7 +9521,7 @@
       <c r="P483" s="9"/>
       <c r="Q483" s="9"/>
     </row>
-    <row r="484" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D484" s="9"/>
       <c r="E484" s="9"/>
       <c r="F484" s="9"/>
@@ -9535,7 +9536,7 @@
       <c r="P484" s="9"/>
       <c r="Q484" s="9"/>
     </row>
-    <row r="485" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D485" s="9"/>
       <c r="E485" s="9"/>
       <c r="F485" s="9"/>
@@ -9550,7 +9551,7 @@
       <c r="P485" s="9"/>
       <c r="Q485" s="9"/>
     </row>
-    <row r="486" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D486" s="9"/>
       <c r="E486" s="9"/>
       <c r="F486" s="9"/>
@@ -9565,7 +9566,7 @@
       <c r="P486" s="9"/>
       <c r="Q486" s="9"/>
     </row>
-    <row r="487" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D487" s="9"/>
       <c r="E487" s="9"/>
       <c r="F487" s="9"/>
@@ -9580,7 +9581,7 @@
       <c r="P487" s="9"/>
       <c r="Q487" s="9"/>
     </row>
-    <row r="488" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D488" s="9"/>
       <c r="E488" s="9"/>
       <c r="F488" s="9"/>
@@ -9595,7 +9596,7 @@
       <c r="P488" s="9"/>
       <c r="Q488" s="9"/>
     </row>
-    <row r="489" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D489" s="9"/>
       <c r="E489" s="9"/>
       <c r="F489" s="9"/>
@@ -9610,7 +9611,7 @@
       <c r="P489" s="9"/>
       <c r="Q489" s="9"/>
     </row>
-    <row r="490" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D490" s="9"/>
       <c r="E490" s="9"/>
       <c r="F490" s="9"/>
@@ -9625,7 +9626,7 @@
       <c r="P490" s="9"/>
       <c r="Q490" s="9"/>
     </row>
-    <row r="491" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D491" s="9"/>
       <c r="E491" s="9"/>
       <c r="F491" s="9"/>
@@ -9640,7 +9641,7 @@
       <c r="P491" s="9"/>
       <c r="Q491" s="9"/>
     </row>
-    <row r="492" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D492" s="9"/>
       <c r="E492" s="9"/>
       <c r="F492" s="9"/>
@@ -9655,7 +9656,7 @@
       <c r="P492" s="9"/>
       <c r="Q492" s="9"/>
     </row>
-    <row r="493" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D493" s="9"/>
       <c r="E493" s="9"/>
       <c r="F493" s="9"/>
@@ -9670,7 +9671,7 @@
       <c r="P493" s="9"/>
       <c r="Q493" s="9"/>
     </row>
-    <row r="494" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D494" s="9"/>
       <c r="E494" s="9"/>
       <c r="F494" s="9"/>
@@ -9685,7 +9686,7 @@
       <c r="P494" s="9"/>
       <c r="Q494" s="9"/>
     </row>
-    <row r="495" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D495" s="9"/>
       <c r="E495" s="9"/>
       <c r="F495" s="9"/>
@@ -9700,7 +9701,7 @@
       <c r="P495" s="9"/>
       <c r="Q495" s="9"/>
     </row>
-    <row r="496" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D496" s="9"/>
       <c r="E496" s="9"/>
       <c r="F496" s="9"/>
@@ -9715,7 +9716,7 @@
       <c r="P496" s="9"/>
       <c r="Q496" s="9"/>
     </row>
-    <row r="497" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D497" s="9"/>
       <c r="E497" s="9"/>
       <c r="F497" s="9"/>
@@ -9730,7 +9731,7 @@
       <c r="P497" s="9"/>
       <c r="Q497" s="9"/>
     </row>
-    <row r="498" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D498" s="9"/>
       <c r="E498" s="9"/>
       <c r="F498" s="9"/>
@@ -9745,7 +9746,7 @@
       <c r="P498" s="9"/>
       <c r="Q498" s="9"/>
     </row>
-    <row r="499" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D499" s="9"/>
       <c r="E499" s="9"/>
       <c r="F499" s="9"/>
@@ -9760,7 +9761,7 @@
       <c r="P499" s="9"/>
       <c r="Q499" s="9"/>
     </row>
-    <row r="500" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D500" s="9"/>
       <c r="E500" s="9"/>
       <c r="F500" s="9"/>
@@ -9775,7 +9776,7 @@
       <c r="P500" s="9"/>
       <c r="Q500" s="9"/>
     </row>
-    <row r="501" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D501" s="9"/>
       <c r="E501" s="9"/>
       <c r="F501" s="9"/>
@@ -9790,7 +9791,7 @@
       <c r="P501" s="9"/>
       <c r="Q501" s="9"/>
     </row>
-    <row r="502" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D502" s="9"/>
       <c r="E502" s="9"/>
       <c r="F502" s="9"/>
@@ -9805,7 +9806,7 @@
       <c r="P502" s="9"/>
       <c r="Q502" s="9"/>
     </row>
-    <row r="503" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D503" s="9"/>
       <c r="E503" s="9"/>
       <c r="F503" s="9"/>
@@ -9820,7 +9821,7 @@
       <c r="P503" s="9"/>
       <c r="Q503" s="9"/>
     </row>
-    <row r="504" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D504" s="9"/>
       <c r="E504" s="9"/>
       <c r="F504" s="9"/>
@@ -9835,7 +9836,7 @@
       <c r="P504" s="9"/>
       <c r="Q504" s="9"/>
     </row>
-    <row r="505" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D505" s="9"/>
       <c r="E505" s="9"/>
       <c r="F505" s="9"/>
@@ -9850,7 +9851,7 @@
       <c r="P505" s="9"/>
       <c r="Q505" s="9"/>
     </row>
-    <row r="506" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D506" s="9"/>
       <c r="E506" s="9"/>
       <c r="F506" s="9"/>
@@ -9865,7 +9866,7 @@
       <c r="P506" s="9"/>
       <c r="Q506" s="9"/>
     </row>
-    <row r="507" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D507" s="9"/>
       <c r="E507" s="9"/>
       <c r="F507" s="9"/>
@@ -9880,7 +9881,7 @@
       <c r="P507" s="9"/>
       <c r="Q507" s="9"/>
     </row>
-    <row r="508" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D508" s="9"/>
       <c r="E508" s="9"/>
       <c r="F508" s="9"/>
@@ -9895,7 +9896,7 @@
       <c r="P508" s="9"/>
       <c r="Q508" s="9"/>
     </row>
-    <row r="509" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D509" s="9"/>
       <c r="E509" s="9"/>
       <c r="F509" s="9"/>
@@ -9910,7 +9911,7 @@
       <c r="P509" s="9"/>
       <c r="Q509" s="9"/>
     </row>
-    <row r="510" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D510" s="9"/>
       <c r="E510" s="9"/>
       <c r="F510" s="9"/>
@@ -9925,7 +9926,7 @@
       <c r="P510" s="9"/>
       <c r="Q510" s="9"/>
     </row>
-    <row r="511" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D511" s="9"/>
       <c r="E511" s="9"/>
       <c r="F511" s="9"/>
@@ -9940,7 +9941,7 @@
       <c r="P511" s="9"/>
       <c r="Q511" s="9"/>
     </row>
-    <row r="512" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D512" s="9"/>
       <c r="E512" s="9"/>
       <c r="F512" s="9"/>
@@ -9955,7 +9956,7 @@
       <c r="P512" s="9"/>
       <c r="Q512" s="9"/>
     </row>
-    <row r="513" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D513" s="9"/>
       <c r="E513" s="9"/>
       <c r="F513" s="9"/>
@@ -9970,7 +9971,7 @@
       <c r="P513" s="9"/>
       <c r="Q513" s="9"/>
     </row>
-    <row r="514" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D514" s="9"/>
       <c r="E514" s="9"/>
       <c r="F514" s="9"/>
@@ -9985,7 +9986,7 @@
       <c r="P514" s="9"/>
       <c r="Q514" s="9"/>
     </row>
-    <row r="515" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D515" s="9"/>
       <c r="E515" s="9"/>
       <c r="F515" s="9"/>
@@ -10000,7 +10001,7 @@
       <c r="P515" s="9"/>
       <c r="Q515" s="9"/>
     </row>
-    <row r="516" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D516" s="9"/>
       <c r="E516" s="9"/>
       <c r="F516" s="9"/>
@@ -10015,7 +10016,7 @@
       <c r="P516" s="9"/>
       <c r="Q516" s="9"/>
     </row>
-    <row r="517" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D517" s="9"/>
       <c r="E517" s="9"/>
       <c r="F517" s="9"/>
@@ -10030,7 +10031,7 @@
       <c r="P517" s="9"/>
       <c r="Q517" s="9"/>
     </row>
-    <row r="518" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D518" s="9"/>
       <c r="E518" s="9"/>
       <c r="F518" s="9"/>
@@ -10045,7 +10046,7 @@
       <c r="P518" s="9"/>
       <c r="Q518" s="9"/>
     </row>
-    <row r="519" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D519" s="9"/>
       <c r="E519" s="9"/>
       <c r="F519" s="9"/>
@@ -10060,7 +10061,7 @@
       <c r="P519" s="9"/>
       <c r="Q519" s="9"/>
     </row>
-    <row r="520" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D520" s="9"/>
       <c r="E520" s="9"/>
       <c r="F520" s="9"/>
@@ -10075,7 +10076,7 @@
       <c r="P520" s="9"/>
       <c r="Q520" s="9"/>
     </row>
-    <row r="521" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D521" s="9"/>
       <c r="E521" s="9"/>
       <c r="F521" s="9"/>
@@ -10090,7 +10091,7 @@
       <c r="P521" s="9"/>
       <c r="Q521" s="9"/>
     </row>
-    <row r="522" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D522" s="9"/>
       <c r="E522" s="9"/>
       <c r="F522" s="9"/>
@@ -10105,7 +10106,7 @@
       <c r="P522" s="9"/>
       <c r="Q522" s="9"/>
     </row>
-    <row r="523" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D523" s="9"/>
       <c r="E523" s="9"/>
       <c r="F523" s="9"/>
@@ -10120,7 +10121,7 @@
       <c r="P523" s="9"/>
       <c r="Q523" s="9"/>
     </row>
-    <row r="524" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D524" s="9"/>
       <c r="E524" s="9"/>
       <c r="F524" s="9"/>
@@ -10135,7 +10136,7 @@
       <c r="P524" s="9"/>
       <c r="Q524" s="9"/>
     </row>
-    <row r="525" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D525" s="9"/>
       <c r="E525" s="9"/>
       <c r="F525" s="9"/>
@@ -10150,7 +10151,7 @@
       <c r="P525" s="9"/>
       <c r="Q525" s="9"/>
     </row>
-    <row r="526" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D526" s="9"/>
       <c r="E526" s="9"/>
       <c r="F526" s="9"/>
@@ -10165,7 +10166,7 @@
       <c r="P526" s="9"/>
       <c r="Q526" s="9"/>
     </row>
-    <row r="527" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D527" s="9"/>
       <c r="E527" s="9"/>
       <c r="F527" s="9"/>
@@ -10180,7 +10181,7 @@
       <c r="P527" s="9"/>
       <c r="Q527" s="9"/>
     </row>
-    <row r="528" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D528" s="9"/>
       <c r="E528" s="9"/>
       <c r="F528" s="9"/>
@@ -10195,7 +10196,7 @@
       <c r="P528" s="9"/>
       <c r="Q528" s="9"/>
     </row>
-    <row r="529" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D529" s="9"/>
       <c r="E529" s="9"/>
       <c r="F529" s="9"/>
@@ -10210,7 +10211,7 @@
       <c r="P529" s="9"/>
       <c r="Q529" s="9"/>
     </row>
-    <row r="530" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D530" s="9"/>
       <c r="E530" s="9"/>
       <c r="F530" s="9"/>
@@ -10225,7 +10226,7 @@
       <c r="P530" s="9"/>
       <c r="Q530" s="9"/>
     </row>
-    <row r="531" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D531" s="9"/>
       <c r="E531" s="9"/>
       <c r="F531" s="9"/>
@@ -10240,7 +10241,7 @@
       <c r="P531" s="9"/>
       <c r="Q531" s="9"/>
     </row>
-    <row r="532" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D532" s="9"/>
       <c r="E532" s="9"/>
       <c r="F532" s="9"/>
@@ -10255,7 +10256,7 @@
       <c r="P532" s="9"/>
       <c r="Q532" s="9"/>
     </row>
-    <row r="533" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D533" s="9"/>
       <c r="E533" s="9"/>
       <c r="F533" s="9"/>
@@ -10270,7 +10271,7 @@
       <c r="P533" s="9"/>
       <c r="Q533" s="9"/>
     </row>
-    <row r="534" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D534" s="9"/>
       <c r="E534" s="9"/>
       <c r="F534" s="9"/>
@@ -10285,7 +10286,7 @@
       <c r="P534" s="9"/>
       <c r="Q534" s="9"/>
     </row>
-    <row r="535" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D535" s="9"/>
       <c r="E535" s="9"/>
       <c r="F535" s="9"/>
@@ -10300,7 +10301,7 @@
       <c r="P535" s="9"/>
       <c r="Q535" s="9"/>
     </row>
-    <row r="536" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D536" s="9"/>
       <c r="E536" s="9"/>
       <c r="F536" s="9"/>
@@ -10315,7 +10316,7 @@
       <c r="P536" s="9"/>
       <c r="Q536" s="9"/>
     </row>
-    <row r="537" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D537" s="9"/>
       <c r="E537" s="9"/>
       <c r="F537" s="9"/>
@@ -10330,7 +10331,7 @@
       <c r="P537" s="9"/>
       <c r="Q537" s="9"/>
     </row>
-    <row r="538" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D538" s="9"/>
       <c r="E538" s="9"/>
       <c r="F538" s="9"/>
@@ -10345,7 +10346,7 @@
       <c r="P538" s="9"/>
       <c r="Q538" s="9"/>
     </row>
-    <row r="539" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D539" s="9"/>
       <c r="E539" s="9"/>
       <c r="F539" s="9"/>
@@ -10360,7 +10361,7 @@
       <c r="P539" s="9"/>
       <c r="Q539" s="9"/>
     </row>
-    <row r="540" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D540" s="9"/>
       <c r="E540" s="9"/>
       <c r="F540" s="9"/>
@@ -10375,7 +10376,7 @@
       <c r="P540" s="9"/>
       <c r="Q540" s="9"/>
     </row>
-    <row r="541" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D541" s="9"/>
       <c r="E541" s="9"/>
       <c r="F541" s="9"/>
@@ -10390,7 +10391,7 @@
       <c r="P541" s="9"/>
       <c r="Q541" s="9"/>
     </row>
-    <row r="542" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D542" s="9"/>
       <c r="E542" s="9"/>
       <c r="F542" s="9"/>
@@ -10405,7 +10406,7 @@
       <c r="P542" s="9"/>
       <c r="Q542" s="9"/>
     </row>
-    <row r="543" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D543" s="9"/>
       <c r="E543" s="9"/>
       <c r="F543" s="9"/>
@@ -10420,7 +10421,7 @@
       <c r="P543" s="9"/>
       <c r="Q543" s="9"/>
     </row>
-    <row r="544" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D544" s="9"/>
       <c r="E544" s="9"/>
       <c r="F544" s="9"/>
@@ -10435,7 +10436,7 @@
       <c r="P544" s="9"/>
       <c r="Q544" s="9"/>
     </row>
-    <row r="545" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D545" s="9"/>
       <c r="E545" s="9"/>
       <c r="F545" s="9"/>
@@ -10450,7 +10451,7 @@
       <c r="P545" s="9"/>
       <c r="Q545" s="9"/>
     </row>
-    <row r="546" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D546" s="9"/>
       <c r="E546" s="9"/>
       <c r="F546" s="9"/>
@@ -10465,7 +10466,7 @@
       <c r="P546" s="9"/>
       <c r="Q546" s="9"/>
     </row>
-    <row r="547" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D547" s="9"/>
       <c r="E547" s="9"/>
       <c r="F547" s="9"/>
@@ -10480,7 +10481,7 @@
       <c r="P547" s="9"/>
       <c r="Q547" s="9"/>
     </row>
-    <row r="548" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D548" s="9"/>
       <c r="E548" s="9"/>
       <c r="F548" s="9"/>
@@ -10495,7 +10496,7 @@
       <c r="P548" s="9"/>
       <c r="Q548" s="9"/>
     </row>
-    <row r="549" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D549" s="9"/>
       <c r="E549" s="9"/>
       <c r="F549" s="9"/>
@@ -10510,7 +10511,7 @@
       <c r="P549" s="9"/>
       <c r="Q549" s="9"/>
     </row>
-    <row r="550" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D550" s="9"/>
       <c r="E550" s="9"/>
       <c r="F550" s="9"/>
@@ -10525,7 +10526,7 @@
       <c r="P550" s="9"/>
       <c r="Q550" s="9"/>
     </row>
-    <row r="551" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D551" s="9"/>
       <c r="E551" s="9"/>
       <c r="F551" s="9"/>
@@ -10540,7 +10541,7 @@
       <c r="P551" s="9"/>
       <c r="Q551" s="9"/>
     </row>
-    <row r="552" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D552" s="9"/>
       <c r="E552" s="9"/>
       <c r="F552" s="9"/>
@@ -10555,7 +10556,7 @@
       <c r="P552" s="9"/>
       <c r="Q552" s="9"/>
     </row>
-    <row r="553" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D553" s="9"/>
       <c r="E553" s="9"/>
       <c r="F553" s="9"/>
@@ -10570,7 +10571,7 @@
       <c r="P553" s="9"/>
       <c r="Q553" s="9"/>
     </row>
-    <row r="554" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D554" s="9"/>
       <c r="E554" s="9"/>
       <c r="F554" s="9"/>
@@ -10585,7 +10586,7 @@
       <c r="P554" s="9"/>
       <c r="Q554" s="9"/>
     </row>
-    <row r="555" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D555" s="9"/>
       <c r="E555" s="9"/>
       <c r="F555" s="9"/>
@@ -10600,7 +10601,7 @@
       <c r="P555" s="9"/>
       <c r="Q555" s="9"/>
     </row>
-    <row r="556" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D556" s="9"/>
       <c r="E556" s="9"/>
       <c r="F556" s="9"/>
@@ -10615,7 +10616,7 @@
       <c r="P556" s="9"/>
       <c r="Q556" s="9"/>
     </row>
-    <row r="557" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D557" s="9"/>
       <c r="E557" s="9"/>
       <c r="F557" s="9"/>
@@ -10630,7 +10631,7 @@
       <c r="P557" s="9"/>
       <c r="Q557" s="9"/>
     </row>
-    <row r="558" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D558" s="9"/>
       <c r="E558" s="9"/>
       <c r="F558" s="9"/>
@@ -10645,7 +10646,7 @@
       <c r="P558" s="9"/>
       <c r="Q558" s="9"/>
     </row>
-    <row r="559" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D559" s="9"/>
       <c r="E559" s="9"/>
       <c r="F559" s="9"/>
@@ -10660,7 +10661,7 @@
       <c r="P559" s="9"/>
       <c r="Q559" s="9"/>
     </row>
-    <row r="560" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D560" s="9"/>
       <c r="E560" s="9"/>
       <c r="F560" s="9"/>
@@ -10675,7 +10676,7 @@
       <c r="P560" s="9"/>
       <c r="Q560" s="9"/>
     </row>
-    <row r="561" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D561" s="9"/>
       <c r="E561" s="9"/>
       <c r="F561" s="9"/>
@@ -10690,7 +10691,7 @@
       <c r="P561" s="9"/>
       <c r="Q561" s="9"/>
     </row>
-    <row r="562" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D562" s="9"/>
       <c r="E562" s="9"/>
       <c r="F562" s="9"/>
@@ -10705,7 +10706,7 @@
       <c r="P562" s="9"/>
       <c r="Q562" s="9"/>
     </row>
-    <row r="563" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D563" s="9"/>
       <c r="E563" s="9"/>
       <c r="F563" s="9"/>
@@ -10720,7 +10721,7 @@
       <c r="P563" s="9"/>
       <c r="Q563" s="9"/>
     </row>
-    <row r="564" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D564" s="9"/>
       <c r="E564" s="9"/>
       <c r="F564" s="9"/>
@@ -10735,7 +10736,7 @@
       <c r="P564" s="9"/>
       <c r="Q564" s="9"/>
     </row>
-    <row r="565" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D565" s="9"/>
       <c r="E565" s="9"/>
       <c r="F565" s="9"/>
@@ -10750,7 +10751,7 @@
       <c r="P565" s="9"/>
       <c r="Q565" s="9"/>
     </row>
-    <row r="566" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D566" s="9"/>
       <c r="E566" s="9"/>
       <c r="F566" s="9"/>
@@ -10765,7 +10766,7 @@
       <c r="P566" s="9"/>
       <c r="Q566" s="9"/>
     </row>
-    <row r="567" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D567" s="9"/>
       <c r="E567" s="9"/>
       <c r="F567" s="9"/>
@@ -10780,7 +10781,7 @@
       <c r="P567" s="9"/>
       <c r="Q567" s="9"/>
     </row>
-    <row r="568" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D568" s="9"/>
       <c r="E568" s="9"/>
       <c r="F568" s="9"/>
@@ -10795,7 +10796,7 @@
       <c r="P568" s="9"/>
       <c r="Q568" s="9"/>
     </row>
-    <row r="569" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D569" s="9"/>
       <c r="E569" s="9"/>
       <c r="F569" s="9"/>
@@ -10810,7 +10811,7 @@
       <c r="P569" s="9"/>
       <c r="Q569" s="9"/>
     </row>
-    <row r="570" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D570" s="9"/>
       <c r="E570" s="9"/>
       <c r="F570" s="9"/>
@@ -10825,7 +10826,7 @@
       <c r="P570" s="9"/>
       <c r="Q570" s="9"/>
     </row>
-    <row r="571" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D571" s="9"/>
       <c r="E571" s="9"/>
       <c r="F571" s="9"/>
@@ -10840,7 +10841,7 @@
       <c r="P571" s="9"/>
       <c r="Q571" s="9"/>
     </row>
-    <row r="572" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D572" s="9"/>
       <c r="E572" s="9"/>
       <c r="F572" s="9"/>
@@ -10855,7 +10856,7 @@
       <c r="P572" s="9"/>
       <c r="Q572" s="9"/>
     </row>
-    <row r="573" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D573" s="9"/>
       <c r="E573" s="9"/>
       <c r="F573" s="9"/>
@@ -10870,7 +10871,7 @@
       <c r="P573" s="9"/>
       <c r="Q573" s="9"/>
     </row>
-    <row r="574" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D574" s="9"/>
       <c r="E574" s="9"/>
       <c r="F574" s="9"/>
@@ -10885,7 +10886,7 @@
       <c r="P574" s="9"/>
       <c r="Q574" s="9"/>
     </row>
-    <row r="575" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D575" s="9"/>
       <c r="E575" s="9"/>
       <c r="F575" s="9"/>
@@ -10900,7 +10901,7 @@
       <c r="P575" s="9"/>
       <c r="Q575" s="9"/>
     </row>
-    <row r="576" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D576" s="9"/>
       <c r="E576" s="9"/>
       <c r="F576" s="9"/>
@@ -10915,7 +10916,7 @@
       <c r="P576" s="9"/>
       <c r="Q576" s="9"/>
     </row>
-    <row r="577" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D577" s="9"/>
       <c r="E577" s="9"/>
       <c r="F577" s="9"/>
@@ -10930,7 +10931,7 @@
       <c r="P577" s="9"/>
       <c r="Q577" s="9"/>
     </row>
-    <row r="578" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D578" s="9"/>
       <c r="E578" s="9"/>
       <c r="F578" s="9"/>
@@ -10945,7 +10946,7 @@
       <c r="P578" s="9"/>
       <c r="Q578" s="9"/>
     </row>
-    <row r="579" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D579" s="9"/>
       <c r="E579" s="9"/>
       <c r="F579" s="9"/>
@@ -10960,7 +10961,7 @@
       <c r="P579" s="9"/>
       <c r="Q579" s="9"/>
     </row>
-    <row r="580" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D580" s="9"/>
       <c r="E580" s="9"/>
       <c r="F580" s="9"/>
@@ -10975,7 +10976,7 @@
       <c r="P580" s="9"/>
       <c r="Q580" s="9"/>
     </row>
-    <row r="581" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D581" s="9"/>
       <c r="E581" s="9"/>
       <c r="F581" s="9"/>
@@ -10990,7 +10991,7 @@
       <c r="P581" s="9"/>
       <c r="Q581" s="9"/>
     </row>
-    <row r="582" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D582" s="9"/>
       <c r="E582" s="9"/>
       <c r="F582" s="9"/>
@@ -11005,7 +11006,7 @@
       <c r="P582" s="9"/>
       <c r="Q582" s="9"/>
     </row>
-    <row r="583" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D583" s="9"/>
       <c r="E583" s="9"/>
       <c r="F583" s="9"/>
@@ -11020,7 +11021,7 @@
       <c r="P583" s="9"/>
       <c r="Q583" s="9"/>
     </row>
-    <row r="584" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D584" s="9"/>
       <c r="E584" s="9"/>
       <c r="F584" s="9"/>
@@ -11035,7 +11036,7 @@
       <c r="P584" s="9"/>
       <c r="Q584" s="9"/>
     </row>
-    <row r="585" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D585" s="9"/>
       <c r="E585" s="9"/>
       <c r="F585" s="9"/>
@@ -11050,7 +11051,7 @@
       <c r="P585" s="9"/>
       <c r="Q585" s="9"/>
     </row>
-    <row r="586" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D586" s="9"/>
       <c r="E586" s="9"/>
       <c r="F586" s="9"/>
@@ -11065,7 +11066,7 @@
       <c r="P586" s="9"/>
       <c r="Q586" s="9"/>
     </row>
-    <row r="587" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D587" s="9"/>
       <c r="E587" s="9"/>
       <c r="F587" s="9"/>
@@ -11080,7 +11081,7 @@
       <c r="P587" s="9"/>
       <c r="Q587" s="9"/>
     </row>
-    <row r="588" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D588" s="9"/>
       <c r="E588" s="9"/>
       <c r="F588" s="9"/>
@@ -11095,7 +11096,7 @@
       <c r="P588" s="9"/>
       <c r="Q588" s="9"/>
     </row>
-    <row r="589" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D589" s="9"/>
       <c r="E589" s="9"/>
       <c r="F589" s="9"/>
@@ -11110,7 +11111,7 @@
       <c r="P589" s="9"/>
       <c r="Q589" s="9"/>
     </row>
-    <row r="590" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D590" s="9"/>
       <c r="E590" s="9"/>
       <c r="F590" s="9"/>
@@ -11125,7 +11126,7 @@
       <c r="P590" s="9"/>
       <c r="Q590" s="9"/>
     </row>
-    <row r="591" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D591" s="9"/>
       <c r="E591" s="9"/>
       <c r="F591" s="9"/>
@@ -11140,7 +11141,7 @@
       <c r="P591" s="9"/>
       <c r="Q591" s="9"/>
     </row>
-    <row r="592" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D592" s="9"/>
       <c r="E592" s="9"/>
       <c r="F592" s="9"/>
@@ -11155,7 +11156,7 @@
       <c r="P592" s="9"/>
       <c r="Q592" s="9"/>
     </row>
-    <row r="593" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D593" s="9"/>
       <c r="E593" s="9"/>
       <c r="F593" s="9"/>
@@ -11170,7 +11171,7 @@
       <c r="P593" s="9"/>
       <c r="Q593" s="9"/>
     </row>
-    <row r="594" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D594" s="9"/>
       <c r="E594" s="9"/>
       <c r="F594" s="9"/>
@@ -11185,7 +11186,7 @@
       <c r="P594" s="9"/>
       <c r="Q594" s="9"/>
     </row>
-    <row r="595" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D595" s="9"/>
       <c r="E595" s="9"/>
       <c r="F595" s="9"/>
@@ -11200,7 +11201,7 @@
       <c r="P595" s="9"/>
       <c r="Q595" s="9"/>
     </row>
-    <row r="596" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D596" s="9"/>
       <c r="E596" s="9"/>
       <c r="F596" s="9"/>
@@ -11215,7 +11216,7 @@
       <c r="P596" s="9"/>
       <c r="Q596" s="9"/>
     </row>
-    <row r="597" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D597" s="9"/>
       <c r="E597" s="9"/>
       <c r="F597" s="9"/>
@@ -11230,7 +11231,7 @@
       <c r="P597" s="9"/>
       <c r="Q597" s="9"/>
     </row>
-    <row r="598" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D598" s="9"/>
       <c r="E598" s="9"/>
       <c r="F598" s="9"/>
@@ -11245,7 +11246,7 @@
       <c r="P598" s="9"/>
       <c r="Q598" s="9"/>
     </row>
-    <row r="599" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D599" s="9"/>
       <c r="E599" s="9"/>
       <c r="F599" s="9"/>
@@ -11260,7 +11261,7 @@
       <c r="P599" s="9"/>
       <c r="Q599" s="9"/>
     </row>
-    <row r="600" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D600" s="9"/>
       <c r="E600" s="9"/>
       <c r="F600" s="9"/>
@@ -11275,7 +11276,7 @@
       <c r="P600" s="9"/>
       <c r="Q600" s="9"/>
     </row>
-    <row r="601" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D601" s="9"/>
       <c r="E601" s="9"/>
       <c r="F601" s="9"/>
@@ -11290,7 +11291,7 @@
       <c r="P601" s="9"/>
       <c r="Q601" s="9"/>
     </row>
-    <row r="602" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D602" s="9"/>
       <c r="E602" s="9"/>
       <c r="F602" s="9"/>
@@ -11305,7 +11306,7 @@
       <c r="P602" s="9"/>
       <c r="Q602" s="9"/>
     </row>
-    <row r="603" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D603" s="9"/>
       <c r="E603" s="9"/>
       <c r="F603" s="9"/>
@@ -11320,7 +11321,7 @@
       <c r="P603" s="9"/>
       <c r="Q603" s="9"/>
     </row>
-    <row r="604" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D604" s="9"/>
       <c r="E604" s="9"/>
       <c r="F604" s="9"/>
@@ -11335,7 +11336,7 @@
       <c r="P604" s="9"/>
       <c r="Q604" s="9"/>
     </row>
-    <row r="605" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D605" s="9"/>
       <c r="E605" s="9"/>
       <c r="F605" s="9"/>
@@ -11350,7 +11351,7 @@
       <c r="P605" s="9"/>
       <c r="Q605" s="9"/>
     </row>
-    <row r="606" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D606" s="9"/>
       <c r="E606" s="9"/>
       <c r="F606" s="9"/>
@@ -11365,7 +11366,7 @@
       <c r="P606" s="9"/>
       <c r="Q606" s="9"/>
     </row>
-    <row r="607" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D607" s="9"/>
       <c r="E607" s="9"/>
       <c r="F607" s="9"/>
@@ -11380,7 +11381,7 @@
       <c r="P607" s="9"/>
       <c r="Q607" s="9"/>
     </row>
-    <row r="608" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D608" s="9"/>
       <c r="E608" s="9"/>
       <c r="F608" s="9"/>
@@ -11395,7 +11396,7 @@
       <c r="P608" s="9"/>
       <c r="Q608" s="9"/>
     </row>
-    <row r="609" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D609" s="9"/>
       <c r="E609" s="9"/>
       <c r="F609" s="9"/>
@@ -11410,7 +11411,7 @@
       <c r="P609" s="9"/>
       <c r="Q609" s="9"/>
     </row>
-    <row r="610" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D610" s="9"/>
       <c r="E610" s="9"/>
       <c r="F610" s="9"/>
@@ -11425,7 +11426,7 @@
       <c r="P610" s="9"/>
       <c r="Q610" s="9"/>
     </row>
-    <row r="611" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D611" s="9"/>
       <c r="E611" s="9"/>
       <c r="F611" s="9"/>
@@ -11440,7 +11441,7 @@
       <c r="P611" s="9"/>
       <c r="Q611" s="9"/>
     </row>
-    <row r="612" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D612" s="9"/>
       <c r="E612" s="9"/>
       <c r="F612" s="9"/>
@@ -11455,7 +11456,7 @@
       <c r="P612" s="9"/>
       <c r="Q612" s="9"/>
     </row>
-    <row r="613" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D613" s="9"/>
       <c r="E613" s="9"/>
       <c r="F613" s="9"/>
@@ -11470,7 +11471,7 @@
       <c r="P613" s="9"/>
       <c r="Q613" s="9"/>
     </row>
-    <row r="614" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D614" s="9"/>
       <c r="E614" s="9"/>
       <c r="F614" s="9"/>
@@ -11485,7 +11486,7 @@
       <c r="P614" s="9"/>
       <c r="Q614" s="9"/>
     </row>
-    <row r="615" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D615" s="9"/>
       <c r="E615" s="9"/>
       <c r="F615" s="9"/>
@@ -11500,7 +11501,7 @@
       <c r="P615" s="9"/>
       <c r="Q615" s="9"/>
     </row>
-    <row r="616" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D616" s="9"/>
       <c r="E616" s="9"/>
       <c r="F616" s="9"/>
@@ -11515,7 +11516,7 @@
       <c r="P616" s="9"/>
       <c r="Q616" s="9"/>
     </row>
-    <row r="617" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D617" s="9"/>
       <c r="E617" s="9"/>
       <c r="F617" s="9"/>
@@ -11530,7 +11531,7 @@
       <c r="P617" s="9"/>
       <c r="Q617" s="9"/>
     </row>
-    <row r="618" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D618" s="9"/>
       <c r="E618" s="9"/>
       <c r="F618" s="9"/>
@@ -11545,7 +11546,7 @@
       <c r="P618" s="9"/>
       <c r="Q618" s="9"/>
     </row>
-    <row r="619" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D619" s="9"/>
       <c r="E619" s="9"/>
       <c r="F619" s="9"/>
@@ -11560,7 +11561,7 @@
       <c r="P619" s="9"/>
       <c r="Q619" s="9"/>
     </row>
-    <row r="620" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D620" s="9"/>
       <c r="E620" s="9"/>
       <c r="F620" s="9"/>
@@ -11575,7 +11576,7 @@
       <c r="P620" s="9"/>
       <c r="Q620" s="9"/>
     </row>
-    <row r="621" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D621" s="9"/>
       <c r="E621" s="9"/>
       <c r="F621" s="9"/>
@@ -11590,7 +11591,7 @@
       <c r="P621" s="9"/>
       <c r="Q621" s="9"/>
     </row>
-    <row r="622" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D622" s="9"/>
       <c r="E622" s="9"/>
       <c r="F622" s="9"/>
@@ -11605,7 +11606,7 @@
       <c r="P622" s="9"/>
       <c r="Q622" s="9"/>
     </row>
-    <row r="623" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D623" s="9"/>
       <c r="E623" s="9"/>
       <c r="F623" s="9"/>
@@ -11620,7 +11621,7 @@
       <c r="P623" s="9"/>
       <c r="Q623" s="9"/>
     </row>
-    <row r="624" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D624" s="9"/>
       <c r="E624" s="9"/>
       <c r="F624" s="9"/>
@@ -11635,7 +11636,7 @@
       <c r="P624" s="9"/>
       <c r="Q624" s="9"/>
     </row>
-    <row r="625" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D625" s="9"/>
       <c r="E625" s="9"/>
       <c r="F625" s="9"/>
@@ -11650,7 +11651,7 @@
       <c r="P625" s="9"/>
       <c r="Q625" s="9"/>
     </row>
-    <row r="626" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D626" s="9"/>
       <c r="E626" s="9"/>
       <c r="F626" s="9"/>
@@ -11665,7 +11666,7 @@
       <c r="P626" s="9"/>
       <c r="Q626" s="9"/>
     </row>
-    <row r="627" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D627" s="9"/>
       <c r="E627" s="9"/>
       <c r="F627" s="9"/>
@@ -11680,7 +11681,7 @@
       <c r="P627" s="9"/>
       <c r="Q627" s="9"/>
     </row>
-    <row r="628" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D628" s="9"/>
       <c r="E628" s="9"/>
       <c r="F628" s="9"/>
@@ -11695,7 +11696,7 @@
       <c r="P628" s="9"/>
       <c r="Q628" s="9"/>
     </row>
-    <row r="629" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D629" s="9"/>
       <c r="E629" s="9"/>
       <c r="F629" s="9"/>
@@ -11710,7 +11711,7 @@
       <c r="P629" s="9"/>
       <c r="Q629" s="9"/>
     </row>
-    <row r="630" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D630" s="9"/>
       <c r="E630" s="9"/>
       <c r="F630" s="9"/>
@@ -11725,7 +11726,7 @@
       <c r="P630" s="9"/>
       <c r="Q630" s="9"/>
     </row>
-    <row r="631" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D631" s="9"/>
       <c r="E631" s="9"/>
       <c r="F631" s="9"/>
@@ -11740,7 +11741,7 @@
       <c r="P631" s="9"/>
       <c r="Q631" s="9"/>
     </row>
-    <row r="632" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D632" s="9"/>
       <c r="E632" s="9"/>
       <c r="F632" s="9"/>
@@ -11755,7 +11756,7 @@
       <c r="P632" s="9"/>
       <c r="Q632" s="9"/>
     </row>
-    <row r="633" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D633" s="9"/>
       <c r="E633" s="9"/>
       <c r="F633" s="9"/>
@@ -11770,7 +11771,7 @@
       <c r="P633" s="9"/>
       <c r="Q633" s="9"/>
     </row>
-    <row r="634" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D634" s="9"/>
       <c r="E634" s="9"/>
       <c r="F634" s="9"/>
@@ -11785,7 +11786,7 @@
       <c r="P634" s="9"/>
       <c r="Q634" s="9"/>
     </row>
-    <row r="635" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D635" s="9"/>
       <c r="E635" s="9"/>
       <c r="F635" s="9"/>
@@ -11800,7 +11801,7 @@
       <c r="P635" s="9"/>
       <c r="Q635" s="9"/>
     </row>
-    <row r="636" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D636" s="9"/>
       <c r="E636" s="9"/>
       <c r="F636" s="9"/>
@@ -11815,7 +11816,7 @@
       <c r="P636" s="9"/>
       <c r="Q636" s="9"/>
     </row>
-    <row r="637" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D637" s="9"/>
       <c r="E637" s="9"/>
       <c r="F637" s="9"/>
@@ -11830,7 +11831,7 @@
       <c r="P637" s="9"/>
       <c r="Q637" s="9"/>
     </row>
-    <row r="638" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D638" s="9"/>
       <c r="E638" s="9"/>
       <c r="F638" s="9"/>
@@ -11845,7 +11846,7 @@
       <c r="P638" s="9"/>
       <c r="Q638" s="9"/>
     </row>
-    <row r="639" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D639" s="9"/>
       <c r="E639" s="9"/>
       <c r="F639" s="9"/>
@@ -11860,7 +11861,7 @@
       <c r="P639" s="9"/>
       <c r="Q639" s="9"/>
     </row>
-    <row r="640" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D640" s="9"/>
       <c r="E640" s="9"/>
       <c r="F640" s="9"/>
@@ -11875,7 +11876,7 @@
       <c r="P640" s="9"/>
       <c r="Q640" s="9"/>
     </row>
-    <row r="641" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D641" s="9"/>
       <c r="E641" s="9"/>
       <c r="F641" s="9"/>
@@ -11890,7 +11891,7 @@
       <c r="P641" s="9"/>
       <c r="Q641" s="9"/>
     </row>
-    <row r="642" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D642" s="9"/>
       <c r="E642" s="9"/>
       <c r="F642" s="9"/>
@@ -11905,7 +11906,7 @@
       <c r="P642" s="9"/>
       <c r="Q642" s="9"/>
     </row>
-    <row r="643" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D643" s="9"/>
       <c r="E643" s="9"/>
       <c r="F643" s="9"/>
@@ -11920,7 +11921,7 @@
       <c r="P643" s="9"/>
       <c r="Q643" s="9"/>
     </row>
-    <row r="644" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D644" s="9"/>
       <c r="E644" s="9"/>
       <c r="F644" s="9"/>
@@ -11935,7 +11936,7 @@
       <c r="P644" s="9"/>
       <c r="Q644" s="9"/>
     </row>
-    <row r="645" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D645" s="9"/>
       <c r="E645" s="9"/>
       <c r="F645" s="9"/>
@@ -11950,7 +11951,7 @@
       <c r="P645" s="9"/>
       <c r="Q645" s="9"/>
     </row>
-    <row r="646" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D646" s="9"/>
       <c r="E646" s="9"/>
       <c r="F646" s="9"/>
@@ -11965,7 +11966,7 @@
       <c r="P646" s="9"/>
       <c r="Q646" s="9"/>
     </row>
-    <row r="647" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D647" s="9"/>
       <c r="E647" s="9"/>
       <c r="F647" s="9"/>
@@ -11980,7 +11981,7 @@
       <c r="P647" s="9"/>
       <c r="Q647" s="9"/>
     </row>
-    <row r="648" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D648" s="9"/>
       <c r="E648" s="9"/>
       <c r="F648" s="9"/>
@@ -11995,7 +11996,7 @@
       <c r="P648" s="9"/>
       <c r="Q648" s="9"/>
     </row>
-    <row r="649" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D649" s="9"/>
       <c r="E649" s="9"/>
       <c r="F649" s="9"/>
@@ -12010,7 +12011,7 @@
       <c r="P649" s="9"/>
       <c r="Q649" s="9"/>
     </row>
-    <row r="650" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D650" s="9"/>
       <c r="E650" s="9"/>
       <c r="F650" s="9"/>
@@ -12025,7 +12026,7 @@
       <c r="P650" s="9"/>
       <c r="Q650" s="9"/>
     </row>
-    <row r="651" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D651" s="9"/>
       <c r="E651" s="9"/>
       <c r="F651" s="9"/>
@@ -12040,7 +12041,7 @@
       <c r="P651" s="9"/>
       <c r="Q651" s="9"/>
     </row>
-    <row r="652" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D652" s="9"/>
       <c r="E652" s="9"/>
       <c r="F652" s="9"/>
@@ -12055,7 +12056,7 @@
       <c r="P652" s="9"/>
       <c r="Q652" s="9"/>
     </row>
-    <row r="653" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D653" s="9"/>
       <c r="E653" s="9"/>
       <c r="F653" s="9"/>
@@ -12070,7 +12071,7 @@
       <c r="P653" s="9"/>
       <c r="Q653" s="9"/>
     </row>
-    <row r="654" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D654" s="9"/>
       <c r="E654" s="9"/>
       <c r="F654" s="9"/>
@@ -12085,7 +12086,7 @@
       <c r="P654" s="9"/>
       <c r="Q654" s="9"/>
     </row>
-    <row r="655" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D655" s="9"/>
       <c r="E655" s="9"/>
       <c r="F655" s="9"/>
@@ -12100,7 +12101,7 @@
       <c r="P655" s="9"/>
       <c r="Q655" s="9"/>
     </row>
-    <row r="656" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D656" s="9"/>
       <c r="E656" s="9"/>
       <c r="F656" s="9"/>
@@ -12115,7 +12116,7 @@
       <c r="P656" s="9"/>
       <c r="Q656" s="9"/>
     </row>
-    <row r="657" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D657" s="9"/>
       <c r="E657" s="9"/>
       <c r="F657" s="9"/>
@@ -12130,7 +12131,7 @@
       <c r="P657" s="9"/>
       <c r="Q657" s="9"/>
     </row>
-    <row r="658" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D658" s="9"/>
       <c r="E658" s="9"/>
       <c r="F658" s="9"/>
@@ -12145,7 +12146,7 @@
       <c r="P658" s="9"/>
       <c r="Q658" s="9"/>
     </row>
-    <row r="659" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D659" s="9"/>
       <c r="E659" s="9"/>
       <c r="F659" s="9"/>
@@ -12160,7 +12161,7 @@
       <c r="P659" s="9"/>
       <c r="Q659" s="9"/>
     </row>
-    <row r="660" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D660" s="9"/>
       <c r="E660" s="9"/>
       <c r="F660" s="9"/>
@@ -12175,7 +12176,7 @@
       <c r="P660" s="9"/>
       <c r="Q660" s="9"/>
     </row>
-    <row r="661" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D661" s="9"/>
       <c r="E661" s="9"/>
       <c r="F661" s="9"/>
@@ -12190,7 +12191,7 @@
       <c r="P661" s="9"/>
       <c r="Q661" s="9"/>
     </row>
-    <row r="662" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D662" s="9"/>
       <c r="E662" s="9"/>
       <c r="F662" s="9"/>
@@ -12205,7 +12206,7 @@
       <c r="P662" s="9"/>
       <c r="Q662" s="9"/>
     </row>
-    <row r="663" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D663" s="9"/>
       <c r="E663" s="9"/>
       <c r="F663" s="9"/>
@@ -12220,7 +12221,7 @@
       <c r="P663" s="9"/>
       <c r="Q663" s="9"/>
     </row>
-    <row r="664" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D664" s="9"/>
       <c r="E664" s="9"/>
       <c r="F664" s="9"/>
@@ -12235,7 +12236,7 @@
       <c r="P664" s="9"/>
       <c r="Q664" s="9"/>
     </row>
-    <row r="665" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D665" s="9"/>
       <c r="E665" s="9"/>
       <c r="F665" s="9"/>
@@ -12250,7 +12251,7 @@
       <c r="P665" s="9"/>
       <c r="Q665" s="9"/>
     </row>
-    <row r="666" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D666" s="9"/>
       <c r="E666" s="9"/>
       <c r="F666" s="9"/>
@@ -12265,7 +12266,7 @@
       <c r="P666" s="9"/>
       <c r="Q666" s="9"/>
     </row>
-    <row r="667" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D667" s="9"/>
       <c r="E667" s="9"/>
       <c r="F667" s="9"/>
@@ -12280,7 +12281,7 @@
       <c r="P667" s="9"/>
       <c r="Q667" s="9"/>
     </row>
-    <row r="668" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D668" s="9"/>
       <c r="E668" s="9"/>
       <c r="F668" s="9"/>
@@ -12295,7 +12296,7 @@
       <c r="P668" s="9"/>
       <c r="Q668" s="9"/>
     </row>
-    <row r="669" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D669" s="9"/>
       <c r="E669" s="9"/>
       <c r="F669" s="9"/>
@@ -12310,7 +12311,7 @@
       <c r="P669" s="9"/>
       <c r="Q669" s="9"/>
     </row>
-    <row r="670" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D670" s="9"/>
       <c r="E670" s="9"/>
       <c r="F670" s="9"/>
@@ -12325,7 +12326,7 @@
       <c r="P670" s="9"/>
       <c r="Q670" s="9"/>
     </row>
-    <row r="671" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D671" s="9"/>
       <c r="E671" s="9"/>
       <c r="F671" s="9"/>
@@ -12340,7 +12341,7 @@
       <c r="P671" s="9"/>
       <c r="Q671" s="9"/>
     </row>
-    <row r="672" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D672" s="9"/>
       <c r="E672" s="9"/>
       <c r="F672" s="9"/>
@@ -12355,7 +12356,7 @@
       <c r="P672" s="9"/>
       <c r="Q672" s="9"/>
     </row>
-    <row r="673" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D673" s="9"/>
       <c r="E673" s="9"/>
       <c r="F673" s="9"/>
@@ -12370,7 +12371,7 @@
       <c r="P673" s="9"/>
       <c r="Q673" s="9"/>
     </row>
-    <row r="674" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D674" s="9"/>
       <c r="E674" s="9"/>
       <c r="F674" s="9"/>
@@ -12385,7 +12386,7 @@
       <c r="P674" s="9"/>
       <c r="Q674" s="9"/>
     </row>
-    <row r="675" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D675" s="9"/>
       <c r="E675" s="9"/>
       <c r="F675" s="9"/>
@@ -12400,7 +12401,7 @@
       <c r="P675" s="9"/>
       <c r="Q675" s="9"/>
     </row>
-    <row r="676" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D676" s="9"/>
       <c r="E676" s="9"/>
       <c r="F676" s="9"/>
@@ -12415,7 +12416,7 @@
       <c r="P676" s="9"/>
       <c r="Q676" s="9"/>
     </row>
-    <row r="677" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D677" s="9"/>
       <c r="E677" s="9"/>
       <c r="F677" s="9"/>
@@ -12430,7 +12431,7 @@
       <c r="P677" s="9"/>
       <c r="Q677" s="9"/>
     </row>
-    <row r="678" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D678" s="9"/>
       <c r="E678" s="9"/>
       <c r="F678" s="9"/>
@@ -12445,7 +12446,7 @@
       <c r="P678" s="9"/>
       <c r="Q678" s="9"/>
     </row>
-    <row r="679" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D679" s="9"/>
       <c r="E679" s="9"/>
       <c r="F679" s="9"/>
@@ -12460,7 +12461,7 @@
       <c r="P679" s="9"/>
       <c r="Q679" s="9"/>
     </row>
-    <row r="680" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D680" s="9"/>
       <c r="E680" s="9"/>
       <c r="F680" s="9"/>
@@ -12475,7 +12476,7 @@
       <c r="P680" s="9"/>
       <c r="Q680" s="9"/>
     </row>
-    <row r="681" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D681" s="9"/>
       <c r="E681" s="9"/>
       <c r="F681" s="9"/>
@@ -12490,7 +12491,7 @@
       <c r="P681" s="9"/>
       <c r="Q681" s="9"/>
     </row>
-    <row r="682" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D682" s="9"/>
       <c r="E682" s="9"/>
       <c r="F682" s="9"/>
@@ -12505,7 +12506,7 @@
       <c r="P682" s="9"/>
       <c r="Q682" s="9"/>
     </row>
-    <row r="683" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D683" s="9"/>
       <c r="E683" s="9"/>
       <c r="F683" s="9"/>
@@ -12520,7 +12521,7 @@
       <c r="P683" s="9"/>
       <c r="Q683" s="9"/>
     </row>
-    <row r="684" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D684" s="9"/>
       <c r="E684" s="9"/>
       <c r="F684" s="9"/>
@@ -12535,7 +12536,7 @@
       <c r="P684" s="9"/>
       <c r="Q684" s="9"/>
     </row>
-    <row r="685" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D685" s="9"/>
       <c r="E685" s="9"/>
       <c r="F685" s="9"/>
@@ -12550,7 +12551,7 @@
       <c r="P685" s="9"/>
       <c r="Q685" s="9"/>
     </row>
-    <row r="686" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D686" s="9"/>
       <c r="E686" s="9"/>
       <c r="F686" s="9"/>
@@ -12565,7 +12566,7 @@
       <c r="P686" s="9"/>
       <c r="Q686" s="9"/>
     </row>
-    <row r="687" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D687" s="9"/>
       <c r="E687" s="9"/>
       <c r="F687" s="9"/>
@@ -12580,7 +12581,7 @@
       <c r="P687" s="9"/>
       <c r="Q687" s="9"/>
     </row>
-    <row r="688" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D688" s="9"/>
       <c r="E688" s="9"/>
       <c r="F688" s="9"/>
@@ -12595,7 +12596,7 @@
       <c r="P688" s="9"/>
       <c r="Q688" s="9"/>
     </row>
-    <row r="689" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D689" s="9"/>
       <c r="E689" s="9"/>
       <c r="F689" s="9"/>
@@ -12610,7 +12611,7 @@
       <c r="P689" s="9"/>
       <c r="Q689" s="9"/>
     </row>
-    <row r="690" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D690" s="9"/>
       <c r="E690" s="9"/>
       <c r="F690" s="9"/>
@@ -12625,7 +12626,7 @@
       <c r="P690" s="9"/>
       <c r="Q690" s="9"/>
     </row>
-    <row r="691" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D691" s="9"/>
       <c r="E691" s="9"/>
       <c r="F691" s="9"/>
@@ -12640,7 +12641,7 @@
       <c r="P691" s="9"/>
       <c r="Q691" s="9"/>
     </row>
-    <row r="692" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D692" s="9"/>
       <c r="E692" s="9"/>
       <c r="F692" s="9"/>
@@ -12655,7 +12656,7 @@
       <c r="P692" s="9"/>
       <c r="Q692" s="9"/>
     </row>
-    <row r="693" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D693" s="9"/>
       <c r="E693" s="9"/>
       <c r="F693" s="9"/>
@@ -12670,7 +12671,7 @@
       <c r="P693" s="9"/>
       <c r="Q693" s="9"/>
     </row>
-    <row r="694" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D694" s="9"/>
       <c r="E694" s="9"/>
       <c r="F694" s="9"/>
@@ -12685,7 +12686,7 @@
       <c r="P694" s="9"/>
       <c r="Q694" s="9"/>
     </row>
-    <row r="695" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D695" s="9"/>
       <c r="E695" s="9"/>
       <c r="F695" s="9"/>
@@ -12700,7 +12701,7 @@
       <c r="P695" s="9"/>
       <c r="Q695" s="9"/>
     </row>
-    <row r="696" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D696" s="9"/>
       <c r="E696" s="9"/>
       <c r="F696" s="9"/>
@@ -12715,7 +12716,7 @@
       <c r="P696" s="9"/>
       <c r="Q696" s="9"/>
     </row>
-    <row r="697" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D697" s="9"/>
       <c r="E697" s="9"/>
       <c r="F697" s="9"/>
@@ -12730,7 +12731,7 @@
       <c r="P697" s="9"/>
       <c r="Q697" s="9"/>
     </row>
-    <row r="698" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D698" s="9"/>
       <c r="E698" s="9"/>
       <c r="F698" s="9"/>
@@ -12745,7 +12746,7 @@
       <c r="P698" s="9"/>
       <c r="Q698" s="9"/>
     </row>
-    <row r="699" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D699" s="9"/>
       <c r="E699" s="9"/>
       <c r="F699" s="9"/>
@@ -12760,7 +12761,7 @@
       <c r="P699" s="9"/>
       <c r="Q699" s="9"/>
     </row>
-    <row r="700" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D700" s="9"/>
       <c r="E700" s="9"/>
       <c r="F700" s="9"/>
@@ -12775,7 +12776,7 @@
       <c r="P700" s="9"/>
       <c r="Q700" s="9"/>
     </row>
-    <row r="701" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D701" s="9"/>
       <c r="E701" s="9"/>
       <c r="F701" s="9"/>
@@ -12790,7 +12791,7 @@
       <c r="P701" s="9"/>
       <c r="Q701" s="9"/>
     </row>
-    <row r="702" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D702" s="9"/>
       <c r="E702" s="9"/>
       <c r="F702" s="9"/>
@@ -12805,7 +12806,7 @@
       <c r="P702" s="9"/>
       <c r="Q702" s="9"/>
     </row>
-    <row r="703" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D703" s="9"/>
       <c r="E703" s="9"/>
       <c r="F703" s="9"/>
@@ -12820,7 +12821,7 @@
       <c r="P703" s="9"/>
       <c r="Q703" s="9"/>
     </row>
-    <row r="704" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D704" s="9"/>
       <c r="E704" s="9"/>
       <c r="F704" s="9"/>
@@ -12835,7 +12836,7 @@
       <c r="P704" s="9"/>
       <c r="Q704" s="9"/>
     </row>
-    <row r="705" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D705" s="9"/>
       <c r="E705" s="9"/>
       <c r="F705" s="9"/>
@@ -12850,7 +12851,7 @@
       <c r="P705" s="9"/>
       <c r="Q705" s="9"/>
     </row>
-    <row r="706" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D706" s="9"/>
       <c r="E706" s="9"/>
       <c r="F706" s="9"/>
@@ -12865,7 +12866,7 @@
       <c r="P706" s="9"/>
       <c r="Q706" s="9"/>
     </row>
-    <row r="707" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D707" s="9"/>
       <c r="E707" s="9"/>
       <c r="F707" s="9"/>
@@ -12880,7 +12881,7 @@
       <c r="P707" s="9"/>
       <c r="Q707" s="9"/>
     </row>
-    <row r="708" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D708" s="9"/>
       <c r="E708" s="9"/>
       <c r="F708" s="9"/>
@@ -12895,7 +12896,7 @@
       <c r="P708" s="9"/>
       <c r="Q708" s="9"/>
     </row>
-    <row r="709" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D709" s="9"/>
       <c r="E709" s="9"/>
       <c r="F709" s="9"/>
@@ -12910,7 +12911,7 @@
       <c r="P709" s="9"/>
       <c r="Q709" s="9"/>
     </row>
-    <row r="710" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D710" s="9"/>
       <c r="E710" s="9"/>
       <c r="F710" s="9"/>
@@ -12925,7 +12926,7 @@
       <c r="P710" s="9"/>
       <c r="Q710" s="9"/>
     </row>
-    <row r="711" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D711" s="9"/>
       <c r="E711" s="9"/>
       <c r="F711" s="9"/>
@@ -12940,7 +12941,7 @@
       <c r="P711" s="9"/>
       <c r="Q711" s="9"/>
     </row>
-    <row r="712" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D712" s="9"/>
       <c r="E712" s="9"/>
       <c r="F712" s="9"/>
@@ -12955,7 +12956,7 @@
       <c r="P712" s="9"/>
       <c r="Q712" s="9"/>
     </row>
-    <row r="713" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D713" s="9"/>
       <c r="E713" s="9"/>
       <c r="F713" s="9"/>
@@ -12970,7 +12971,7 @@
       <c r="P713" s="9"/>
       <c r="Q713" s="9"/>
     </row>
-    <row r="714" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D714" s="9"/>
       <c r="E714" s="9"/>
       <c r="F714" s="9"/>
@@ -12985,7 +12986,7 @@
       <c r="P714" s="9"/>
       <c r="Q714" s="9"/>
     </row>
-    <row r="715" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D715" s="9"/>
       <c r="E715" s="9"/>
       <c r="F715" s="9"/>
@@ -13000,7 +13001,7 @@
       <c r="P715" s="9"/>
       <c r="Q715" s="9"/>
     </row>
-    <row r="716" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D716" s="9"/>
       <c r="E716" s="9"/>
       <c r="F716" s="9"/>
@@ -13015,7 +13016,7 @@
       <c r="P716" s="9"/>
       <c r="Q716" s="9"/>
     </row>
-    <row r="717" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D717" s="9"/>
       <c r="E717" s="9"/>
       <c r="F717" s="9"/>
@@ -13030,7 +13031,7 @@
       <c r="P717" s="9"/>
       <c r="Q717" s="9"/>
     </row>
-    <row r="718" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D718" s="9"/>
       <c r="E718" s="9"/>
       <c r="F718" s="9"/>
@@ -13045,7 +13046,7 @@
       <c r="P718" s="9"/>
       <c r="Q718" s="9"/>
     </row>
-    <row r="719" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D719" s="9"/>
       <c r="E719" s="9"/>
       <c r="F719" s="9"/>
@@ -13060,7 +13061,7 @@
       <c r="P719" s="9"/>
       <c r="Q719" s="9"/>
     </row>
-    <row r="720" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D720" s="9"/>
       <c r="E720" s="9"/>
       <c r="F720" s="9"/>
@@ -13075,7 +13076,7 @@
       <c r="P720" s="9"/>
       <c r="Q720" s="9"/>
     </row>
-    <row r="721" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D721" s="9"/>
       <c r="E721" s="9"/>
       <c r="F721" s="9"/>
@@ -13090,7 +13091,7 @@
       <c r="P721" s="9"/>
       <c r="Q721" s="9"/>
     </row>
-    <row r="722" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D722" s="9"/>
       <c r="E722" s="9"/>
       <c r="F722" s="9"/>
@@ -13105,7 +13106,7 @@
       <c r="P722" s="9"/>
       <c r="Q722" s="9"/>
     </row>
-    <row r="723" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D723" s="9"/>
       <c r="E723" s="9"/>
       <c r="F723" s="9"/>
@@ -13120,7 +13121,7 @@
       <c r="P723" s="9"/>
       <c r="Q723" s="9"/>
     </row>
-    <row r="724" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D724" s="9"/>
       <c r="E724" s="9"/>
       <c r="F724" s="9"/>
@@ -13135,7 +13136,7 @@
       <c r="P724" s="9"/>
       <c r="Q724" s="9"/>
     </row>
-    <row r="725" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D725" s="9"/>
       <c r="E725" s="9"/>
       <c r="F725" s="9"/>
@@ -13150,7 +13151,7 @@
       <c r="P725" s="9"/>
       <c r="Q725" s="9"/>
     </row>
-    <row r="726" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D726" s="9"/>
       <c r="E726" s="9"/>
       <c r="F726" s="9"/>
@@ -13165,7 +13166,7 @@
       <c r="P726" s="9"/>
       <c r="Q726" s="9"/>
     </row>
-    <row r="727" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D727" s="9"/>
       <c r="E727" s="9"/>
       <c r="F727" s="9"/>
@@ -13180,7 +13181,7 @@
       <c r="P727" s="9"/>
       <c r="Q727" s="9"/>
     </row>
-    <row r="728" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D728" s="9"/>
       <c r="E728" s="9"/>
       <c r="F728" s="9"/>
@@ -13195,7 +13196,7 @@
       <c r="P728" s="9"/>
       <c r="Q728" s="9"/>
     </row>
-    <row r="729" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D729" s="9"/>
       <c r="E729" s="9"/>
       <c r="F729" s="9"/>
@@ -13210,7 +13211,7 @@
       <c r="P729" s="9"/>
       <c r="Q729" s="9"/>
     </row>
-    <row r="730" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D730" s="9"/>
       <c r="E730" s="9"/>
       <c r="F730" s="9"/>
@@ -13225,7 +13226,7 @@
       <c r="P730" s="9"/>
       <c r="Q730" s="9"/>
     </row>
-    <row r="731" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D731" s="9"/>
       <c r="E731" s="9"/>
       <c r="F731" s="9"/>
@@ -13240,7 +13241,7 @@
       <c r="P731" s="9"/>
       <c r="Q731" s="9"/>
     </row>
-    <row r="732" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D732" s="9"/>
       <c r="E732" s="9"/>
       <c r="F732" s="9"/>
@@ -13255,7 +13256,7 @@
       <c r="P732" s="9"/>
       <c r="Q732" s="9"/>
     </row>
-    <row r="733" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D733" s="9"/>
       <c r="E733" s="9"/>
       <c r="F733" s="9"/>
@@ -13270,7 +13271,7 @@
       <c r="P733" s="9"/>
       <c r="Q733" s="9"/>
     </row>
-    <row r="734" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D734" s="9"/>
       <c r="E734" s="9"/>
       <c r="F734" s="9"/>
@@ -13285,7 +13286,7 @@
       <c r="P734" s="9"/>
       <c r="Q734" s="9"/>
     </row>
-    <row r="735" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D735" s="9"/>
       <c r="E735" s="9"/>
       <c r="F735" s="9"/>
@@ -13300,7 +13301,7 @@
       <c r="P735" s="9"/>
       <c r="Q735" s="9"/>
     </row>
-    <row r="736" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D736" s="9"/>
       <c r="E736" s="9"/>
       <c r="F736" s="9"/>
@@ -13315,7 +13316,7 @@
       <c r="P736" s="9"/>
       <c r="Q736" s="9"/>
     </row>
-    <row r="737" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D737" s="9"/>
       <c r="E737" s="9"/>
       <c r="F737" s="9"/>
@@ -13330,7 +13331,7 @@
       <c r="P737" s="9"/>
       <c r="Q737" s="9"/>
     </row>
-    <row r="738" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D738" s="9"/>
       <c r="E738" s="9"/>
       <c r="F738" s="9"/>
@@ -13345,7 +13346,7 @@
       <c r="P738" s="9"/>
       <c r="Q738" s="9"/>
     </row>
-    <row r="739" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D739" s="9"/>
       <c r="E739" s="9"/>
       <c r="F739" s="9"/>
@@ -13360,7 +13361,7 @@
       <c r="P739" s="9"/>
       <c r="Q739" s="9"/>
     </row>
-    <row r="740" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D740" s="9"/>
       <c r="E740" s="9"/>
       <c r="F740" s="9"/>
@@ -13375,7 +13376,7 @@
       <c r="P740" s="9"/>
       <c r="Q740" s="9"/>
     </row>
-    <row r="741" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D741" s="9"/>
       <c r="E741" s="9"/>
       <c r="F741" s="9"/>
@@ -13390,7 +13391,7 @@
       <c r="P741" s="9"/>
       <c r="Q741" s="9"/>
     </row>
-    <row r="742" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D742" s="9"/>
       <c r="E742" s="9"/>
       <c r="F742" s="9"/>
@@ -13405,7 +13406,7 @@
       <c r="P742" s="9"/>
       <c r="Q742" s="9"/>
     </row>
-    <row r="743" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D743" s="9"/>
       <c r="E743" s="9"/>
       <c r="F743" s="9"/>
@@ -13420,7 +13421,7 @@
       <c r="P743" s="9"/>
       <c r="Q743" s="9"/>
     </row>
-    <row r="744" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D744" s="9"/>
       <c r="E744" s="9"/>
       <c r="F744" s="9"/>
@@ -13435,7 +13436,7 @@
       <c r="P744" s="9"/>
       <c r="Q744" s="9"/>
     </row>
-    <row r="745" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D745" s="9"/>
       <c r="E745" s="9"/>
       <c r="F745" s="9"/>
@@ -13450,7 +13451,7 @@
       <c r="P745" s="9"/>
       <c r="Q745" s="9"/>
     </row>
-    <row r="746" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D746" s="9"/>
       <c r="E746" s="9"/>
       <c r="F746" s="9"/>
@@ -13465,7 +13466,7 @@
       <c r="P746" s="9"/>
       <c r="Q746" s="9"/>
     </row>
-    <row r="747" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D747" s="9"/>
       <c r="E747" s="9"/>
       <c r="F747" s="9"/>
@@ -13480,7 +13481,7 @@
       <c r="P747" s="9"/>
       <c r="Q747" s="9"/>
     </row>
-    <row r="748" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D748" s="9"/>
       <c r="E748" s="9"/>
       <c r="F748" s="9"/>
@@ -13495,7 +13496,7 @@
       <c r="P748" s="9"/>
       <c r="Q748" s="9"/>
     </row>
-    <row r="749" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D749" s="9"/>
       <c r="E749" s="9"/>
       <c r="F749" s="9"/>
@@ -13510,7 +13511,7 @@
       <c r="P749" s="9"/>
       <c r="Q749" s="9"/>
     </row>
-    <row r="750" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D750" s="9"/>
       <c r="E750" s="9"/>
       <c r="F750" s="9"/>
@@ -13525,7 +13526,7 @@
       <c r="P750" s="9"/>
       <c r="Q750" s="9"/>
     </row>
-    <row r="751" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D751" s="9"/>
       <c r="E751" s="9"/>
       <c r="F751" s="9"/>
@@ -13540,7 +13541,7 @@
       <c r="P751" s="9"/>
       <c r="Q751" s="9"/>
     </row>
-    <row r="752" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D752" s="9"/>
       <c r="E752" s="9"/>
       <c r="F752" s="9"/>
@@ -13555,7 +13556,7 @@
       <c r="P752" s="9"/>
       <c r="Q752" s="9"/>
     </row>
-    <row r="753" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D753" s="9"/>
       <c r="E753" s="9"/>
       <c r="F753" s="9"/>
@@ -13570,7 +13571,7 @@
       <c r="P753" s="9"/>
       <c r="Q753" s="9"/>
     </row>
-    <row r="754" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D754" s="9"/>
       <c r="E754" s="9"/>
       <c r="F754" s="9"/>
@@ -13585,7 +13586,7 @@
       <c r="P754" s="9"/>
       <c r="Q754" s="9"/>
     </row>
-    <row r="755" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D755" s="9"/>
       <c r="E755" s="9"/>
       <c r="F755" s="9"/>
@@ -13600,7 +13601,7 @@
       <c r="P755" s="9"/>
       <c r="Q755" s="9"/>
     </row>
-    <row r="756" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D756" s="9"/>
       <c r="E756" s="9"/>
       <c r="F756" s="9"/>
@@ -13615,7 +13616,7 @@
       <c r="P756" s="9"/>
       <c r="Q756" s="9"/>
     </row>
-    <row r="757" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D757" s="9"/>
       <c r="E757" s="9"/>
       <c r="F757" s="9"/>
@@ -13630,7 +13631,7 @@
       <c r="P757" s="9"/>
       <c r="Q757" s="9"/>
     </row>
-    <row r="758" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D758" s="9"/>
       <c r="E758" s="9"/>
       <c r="F758" s="9"/>
@@ -13645,7 +13646,7 @@
       <c r="P758" s="9"/>
       <c r="Q758" s="9"/>
     </row>
-    <row r="759" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D759" s="9"/>
       <c r="E759" s="9"/>
       <c r="F759" s="9"/>
@@ -13660,7 +13661,7 @@
       <c r="P759" s="9"/>
       <c r="Q759" s="9"/>
     </row>
-    <row r="760" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D760" s="9"/>
       <c r="E760" s="9"/>
       <c r="F760" s="9"/>
@@ -13675,7 +13676,7 @@
       <c r="P760" s="9"/>
       <c r="Q760" s="9"/>
     </row>
-    <row r="761" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D761" s="9"/>
       <c r="E761" s="9"/>
       <c r="F761" s="9"/>
@@ -13690,7 +13691,7 @@
       <c r="P761" s="9"/>
       <c r="Q761" s="9"/>
     </row>
-    <row r="762" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D762" s="9"/>
       <c r="E762" s="9"/>
       <c r="F762" s="9"/>
@@ -13705,7 +13706,7 @@
       <c r="P762" s="9"/>
       <c r="Q762" s="9"/>
     </row>
-    <row r="763" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D763" s="9"/>
       <c r="E763" s="9"/>
       <c r="F763" s="9"/>
@@ -13720,7 +13721,7 @@
       <c r="P763" s="9"/>
       <c r="Q763" s="9"/>
     </row>
-    <row r="764" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D764" s="9"/>
       <c r="E764" s="9"/>
       <c r="F764" s="9"/>
@@ -13735,7 +13736,7 @@
       <c r="P764" s="9"/>
       <c r="Q764" s="9"/>
     </row>
-    <row r="765" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D765" s="9"/>
       <c r="E765" s="9"/>
       <c r="F765" s="9"/>
@@ -13750,7 +13751,7 @@
       <c r="P765" s="9"/>
       <c r="Q765" s="9"/>
     </row>
-    <row r="766" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D766" s="9"/>
       <c r="E766" s="9"/>
       <c r="F766" s="9"/>
@@ -13765,7 +13766,7 @@
       <c r="P766" s="9"/>
       <c r="Q766" s="9"/>
     </row>
-    <row r="767" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D767" s="9"/>
       <c r="E767" s="9"/>
       <c r="F767" s="9"/>
@@ -13780,7 +13781,7 @@
       <c r="P767" s="9"/>
       <c r="Q767" s="9"/>
     </row>
-    <row r="768" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D768" s="9"/>
       <c r="E768" s="9"/>
       <c r="F768" s="9"/>
@@ -13795,7 +13796,7 @@
       <c r="P768" s="9"/>
       <c r="Q768" s="9"/>
     </row>
-    <row r="769" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D769" s="9"/>
       <c r="E769" s="9"/>
       <c r="F769" s="9"/>
@@ -13810,7 +13811,7 @@
       <c r="P769" s="9"/>
       <c r="Q769" s="9"/>
     </row>
-    <row r="770" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D770" s="9"/>
       <c r="E770" s="9"/>
       <c r="F770" s="9"/>
@@ -13825,7 +13826,7 @@
       <c r="P770" s="9"/>
       <c r="Q770" s="9"/>
     </row>
-    <row r="771" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D771" s="9"/>
       <c r="E771" s="9"/>
       <c r="F771" s="9"/>
@@ -13840,7 +13841,7 @@
       <c r="P771" s="9"/>
       <c r="Q771" s="9"/>
     </row>
-    <row r="772" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D772" s="9"/>
       <c r="E772" s="9"/>
       <c r="F772" s="9"/>
@@ -13855,7 +13856,7 @@
       <c r="P772" s="9"/>
       <c r="Q772" s="9"/>
     </row>
-    <row r="773" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D773" s="9"/>
       <c r="E773" s="9"/>
       <c r="F773" s="9"/>
@@ -13870,7 +13871,7 @@
       <c r="P773" s="9"/>
       <c r="Q773" s="9"/>
     </row>
-    <row r="774" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D774" s="9"/>
       <c r="E774" s="9"/>
       <c r="F774" s="9"/>
@@ -13885,7 +13886,7 @@
       <c r="P774" s="9"/>
       <c r="Q774" s="9"/>
     </row>
-    <row r="775" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D775" s="9"/>
       <c r="E775" s="9"/>
       <c r="F775" s="9"/>
@@ -13900,7 +13901,7 @@
       <c r="P775" s="9"/>
       <c r="Q775" s="9"/>
     </row>
-    <row r="776" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D776" s="9"/>
       <c r="E776" s="9"/>
       <c r="F776" s="9"/>
@@ -13915,7 +13916,7 @@
       <c r="P776" s="9"/>
       <c r="Q776" s="9"/>
     </row>
-    <row r="777" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D777" s="9"/>
       <c r="E777" s="9"/>
       <c r="F777" s="9"/>
@@ -13930,7 +13931,7 @@
       <c r="P777" s="9"/>
       <c r="Q777" s="9"/>
     </row>
-    <row r="778" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D778" s="9"/>
       <c r="E778" s="9"/>
       <c r="F778" s="9"/>
@@ -13945,7 +13946,7 @@
       <c r="P778" s="9"/>
       <c r="Q778" s="9"/>
     </row>
-    <row r="779" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D779" s="9"/>
       <c r="E779" s="9"/>
       <c r="F779" s="9"/>
@@ -13960,7 +13961,7 @@
       <c r="P779" s="9"/>
       <c r="Q779" s="9"/>
     </row>
-    <row r="780" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D780" s="9"/>
       <c r="E780" s="9"/>
       <c r="F780" s="9"/>
@@ -13975,7 +13976,7 @@
       <c r="P780" s="9"/>
       <c r="Q780" s="9"/>
     </row>
-    <row r="781" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D781" s="9"/>
       <c r="E781" s="9"/>
       <c r="F781" s="9"/>
@@ -13990,7 +13991,7 @@
       <c r="P781" s="9"/>
       <c r="Q781" s="9"/>
     </row>
-    <row r="782" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D782" s="9"/>
       <c r="E782" s="9"/>
       <c r="F782" s="9"/>
@@ -14005,7 +14006,7 @@
       <c r="P782" s="9"/>
       <c r="Q782" s="9"/>
     </row>
-    <row r="783" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D783" s="9"/>
       <c r="E783" s="9"/>
       <c r="F783" s="9"/>
@@ -14020,7 +14021,7 @@
       <c r="P783" s="9"/>
       <c r="Q783" s="9"/>
     </row>
-    <row r="784" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D784" s="9"/>
       <c r="E784" s="9"/>
       <c r="F784" s="9"/>
@@ -14035,7 +14036,7 @@
       <c r="P784" s="9"/>
       <c r="Q784" s="9"/>
     </row>
-    <row r="785" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D785" s="9"/>
       <c r="E785" s="9"/>
       <c r="F785" s="9"/>
@@ -14050,7 +14051,7 @@
       <c r="P785" s="9"/>
       <c r="Q785" s="9"/>
     </row>
-    <row r="786" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D786" s="9"/>
       <c r="E786" s="9"/>
       <c r="F786" s="9"/>
@@ -14065,7 +14066,7 @@
       <c r="P786" s="9"/>
       <c r="Q786" s="9"/>
     </row>
-    <row r="787" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D787" s="9"/>
       <c r="E787" s="9"/>
       <c r="F787" s="9"/>
@@ -14080,7 +14081,7 @@
       <c r="P787" s="9"/>
       <c r="Q787" s="9"/>
     </row>
-    <row r="788" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D788" s="9"/>
       <c r="E788" s="9"/>
       <c r="F788" s="9"/>
@@ -14095,7 +14096,7 @@
       <c r="P788" s="9"/>
       <c r="Q788" s="9"/>
     </row>
-    <row r="789" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D789" s="9"/>
       <c r="E789" s="9"/>
       <c r="F789" s="9"/>
@@ -14110,7 +14111,7 @@
       <c r="P789" s="9"/>
       <c r="Q789" s="9"/>
     </row>
-    <row r="790" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D790" s="9"/>
       <c r="E790" s="9"/>
       <c r="F790" s="9"/>
@@ -14125,7 +14126,7 @@
       <c r="P790" s="9"/>
       <c r="Q790" s="9"/>
     </row>
-    <row r="791" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D791" s="9"/>
       <c r="E791" s="9"/>
       <c r="F791" s="9"/>
@@ -14140,7 +14141,7 @@
       <c r="P791" s="9"/>
       <c r="Q791" s="9"/>
     </row>
-    <row r="792" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D792" s="9"/>
       <c r="E792" s="9"/>
       <c r="F792" s="9"/>
@@ -14155,7 +14156,7 @@
       <c r="P792" s="9"/>
       <c r="Q792" s="9"/>
     </row>
-    <row r="793" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D793" s="9"/>
       <c r="E793" s="9"/>
       <c r="F793" s="9"/>
@@ -14170,7 +14171,7 @@
       <c r="P793" s="9"/>
       <c r="Q793" s="9"/>
     </row>
-    <row r="794" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D794" s="9"/>
       <c r="E794" s="9"/>
       <c r="F794" s="9"/>
@@ -14185,7 +14186,7 @@
       <c r="P794" s="9"/>
       <c r="Q794" s="9"/>
     </row>
-    <row r="795" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D795" s="9"/>
       <c r="E795" s="9"/>
       <c r="F795" s="9"/>
@@ -14200,7 +14201,7 @@
       <c r="P795" s="9"/>
       <c r="Q795" s="9"/>
     </row>
-    <row r="796" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D796" s="9"/>
       <c r="E796" s="9"/>
       <c r="F796" s="9"/>
@@ -14215,7 +14216,7 @@
       <c r="P796" s="9"/>
       <c r="Q796" s="9"/>
     </row>
-    <row r="797" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D797" s="9"/>
       <c r="E797" s="9"/>
       <c r="F797" s="9"/>
@@ -14230,7 +14231,7 @@
       <c r="P797" s="9"/>
       <c r="Q797" s="9"/>
     </row>
-    <row r="798" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D798" s="9"/>
       <c r="E798" s="9"/>
       <c r="F798" s="9"/>
@@ -14245,7 +14246,7 @@
       <c r="P798" s="9"/>
       <c r="Q798" s="9"/>
     </row>
-    <row r="799" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D799" s="9"/>
       <c r="E799" s="9"/>
       <c r="F799" s="9"/>
@@ -14260,7 +14261,7 @@
       <c r="P799" s="9"/>
       <c r="Q799" s="9"/>
     </row>
-    <row r="800" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D800" s="9"/>
       <c r="E800" s="9"/>
       <c r="F800" s="9"/>
@@ -14275,7 +14276,7 @@
       <c r="P800" s="9"/>
       <c r="Q800" s="9"/>
     </row>
-    <row r="801" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D801" s="9"/>
       <c r="E801" s="9"/>
       <c r="F801" s="9"/>
@@ -14290,7 +14291,7 @@
       <c r="P801" s="9"/>
       <c r="Q801" s="9"/>
     </row>
-    <row r="802" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D802" s="9"/>
       <c r="E802" s="9"/>
       <c r="F802" s="9"/>
@@ -14305,7 +14306,7 @@
       <c r="P802" s="9"/>
       <c r="Q802" s="9"/>
     </row>
-    <row r="803" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D803" s="9"/>
       <c r="E803" s="9"/>
       <c r="F803" s="9"/>
@@ -14320,7 +14321,7 @@
       <c r="P803" s="9"/>
       <c r="Q803" s="9"/>
     </row>
-    <row r="804" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D804" s="9"/>
       <c r="E804" s="9"/>
       <c r="F804" s="9"/>
@@ -14335,7 +14336,7 @@
       <c r="P804" s="9"/>
       <c r="Q804" s="9"/>
     </row>
-    <row r="805" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D805" s="9"/>
       <c r="E805" s="9"/>
       <c r="F805" s="9"/>
@@ -14350,7 +14351,7 @@
       <c r="P805" s="9"/>
       <c r="Q805" s="9"/>
     </row>
-    <row r="806" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D806" s="9"/>
       <c r="E806" s="9"/>
       <c r="F806" s="9"/>
@@ -14365,7 +14366,7 @@
       <c r="P806" s="9"/>
       <c r="Q806" s="9"/>
     </row>
-    <row r="807" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D807" s="9"/>
       <c r="E807" s="9"/>
       <c r="F807" s="9"/>
@@ -14380,7 +14381,7 @@
       <c r="P807" s="9"/>
       <c r="Q807" s="9"/>
     </row>
-    <row r="808" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D808" s="9"/>
       <c r="E808" s="9"/>
       <c r="F808" s="9"/>
@@ -14395,7 +14396,7 @@
       <c r="P808" s="9"/>
       <c r="Q808" s="9"/>
     </row>
-    <row r="809" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D809" s="9"/>
       <c r="E809" s="9"/>
       <c r="F809" s="9"/>
@@ -14410,7 +14411,7 @@
       <c r="P809" s="9"/>
       <c r="Q809" s="9"/>
     </row>
-    <row r="810" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D810" s="9"/>
       <c r="E810" s="9"/>
       <c r="F810" s="9"/>
@@ -14425,7 +14426,7 @@
       <c r="P810" s="9"/>
       <c r="Q810" s="9"/>
     </row>
-    <row r="811" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D811" s="9"/>
       <c r="E811" s="9"/>
       <c r="F811" s="9"/>
@@ -14440,7 +14441,7 @@
       <c r="P811" s="9"/>
       <c r="Q811" s="9"/>
     </row>
-    <row r="812" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D812" s="9"/>
       <c r="E812" s="9"/>
       <c r="F812" s="9"/>
@@ -14455,7 +14456,7 @@
       <c r="P812" s="9"/>
       <c r="Q812" s="9"/>
     </row>
-    <row r="813" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D813" s="9"/>
       <c r="E813" s="9"/>
       <c r="F813" s="9"/>
@@ -14470,7 +14471,7 @@
       <c r="P813" s="9"/>
       <c r="Q813" s="9"/>
     </row>
-    <row r="814" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D814" s="9"/>
       <c r="E814" s="9"/>
       <c r="F814" s="9"/>
@@ -14485,7 +14486,7 @@
       <c r="P814" s="9"/>
       <c r="Q814" s="9"/>
     </row>
-    <row r="815" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D815" s="9"/>
       <c r="E815" s="9"/>
       <c r="F815" s="9"/>
@@ -14500,7 +14501,7 @@
       <c r="P815" s="9"/>
       <c r="Q815" s="9"/>
     </row>
-    <row r="816" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D816" s="9"/>
       <c r="E816" s="9"/>
       <c r="F816" s="9"/>
@@ -14515,7 +14516,7 @@
       <c r="P816" s="9"/>
       <c r="Q816" s="9"/>
     </row>
-    <row r="817" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D817" s="9"/>
       <c r="E817" s="9"/>
       <c r="F817" s="9"/>
@@ -14530,7 +14531,7 @@
       <c r="P817" s="9"/>
       <c r="Q817" s="9"/>
     </row>
-    <row r="818" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D818" s="9"/>
       <c r="E818" s="9"/>
       <c r="F818" s="9"/>
@@ -14545,7 +14546,7 @@
       <c r="P818" s="9"/>
       <c r="Q818" s="9"/>
     </row>
-    <row r="819" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D819" s="9"/>
       <c r="E819" s="9"/>
       <c r="F819" s="9"/>
@@ -14560,7 +14561,7 @@
       <c r="P819" s="9"/>
       <c r="Q819" s="9"/>
     </row>
-    <row r="820" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D820" s="9"/>
       <c r="E820" s="9"/>
       <c r="F820" s="9"/>
@@ -14575,7 +14576,7 @@
       <c r="P820" s="9"/>
       <c r="Q820" s="9"/>
     </row>
-    <row r="821" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D821" s="9"/>
       <c r="E821" s="9"/>
       <c r="F821" s="9"/>
@@ -14590,7 +14591,7 @@
       <c r="P821" s="9"/>
       <c r="Q821" s="9"/>
     </row>
-    <row r="822" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D822" s="9"/>
       <c r="E822" s="9"/>
       <c r="F822" s="9"/>
@@ -14605,7 +14606,7 @@
       <c r="P822" s="9"/>
       <c r="Q822" s="9"/>
     </row>
-    <row r="823" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D823" s="9"/>
       <c r="E823" s="9"/>
       <c r="F823" s="9"/>
@@ -14620,7 +14621,7 @@
       <c r="P823" s="9"/>
       <c r="Q823" s="9"/>
     </row>
-    <row r="824" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D824" s="9"/>
       <c r="E824" s="9"/>
       <c r="F824" s="9"/>
@@ -14635,7 +14636,7 @@
       <c r="P824" s="9"/>
       <c r="Q824" s="9"/>
     </row>
-    <row r="825" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D825" s="9"/>
       <c r="E825" s="9"/>
       <c r="F825" s="9"/>
@@ -14650,7 +14651,7 @@
       <c r="P825" s="9"/>
       <c r="Q825" s="9"/>
     </row>
-    <row r="826" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D826" s="9"/>
       <c r="E826" s="9"/>
       <c r="F826" s="9"/>
@@ -14665,7 +14666,7 @@
       <c r="P826" s="9"/>
       <c r="Q826" s="9"/>
     </row>
-    <row r="827" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D827" s="9"/>
       <c r="E827" s="9"/>
       <c r="F827" s="9"/>
@@ -14680,7 +14681,7 @@
       <c r="P827" s="9"/>
       <c r="Q827" s="9"/>
     </row>
-    <row r="828" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D828" s="9"/>
       <c r="E828" s="9"/>
       <c r="F828" s="9"/>
@@ -14695,7 +14696,7 @@
       <c r="P828" s="9"/>
       <c r="Q828" s="9"/>
     </row>
-    <row r="829" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D829" s="9"/>
       <c r="E829" s="9"/>
       <c r="F829" s="9"/>
@@ -14710,7 +14711,7 @@
       <c r="P829" s="9"/>
       <c r="Q829" s="9"/>
     </row>
-    <row r="830" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D830" s="9"/>
       <c r="E830" s="9"/>
       <c r="F830" s="9"/>
@@ -14725,7 +14726,7 @@
       <c r="P830" s="9"/>
       <c r="Q830" s="9"/>
     </row>
-    <row r="831" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D831" s="9"/>
       <c r="E831" s="9"/>
       <c r="F831" s="9"/>
@@ -14740,7 +14741,7 @@
       <c r="P831" s="9"/>
       <c r="Q831" s="9"/>
     </row>
-    <row r="832" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D832" s="9"/>
       <c r="E832" s="9"/>
       <c r="F832" s="9"/>
@@ -14755,7 +14756,7 @@
       <c r="P832" s="9"/>
       <c r="Q832" s="9"/>
     </row>
-    <row r="833" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D833" s="9"/>
       <c r="E833" s="9"/>
       <c r="F833" s="9"/>
@@ -14770,7 +14771,7 @@
       <c r="P833" s="9"/>
       <c r="Q833" s="9"/>
     </row>
-    <row r="834" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D834" s="9"/>
       <c r="E834" s="9"/>
       <c r="F834" s="9"/>
@@ -14785,7 +14786,7 @@
       <c r="P834" s="9"/>
       <c r="Q834" s="9"/>
     </row>
-    <row r="835" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D835" s="9"/>
       <c r="E835" s="9"/>
       <c r="F835" s="9"/>
@@ -14800,7 +14801,7 @@
       <c r="P835" s="9"/>
       <c r="Q835" s="9"/>
     </row>
-    <row r="836" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D836" s="9"/>
       <c r="E836" s="9"/>
       <c r="F836" s="9"/>
@@ -14815,7 +14816,7 @@
       <c r="P836" s="9"/>
       <c r="Q836" s="9"/>
     </row>
-    <row r="837" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D837" s="9"/>
       <c r="E837" s="9"/>
       <c r="F837" s="9"/>
@@ -14830,7 +14831,7 @@
       <c r="P837" s="9"/>
       <c r="Q837" s="9"/>
     </row>
-    <row r="838" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D838" s="9"/>
       <c r="E838" s="9"/>
       <c r="F838" s="9"/>
@@ -14845,7 +14846,7 @@
       <c r="P838" s="9"/>
       <c r="Q838" s="9"/>
     </row>
-    <row r="839" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D839" s="9"/>
       <c r="E839" s="9"/>
       <c r="F839" s="9"/>
@@ -14860,7 +14861,7 @@
       <c r="P839" s="9"/>
       <c r="Q839" s="9"/>
     </row>
-    <row r="840" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D840" s="9"/>
       <c r="E840" s="9"/>
       <c r="F840" s="9"/>
@@ -14875,7 +14876,7 @@
       <c r="P840" s="9"/>
       <c r="Q840" s="9"/>
     </row>
-    <row r="841" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D841" s="9"/>
       <c r="E841" s="9"/>
       <c r="F841" s="9"/>
@@ -14890,7 +14891,7 @@
       <c r="P841" s="9"/>
       <c r="Q841" s="9"/>
     </row>
-    <row r="842" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D842" s="9"/>
       <c r="E842" s="9"/>
       <c r="F842" s="9"/>
@@ -14905,7 +14906,7 @@
       <c r="P842" s="9"/>
       <c r="Q842" s="9"/>
     </row>
-    <row r="843" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D843" s="9"/>
       <c r="E843" s="9"/>
       <c r="F843" s="9"/>
@@ -14920,7 +14921,7 @@
       <c r="P843" s="9"/>
       <c r="Q843" s="9"/>
     </row>
-    <row r="844" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D844" s="9"/>
       <c r="E844" s="9"/>
       <c r="F844" s="9"/>
@@ -14935,7 +14936,7 @@
       <c r="P844" s="9"/>
       <c r="Q844" s="9"/>
     </row>
-    <row r="845" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D845" s="9"/>
       <c r="E845" s="9"/>
       <c r="F845" s="9"/>
@@ -14950,7 +14951,7 @@
       <c r="P845" s="9"/>
       <c r="Q845" s="9"/>
     </row>
-    <row r="846" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D846" s="9"/>
       <c r="E846" s="9"/>
       <c r="F846" s="9"/>
@@ -14965,7 +14966,7 @@
       <c r="P846" s="9"/>
       <c r="Q846" s="9"/>
     </row>
-    <row r="847" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D847" s="9"/>
       <c r="E847" s="9"/>
       <c r="F847" s="9"/>
@@ -14980,7 +14981,7 @@
       <c r="P847" s="9"/>
       <c r="Q847" s="9"/>
     </row>
-    <row r="848" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D848" s="9"/>
       <c r="E848" s="9"/>
       <c r="F848" s="9"/>
@@ -14995,7 +14996,7 @@
       <c r="P848" s="9"/>
       <c r="Q848" s="9"/>
     </row>
-    <row r="849" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D849" s="9"/>
       <c r="E849" s="9"/>
       <c r="F849" s="9"/>
@@ -15010,7 +15011,7 @@
       <c r="P849" s="9"/>
       <c r="Q849" s="9"/>
     </row>
-    <row r="850" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D850" s="9"/>
       <c r="E850" s="9"/>
       <c r="F850" s="9"/>
@@ -15025,7 +15026,7 @@
       <c r="P850" s="9"/>
       <c r="Q850" s="9"/>
     </row>
-    <row r="851" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D851" s="9"/>
       <c r="E851" s="9"/>
       <c r="F851" s="9"/>
@@ -15040,7 +15041,7 @@
       <c r="P851" s="9"/>
       <c r="Q851" s="9"/>
     </row>
-    <row r="852" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D852" s="9"/>
       <c r="E852" s="9"/>
       <c r="F852" s="9"/>
@@ -15055,7 +15056,7 @@
       <c r="P852" s="9"/>
       <c r="Q852" s="9"/>
     </row>
-    <row r="853" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D853" s="9"/>
       <c r="E853" s="9"/>
       <c r="F853" s="9"/>
@@ -15070,7 +15071,7 @@
       <c r="P853" s="9"/>
       <c r="Q853" s="9"/>
     </row>
-    <row r="854" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D854" s="9"/>
       <c r="E854" s="9"/>
       <c r="F854" s="9"/>
@@ -15085,7 +15086,7 @@
       <c r="P854" s="9"/>
       <c r="Q854" s="9"/>
     </row>
-    <row r="855" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D855" s="9"/>
       <c r="E855" s="9"/>
       <c r="F855" s="9"/>
@@ -15100,7 +15101,7 @@
       <c r="P855" s="9"/>
       <c r="Q855" s="9"/>
     </row>
-    <row r="856" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D856" s="9"/>
       <c r="E856" s="9"/>
       <c r="F856" s="9"/>
@@ -15115,7 +15116,7 @@
       <c r="P856" s="9"/>
       <c r="Q856" s="9"/>
     </row>
-    <row r="857" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D857" s="9"/>
       <c r="E857" s="9"/>
       <c r="F857" s="9"/>
@@ -15130,7 +15131,7 @@
       <c r="P857" s="9"/>
       <c r="Q857" s="9"/>
     </row>
-    <row r="858" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D858" s="9"/>
       <c r="E858" s="9"/>
       <c r="F858" s="9"/>
@@ -15145,7 +15146,7 @@
       <c r="P858" s="9"/>
       <c r="Q858" s="9"/>
     </row>
-    <row r="859" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D859" s="9"/>
       <c r="E859" s="9"/>
       <c r="F859" s="9"/>
@@ -15160,7 +15161,7 @@
       <c r="P859" s="9"/>
       <c r="Q859" s="9"/>
     </row>
-    <row r="860" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D860" s="9"/>
       <c r="E860" s="9"/>
       <c r="F860" s="9"/>
@@ -15175,7 +15176,7 @@
       <c r="P860" s="9"/>
       <c r="Q860" s="9"/>
     </row>
-    <row r="861" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D861" s="9"/>
       <c r="E861" s="9"/>
       <c r="F861" s="9"/>
@@ -15190,7 +15191,7 @@
       <c r="P861" s="9"/>
       <c r="Q861" s="9"/>
     </row>
-    <row r="862" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D862" s="9"/>
       <c r="E862" s="9"/>
       <c r="F862" s="9"/>
@@ -15205,7 +15206,7 @@
       <c r="P862" s="9"/>
       <c r="Q862" s="9"/>
     </row>
-    <row r="863" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D863" s="9"/>
       <c r="E863" s="9"/>
       <c r="F863" s="9"/>
@@ -15220,7 +15221,7 @@
       <c r="P863" s="9"/>
       <c r="Q863" s="9"/>
     </row>
-    <row r="864" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D864" s="9"/>
       <c r="E864" s="9"/>
       <c r="F864" s="9"/>
@@ -15235,7 +15236,7 @@
       <c r="P864" s="9"/>
       <c r="Q864" s="9"/>
     </row>
-    <row r="865" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D865" s="9"/>
       <c r="E865" s="9"/>
       <c r="F865" s="9"/>
@@ -15250,7 +15251,7 @@
       <c r="P865" s="9"/>
       <c r="Q865" s="9"/>
     </row>
-    <row r="866" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D866" s="9"/>
       <c r="E866" s="9"/>
       <c r="F866" s="9"/>
@@ -15265,7 +15266,7 @@
       <c r="P866" s="9"/>
       <c r="Q866" s="9"/>
     </row>
-    <row r="867" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D867" s="9"/>
       <c r="E867" s="9"/>
       <c r="F867" s="9"/>
@@ -15280,7 +15281,7 @@
       <c r="P867" s="9"/>
       <c r="Q867" s="9"/>
     </row>
-    <row r="868" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D868" s="9"/>
       <c r="E868" s="9"/>
       <c r="F868" s="9"/>
@@ -15295,7 +15296,7 @@
       <c r="P868" s="9"/>
       <c r="Q868" s="9"/>
     </row>
-    <row r="869" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D869" s="9"/>
       <c r="E869" s="9"/>
       <c r="F869" s="9"/>
@@ -15310,7 +15311,7 @@
       <c r="P869" s="9"/>
       <c r="Q869" s="9"/>
     </row>
-    <row r="870" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D870" s="9"/>
       <c r="E870" s="9"/>
       <c r="F870" s="9"/>
@@ -15325,7 +15326,7 @@
       <c r="P870" s="9"/>
       <c r="Q870" s="9"/>
     </row>
-    <row r="871" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D871" s="9"/>
       <c r="E871" s="9"/>
       <c r="F871" s="9"/>
@@ -15340,7 +15341,7 @@
       <c r="P871" s="9"/>
       <c r="Q871" s="9"/>
     </row>
-    <row r="872" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D872" s="9"/>
       <c r="E872" s="9"/>
       <c r="F872" s="9"/>
@@ -15355,7 +15356,7 @@
       <c r="P872" s="9"/>
       <c r="Q872" s="9"/>
     </row>
-    <row r="873" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D873" s="9"/>
       <c r="E873" s="9"/>
       <c r="F873" s="9"/>
@@ -15370,7 +15371,7 @@
       <c r="P873" s="9"/>
       <c r="Q873" s="9"/>
     </row>
-    <row r="874" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D874" s="9"/>
       <c r="E874" s="9"/>
       <c r="F874" s="9"/>
@@ -15385,7 +15386,7 @@
       <c r="P874" s="9"/>
       <c r="Q874" s="9"/>
     </row>
-    <row r="875" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D875" s="9"/>
       <c r="E875" s="9"/>
       <c r="F875" s="9"/>
@@ -15400,7 +15401,7 @@
       <c r="P875" s="9"/>
       <c r="Q875" s="9"/>
     </row>
-    <row r="876" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D876" s="9"/>
       <c r="E876" s="9"/>
       <c r="F876" s="9"/>
@@ -15415,7 +15416,7 @@
       <c r="P876" s="9"/>
       <c r="Q876" s="9"/>
     </row>
-    <row r="877" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D877" s="9"/>
       <c r="E877" s="9"/>
       <c r="F877" s="9"/>
@@ -15430,7 +15431,7 @@
       <c r="P877" s="9"/>
       <c r="Q877" s="9"/>
     </row>
-    <row r="878" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D878" s="9"/>
       <c r="E878" s="9"/>
       <c r="F878" s="9"/>
@@ -15445,7 +15446,7 @@
       <c r="P878" s="9"/>
       <c r="Q878" s="9"/>
     </row>
-    <row r="879" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D879" s="9"/>
       <c r="E879" s="9"/>
       <c r="F879" s="9"/>
@@ -15460,7 +15461,7 @@
       <c r="P879" s="9"/>
       <c r="Q879" s="9"/>
     </row>
-    <row r="880" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D880" s="9"/>
       <c r="E880" s="9"/>
       <c r="F880" s="9"/>
@@ -15475,7 +15476,7 @@
       <c r="P880" s="9"/>
       <c r="Q880" s="9"/>
     </row>
-    <row r="881" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D881" s="9"/>
       <c r="E881" s="9"/>
       <c r="F881" s="9"/>
@@ -15490,7 +15491,7 @@
       <c r="P881" s="9"/>
       <c r="Q881" s="9"/>
     </row>
-    <row r="882" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D882" s="9"/>
       <c r="E882" s="9"/>
       <c r="F882" s="9"/>
@@ -15505,7 +15506,7 @@
       <c r="P882" s="9"/>
       <c r="Q882" s="9"/>
     </row>
-    <row r="883" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D883" s="9"/>
       <c r="E883" s="9"/>
       <c r="F883" s="9"/>
@@ -15520,7 +15521,7 @@
       <c r="P883" s="9"/>
       <c r="Q883" s="9"/>
     </row>
-    <row r="884" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D884" s="9"/>
       <c r="E884" s="9"/>
       <c r="F884" s="9"/>
@@ -15535,7 +15536,7 @@
       <c r="P884" s="9"/>
       <c r="Q884" s="9"/>
     </row>
-    <row r="885" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D885" s="9"/>
       <c r="E885" s="9"/>
       <c r="F885" s="9"/>
@@ -15550,7 +15551,7 @@
       <c r="P885" s="9"/>
       <c r="Q885" s="9"/>
     </row>
-    <row r="886" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D886" s="9"/>
       <c r="E886" s="9"/>
       <c r="F886" s="9"/>
@@ -15565,7 +15566,7 @@
       <c r="P886" s="9"/>
       <c r="Q886" s="9"/>
     </row>
-    <row r="887" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D887" s="9"/>
       <c r="E887" s="9"/>
       <c r="F887" s="9"/>
@@ -15580,7 +15581,7 @@
       <c r="P887" s="9"/>
       <c r="Q887" s="9"/>
     </row>
-    <row r="888" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D888" s="9"/>
       <c r="E888" s="9"/>
       <c r="F888" s="9"/>
@@ -15595,7 +15596,7 @@
       <c r="P888" s="9"/>
       <c r="Q888" s="9"/>
     </row>
-    <row r="889" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D889" s="9"/>
       <c r="E889" s="9"/>
       <c r="F889" s="9"/>
@@ -15610,7 +15611,7 @@
       <c r="P889" s="9"/>
       <c r="Q889" s="9"/>
     </row>
-    <row r="890" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D890" s="9"/>
       <c r="E890" s="9"/>
       <c r="F890" s="9"/>
@@ -15625,7 +15626,7 @@
       <c r="P890" s="9"/>
       <c r="Q890" s="9"/>
     </row>
-    <row r="891" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D891" s="9"/>
       <c r="E891" s="9"/>
       <c r="F891" s="9"/>
@@ -15640,7 +15641,7 @@
       <c r="P891" s="9"/>
       <c r="Q891" s="9"/>
     </row>
-    <row r="892" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D892" s="9"/>
       <c r="E892" s="9"/>
       <c r="F892" s="9"/>
@@ -15655,7 +15656,7 @@
       <c r="P892" s="9"/>
       <c r="Q892" s="9"/>
     </row>
-    <row r="893" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D893" s="9"/>
       <c r="E893" s="9"/>
       <c r="F893" s="9"/>
@@ -15670,7 +15671,7 @@
       <c r="P893" s="9"/>
       <c r="Q893" s="9"/>
     </row>
-    <row r="894" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D894" s="9"/>
       <c r="E894" s="9"/>
       <c r="F894" s="9"/>
@@ -15685,7 +15686,7 @@
       <c r="P894" s="9"/>
       <c r="Q894" s="9"/>
     </row>
-    <row r="895" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D895" s="9"/>
       <c r="E895" s="9"/>
       <c r="F895" s="9"/>
@@ -15700,7 +15701,7 @@
       <c r="P895" s="9"/>
       <c r="Q895" s="9"/>
     </row>
-    <row r="896" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D896" s="9"/>
       <c r="E896" s="9"/>
       <c r="F896" s="9"/>
@@ -15715,7 +15716,7 @@
       <c r="P896" s="9"/>
       <c r="Q896" s="9"/>
     </row>
-    <row r="897" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D897" s="9"/>
       <c r="E897" s="9"/>
       <c r="F897" s="9"/>
@@ -15730,7 +15731,7 @@
       <c r="P897" s="9"/>
       <c r="Q897" s="9"/>
     </row>
-    <row r="898" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D898" s="9"/>
       <c r="E898" s="9"/>
       <c r="F898" s="9"/>
@@ -15745,7 +15746,7 @@
       <c r="P898" s="9"/>
       <c r="Q898" s="9"/>
     </row>
-    <row r="899" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D899" s="9"/>
       <c r="E899" s="9"/>
       <c r="F899" s="9"/>
@@ -15760,7 +15761,7 @@
       <c r="P899" s="9"/>
       <c r="Q899" s="9"/>
     </row>
-    <row r="900" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D900" s="9"/>
       <c r="E900" s="9"/>
       <c r="F900" s="9"/>
@@ -15775,7 +15776,7 @@
       <c r="P900" s="9"/>
       <c r="Q900" s="9"/>
     </row>
-    <row r="901" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D901" s="9"/>
       <c r="E901" s="9"/>
       <c r="F901" s="9"/>
@@ -15790,7 +15791,7 @@
       <c r="P901" s="9"/>
       <c r="Q901" s="9"/>
     </row>
-    <row r="902" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D902" s="9"/>
       <c r="E902" s="9"/>
       <c r="F902" s="9"/>
@@ -15805,7 +15806,7 @@
       <c r="P902" s="9"/>
       <c r="Q902" s="9"/>
     </row>
-    <row r="903" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D903" s="9"/>
       <c r="E903" s="9"/>
       <c r="F903" s="9"/>
@@ -15820,7 +15821,7 @@
       <c r="P903" s="9"/>
       <c r="Q903" s="9"/>
     </row>
-    <row r="904" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D904" s="9"/>
       <c r="E904" s="9"/>
       <c r="F904" s="9"/>
@@ -15835,7 +15836,7 @@
       <c r="P904" s="9"/>
       <c r="Q904" s="9"/>
     </row>
-    <row r="905" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D905" s="9"/>
       <c r="E905" s="9"/>
       <c r="F905" s="9"/>
@@ -15850,7 +15851,7 @@
       <c r="P905" s="9"/>
       <c r="Q905" s="9"/>
     </row>
-    <row r="906" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D906" s="9"/>
       <c r="E906" s="9"/>
       <c r="F906" s="9"/>
@@ -15865,7 +15866,7 @@
       <c r="P906" s="9"/>
       <c r="Q906" s="9"/>
     </row>
-    <row r="907" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D907" s="9"/>
       <c r="E907" s="9"/>
       <c r="F907" s="9"/>
@@ -15880,7 +15881,7 @@
       <c r="P907" s="9"/>
       <c r="Q907" s="9"/>
     </row>
-    <row r="908" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D908" s="9"/>
       <c r="E908" s="9"/>
       <c r="F908" s="9"/>
@@ -15895,7 +15896,7 @@
       <c r="P908" s="9"/>
       <c r="Q908" s="9"/>
     </row>
-    <row r="909" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D909" s="9"/>
       <c r="E909" s="9"/>
       <c r="F909" s="9"/>
@@ -15910,7 +15911,7 @@
       <c r="P909" s="9"/>
       <c r="Q909" s="9"/>
     </row>
-    <row r="910" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D910" s="9"/>
       <c r="E910" s="9"/>
       <c r="F910" s="9"/>
@@ -15925,7 +15926,7 @@
       <c r="P910" s="9"/>
       <c r="Q910" s="9"/>
     </row>
-    <row r="911" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D911" s="9"/>
       <c r="E911" s="9"/>
       <c r="F911" s="9"/>
@@ -15940,7 +15941,7 @@
       <c r="P911" s="9"/>
       <c r="Q911" s="9"/>
     </row>
-    <row r="912" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D912" s="9"/>
       <c r="E912" s="9"/>
       <c r="F912" s="9"/>
@@ -15955,7 +15956,7 @@
       <c r="P912" s="9"/>
       <c r="Q912" s="9"/>
     </row>
-    <row r="913" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D913" s="9"/>
       <c r="E913" s="9"/>
       <c r="F913" s="9"/>
@@ -15970,7 +15971,7 @@
       <c r="P913" s="9"/>
       <c r="Q913" s="9"/>
     </row>
-    <row r="914" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D914" s="9"/>
       <c r="E914" s="9"/>
       <c r="F914" s="9"/>
@@ -15985,7 +15986,7 @@
       <c r="P914" s="9"/>
       <c r="Q914" s="9"/>
     </row>
-    <row r="915" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D915" s="9"/>
       <c r="E915" s="9"/>
       <c r="F915" s="9"/>
@@ -16000,7 +16001,7 @@
       <c r="P915" s="9"/>
       <c r="Q915" s="9"/>
     </row>
-    <row r="916" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D916" s="9"/>
       <c r="E916" s="9"/>
       <c r="F916" s="9"/>
@@ -16015,7 +16016,7 @@
       <c r="P916" s="9"/>
       <c r="Q916" s="9"/>
     </row>
-    <row r="917" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D917" s="9"/>
       <c r="E917" s="9"/>
       <c r="F917" s="9"/>
@@ -16030,7 +16031,7 @@
       <c r="P917" s="9"/>
       <c r="Q917" s="9"/>
     </row>
-    <row r="918" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D918" s="9"/>
       <c r="E918" s="9"/>
       <c r="F918" s="9"/>
@@ -16045,7 +16046,7 @@
       <c r="P918" s="9"/>
       <c r="Q918" s="9"/>
     </row>
-    <row r="919" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D919" s="9"/>
       <c r="E919" s="9"/>
       <c r="F919" s="9"/>
@@ -16060,7 +16061,7 @@
       <c r="P919" s="9"/>
       <c r="Q919" s="9"/>
     </row>
-    <row r="920" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D920" s="9"/>
       <c r="E920" s="9"/>
       <c r="F920" s="9"/>
@@ -16075,7 +16076,7 @@
       <c r="P920" s="9"/>
       <c r="Q920" s="9"/>
     </row>
-    <row r="921" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D921" s="9"/>
       <c r="E921" s="9"/>
       <c r="F921" s="9"/>
@@ -16090,7 +16091,7 @@
       <c r="P921" s="9"/>
       <c r="Q921" s="9"/>
     </row>
-    <row r="922" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D922" s="9"/>
       <c r="E922" s="9"/>
       <c r="F922" s="9"/>
@@ -16105,7 +16106,7 @@
       <c r="P922" s="9"/>
       <c r="Q922" s="9"/>
     </row>
-    <row r="923" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D923" s="9"/>
       <c r="E923" s="9"/>
       <c r="F923" s="9"/>
@@ -16120,7 +16121,7 @@
       <c r="P923" s="9"/>
       <c r="Q923" s="9"/>
     </row>
-    <row r="924" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D924" s="9"/>
       <c r="E924" s="9"/>
       <c r="F924" s="9"/>
@@ -16135,7 +16136,7 @@
       <c r="P924" s="9"/>
       <c r="Q924" s="9"/>
     </row>
-    <row r="925" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D925" s="9"/>
       <c r="E925" s="9"/>
       <c r="F925" s="9"/>
@@ -16150,7 +16151,7 @@
       <c r="P925" s="9"/>
       <c r="Q925" s="9"/>
     </row>
-    <row r="926" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D926" s="9"/>
       <c r="E926" s="9"/>
       <c r="F926" s="9"/>
@@ -16165,7 +16166,7 @@
       <c r="P926" s="9"/>
       <c r="Q926" s="9"/>
     </row>
-    <row r="927" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D927" s="9"/>
       <c r="E927" s="9"/>
       <c r="F927" s="9"/>
@@ -16180,7 +16181,7 @@
       <c r="P927" s="9"/>
       <c r="Q927" s="9"/>
     </row>
-    <row r="928" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D928" s="9"/>
       <c r="E928" s="9"/>
       <c r="F928" s="9"/>
@@ -16195,7 +16196,7 @@
       <c r="P928" s="9"/>
       <c r="Q928" s="9"/>
     </row>
-    <row r="929" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D929" s="9"/>
       <c r="E929" s="9"/>
       <c r="F929" s="9"/>
@@ -16210,7 +16211,7 @@
       <c r="P929" s="9"/>
       <c r="Q929" s="9"/>
     </row>
-    <row r="930" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D930" s="9"/>
       <c r="E930" s="9"/>
       <c r="F930" s="9"/>
@@ -16225,7 +16226,7 @@
       <c r="P930" s="9"/>
       <c r="Q930" s="9"/>
     </row>
-    <row r="931" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D931" s="9"/>
       <c r="E931" s="9"/>
       <c r="F931" s="9"/>
@@ -16240,7 +16241,7 @@
       <c r="P931" s="9"/>
       <c r="Q931" s="9"/>
     </row>
-    <row r="932" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D932" s="9"/>
       <c r="E932" s="9"/>
       <c r="F932" s="9"/>
@@ -16255,7 +16256,7 @@
       <c r="P932" s="9"/>
       <c r="Q932" s="9"/>
     </row>
-    <row r="933" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D933" s="9"/>
       <c r="E933" s="9"/>
       <c r="F933" s="9"/>
@@ -16270,7 +16271,7 @@
       <c r="P933" s="9"/>
       <c r="Q933" s="9"/>
     </row>
-    <row r="934" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D934" s="9"/>
       <c r="E934" s="9"/>
       <c r="F934" s="9"/>
@@ -16285,7 +16286,7 @@
       <c r="P934" s="9"/>
       <c r="Q934" s="9"/>
     </row>
-    <row r="935" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D935" s="9"/>
       <c r="E935" s="9"/>
       <c r="F935" s="9"/>
@@ -16300,7 +16301,7 @@
       <c r="P935" s="9"/>
       <c r="Q935" s="9"/>
     </row>
-    <row r="936" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D936" s="9"/>
       <c r="E936" s="9"/>
       <c r="F936" s="9"/>
@@ -16315,7 +16316,7 @@
       <c r="P936" s="9"/>
       <c r="Q936" s="9"/>
     </row>
-    <row r="937" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D937" s="9"/>
       <c r="E937" s="9"/>
       <c r="F937" s="9"/>
@@ -16330,7 +16331,7 @@
       <c r="P937" s="9"/>
       <c r="Q937" s="9"/>
     </row>
-    <row r="938" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D938" s="9"/>
       <c r="E938" s="9"/>
       <c r="F938" s="9"/>
@@ -16345,7 +16346,7 @@
       <c r="P938" s="9"/>
       <c r="Q938" s="9"/>
     </row>
-    <row r="939" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D939" s="9"/>
       <c r="E939" s="9"/>
       <c r="F939" s="9"/>
@@ -16360,7 +16361,7 @@
       <c r="P939" s="9"/>
       <c r="Q939" s="9"/>
     </row>
-    <row r="940" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D940" s="9"/>
       <c r="E940" s="9"/>
       <c r="F940" s="9"/>
@@ -16375,7 +16376,7 @@
       <c r="P940" s="9"/>
       <c r="Q940" s="9"/>
     </row>
-    <row r="941" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D941" s="9"/>
       <c r="E941" s="9"/>
       <c r="F941" s="9"/>
@@ -16390,7 +16391,7 @@
       <c r="P941" s="9"/>
       <c r="Q941" s="9"/>
     </row>
-    <row r="942" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D942" s="9"/>
       <c r="E942" s="9"/>
       <c r="F942" s="9"/>
@@ -16405,7 +16406,7 @@
       <c r="P942" s="9"/>
       <c r="Q942" s="9"/>
     </row>
-    <row r="943" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D943" s="9"/>
       <c r="E943" s="9"/>
       <c r="F943" s="9"/>
@@ -16420,7 +16421,7 @@
       <c r="P943" s="9"/>
       <c r="Q943" s="9"/>
     </row>
-    <row r="944" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D944" s="9"/>
       <c r="E944" s="9"/>
       <c r="F944" s="9"/>
@@ -16435,7 +16436,7 @@
       <c r="P944" s="9"/>
       <c r="Q944" s="9"/>
     </row>
-    <row r="945" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D945" s="9"/>
       <c r="E945" s="9"/>
       <c r="F945" s="9"/>
@@ -16450,7 +16451,7 @@
       <c r="P945" s="9"/>
       <c r="Q945" s="9"/>
     </row>
-    <row r="946" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D946" s="9"/>
       <c r="E946" s="9"/>
       <c r="F946" s="9"/>
@@ -16465,7 +16466,7 @@
       <c r="P946" s="9"/>
       <c r="Q946" s="9"/>
     </row>
-    <row r="947" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D947" s="9"/>
       <c r="E947" s="9"/>
       <c r="F947" s="9"/>
@@ -16480,7 +16481,7 @@
       <c r="P947" s="9"/>
       <c r="Q947" s="9"/>
     </row>
-    <row r="948" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D948" s="9"/>
       <c r="E948" s="9"/>
       <c r="F948" s="9"/>
@@ -16495,7 +16496,7 @@
       <c r="P948" s="9"/>
       <c r="Q948" s="9"/>
     </row>
-    <row r="949" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D949" s="9"/>
       <c r="E949" s="9"/>
       <c r="F949" s="9"/>
@@ -16510,7 +16511,7 @@
       <c r="P949" s="9"/>
       <c r="Q949" s="9"/>
     </row>
-    <row r="950" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D950" s="9"/>
       <c r="E950" s="9"/>
       <c r="F950" s="9"/>
@@ -16525,7 +16526,7 @@
       <c r="P950" s="9"/>
       <c r="Q950" s="9"/>
     </row>
-    <row r="951" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D951" s="9"/>
       <c r="E951" s="9"/>
       <c r="F951" s="9"/>
@@ -16540,7 +16541,7 @@
       <c r="P951" s="9"/>
       <c r="Q951" s="9"/>
     </row>
-    <row r="952" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D952" s="9"/>
       <c r="E952" s="9"/>
       <c r="F952" s="9"/>
@@ -16555,7 +16556,7 @@
       <c r="P952" s="9"/>
       <c r="Q952" s="9"/>
     </row>
-    <row r="953" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D953" s="9"/>
       <c r="E953" s="9"/>
       <c r="F953" s="9"/>
@@ -16570,7 +16571,7 @@
       <c r="P953" s="9"/>
       <c r="Q953" s="9"/>
     </row>
-    <row r="954" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D954" s="9"/>
       <c r="E954" s="9"/>
       <c r="F954" s="9"/>
@@ -16585,7 +16586,7 @@
       <c r="P954" s="9"/>
       <c r="Q954" s="9"/>
     </row>
-    <row r="955" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D955" s="9"/>
       <c r="E955" s="9"/>
       <c r="F955" s="9"/>
@@ -16600,7 +16601,7 @@
       <c r="P955" s="9"/>
       <c r="Q955" s="9"/>
     </row>
-    <row r="956" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D956" s="9"/>
       <c r="E956" s="9"/>
       <c r="F956" s="9"/>
@@ -16615,7 +16616,7 @@
       <c r="P956" s="9"/>
       <c r="Q956" s="9"/>
     </row>
-    <row r="957" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D957" s="9"/>
       <c r="E957" s="9"/>
       <c r="F957" s="9"/>
@@ -16630,7 +16631,7 @@
       <c r="P957" s="9"/>
       <c r="Q957" s="9"/>
     </row>
-    <row r="958" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D958" s="9"/>
       <c r="E958" s="9"/>
       <c r="F958" s="9"/>
@@ -16645,7 +16646,7 @@
       <c r="P958" s="9"/>
       <c r="Q958" s="9"/>
     </row>
-    <row r="959" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D959" s="9"/>
       <c r="E959" s="9"/>
       <c r="F959" s="9"/>
@@ -16660,7 +16661,7 @@
       <c r="P959" s="9"/>
       <c r="Q959" s="9"/>
     </row>
-    <row r="960" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D960" s="9"/>
       <c r="E960" s="9"/>
       <c r="F960" s="9"/>
@@ -16675,7 +16676,7 @@
       <c r="P960" s="9"/>
       <c r="Q960" s="9"/>
     </row>
-    <row r="961" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D961" s="9"/>
       <c r="E961" s="9"/>
       <c r="F961" s="9"/>
@@ -16690,7 +16691,7 @@
       <c r="P961" s="9"/>
       <c r="Q961" s="9"/>
     </row>
-    <row r="962" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D962" s="9"/>
       <c r="E962" s="9"/>
       <c r="F962" s="9"/>
@@ -16705,7 +16706,7 @@
       <c r="P962" s="9"/>
       <c r="Q962" s="9"/>
     </row>
-    <row r="963" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D963" s="9"/>
       <c r="E963" s="9"/>
       <c r="F963" s="9"/>
@@ -16720,7 +16721,7 @@
       <c r="P963" s="9"/>
       <c r="Q963" s="9"/>
     </row>
-    <row r="964" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D964" s="9"/>
       <c r="E964" s="9"/>
       <c r="F964" s="9"/>
@@ -16735,7 +16736,7 @@
       <c r="P964" s="9"/>
       <c r="Q964" s="9"/>
     </row>
-    <row r="965" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D965" s="9"/>
       <c r="E965" s="9"/>
       <c r="F965" s="9"/>
@@ -16750,7 +16751,7 @@
       <c r="P965" s="9"/>
       <c r="Q965" s="9"/>
     </row>
-    <row r="966" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D966" s="9"/>
       <c r="E966" s="9"/>
       <c r="F966" s="9"/>
@@ -16765,7 +16766,7 @@
       <c r="P966" s="9"/>
       <c r="Q966" s="9"/>
     </row>
-    <row r="967" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D967" s="9"/>
       <c r="E967" s="9"/>
       <c r="F967" s="9"/>
@@ -16780,7 +16781,7 @@
       <c r="P967" s="9"/>
       <c r="Q967" s="9"/>
     </row>
-    <row r="968" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D968" s="9"/>
       <c r="E968" s="9"/>
       <c r="F968" s="9"/>
@@ -16795,7 +16796,7 @@
       <c r="P968" s="9"/>
       <c r="Q968" s="9"/>
     </row>
-    <row r="969" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D969" s="9"/>
       <c r="E969" s="9"/>
       <c r="F969" s="9"/>
@@ -16810,7 +16811,7 @@
       <c r="P969" s="9"/>
       <c r="Q969" s="9"/>
     </row>
-    <row r="970" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D970" s="9"/>
       <c r="E970" s="9"/>
       <c r="F970" s="9"/>
@@ -16825,7 +16826,7 @@
       <c r="P970" s="9"/>
       <c r="Q970" s="9"/>
     </row>
-    <row r="971" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D971" s="9"/>
       <c r="E971" s="9"/>
       <c r="F971" s="9"/>
@@ -16840,7 +16841,7 @@
       <c r="P971" s="9"/>
       <c r="Q971" s="9"/>
     </row>
-    <row r="972" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D972" s="9"/>
       <c r="E972" s="9"/>
       <c r="F972" s="9"/>
@@ -16855,7 +16856,7 @@
       <c r="P972" s="9"/>
       <c r="Q972" s="9"/>
     </row>
-    <row r="973" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D973" s="9"/>
       <c r="E973" s="9"/>
       <c r="F973" s="9"/>
@@ -16870,7 +16871,7 @@
       <c r="P973" s="9"/>
       <c r="Q973" s="9"/>
     </row>
-    <row r="974" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D974" s="9"/>
       <c r="E974" s="9"/>
       <c r="F974" s="9"/>
@@ -16885,7 +16886,7 @@
       <c r="P974" s="9"/>
       <c r="Q974" s="9"/>
     </row>
-    <row r="975" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D975" s="9"/>
       <c r="E975" s="9"/>
       <c r="F975" s="9"/>
@@ -16900,7 +16901,7 @@
       <c r="P975" s="9"/>
       <c r="Q975" s="9"/>
     </row>
-    <row r="976" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D976" s="9"/>
       <c r="E976" s="9"/>
       <c r="F976" s="9"/>
@@ -16915,7 +16916,7 @@
       <c r="P976" s="9"/>
       <c r="Q976" s="9"/>
     </row>
-    <row r="977" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D977" s="9"/>
       <c r="E977" s="9"/>
       <c r="F977" s="9"/>
@@ -16930,7 +16931,7 @@
       <c r="P977" s="9"/>
       <c r="Q977" s="9"/>
     </row>
-    <row r="978" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D978" s="9"/>
       <c r="E978" s="9"/>
       <c r="F978" s="9"/>
@@ -16945,7 +16946,7 @@
       <c r="P978" s="9"/>
       <c r="Q978" s="9"/>
     </row>
-    <row r="979" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D979" s="9"/>
       <c r="E979" s="9"/>
       <c r="F979" s="9"/>
@@ -16960,7 +16961,7 @@
       <c r="P979" s="9"/>
       <c r="Q979" s="9"/>
     </row>
-    <row r="980" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D980" s="9"/>
       <c r="E980" s="9"/>
       <c r="F980" s="9"/>
@@ -16975,7 +16976,7 @@
       <c r="P980" s="9"/>
       <c r="Q980" s="9"/>
     </row>
-    <row r="981" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D981" s="9"/>
       <c r="E981" s="9"/>
       <c r="F981" s="9"/>
@@ -16990,7 +16991,7 @@
       <c r="P981" s="9"/>
       <c r="Q981" s="9"/>
     </row>
-    <row r="982" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D982" s="9"/>
       <c r="E982" s="9"/>
       <c r="F982" s="9"/>
@@ -17005,7 +17006,7 @@
       <c r="P982" s="9"/>
       <c r="Q982" s="9"/>
     </row>
-    <row r="983" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D983" s="9"/>
       <c r="E983" s="9"/>
       <c r="F983" s="9"/>
@@ -17020,7 +17021,7 @@
       <c r="P983" s="9"/>
       <c r="Q983" s="9"/>
     </row>
-    <row r="984" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D984" s="9"/>
       <c r="E984" s="9"/>
       <c r="F984" s="9"/>
@@ -17035,7 +17036,7 @@
       <c r="P984" s="9"/>
       <c r="Q984" s="9"/>
     </row>
-    <row r="985" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D985" s="9"/>
       <c r="E985" s="9"/>
       <c r="F985" s="9"/>
@@ -17050,7 +17051,7 @@
       <c r="P985" s="9"/>
       <c r="Q985" s="9"/>
     </row>
-    <row r="986" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D986" s="9"/>
       <c r="E986" s="9"/>
       <c r="F986" s="9"/>
@@ -17065,7 +17066,7 @@
       <c r="P986" s="9"/>
       <c r="Q986" s="9"/>
     </row>
-    <row r="987" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D987" s="9"/>
       <c r="E987" s="9"/>
       <c r="F987" s="9"/>
@@ -17080,7 +17081,7 @@
       <c r="P987" s="9"/>
       <c r="Q987" s="9"/>
     </row>
-    <row r="988" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D988" s="9"/>
       <c r="E988" s="9"/>
       <c r="F988" s="9"/>
@@ -17095,7 +17096,7 @@
       <c r="P988" s="9"/>
       <c r="Q988" s="9"/>
     </row>
-    <row r="989" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D989" s="9"/>
       <c r="E989" s="9"/>
       <c r="F989" s="9"/>
@@ -17110,7 +17111,7 @@
       <c r="P989" s="9"/>
       <c r="Q989" s="9"/>
     </row>
-    <row r="990" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D990" s="9"/>
       <c r="E990" s="9"/>
       <c r="F990" s="9"/>
@@ -17125,7 +17126,7 @@
       <c r="P990" s="9"/>
       <c r="Q990" s="9"/>
     </row>
-    <row r="991" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D991" s="9"/>
       <c r="E991" s="9"/>
       <c r="F991" s="9"/>
@@ -17140,7 +17141,7 @@
       <c r="P991" s="9"/>
       <c r="Q991" s="9"/>
     </row>
-    <row r="992" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D992" s="9"/>
       <c r="E992" s="9"/>
       <c r="F992" s="9"/>
@@ -17155,7 +17156,7 @@
       <c r="P992" s="9"/>
       <c r="Q992" s="9"/>
     </row>
-    <row r="993" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="993" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D993" s="9"/>
       <c r="E993" s="9"/>
       <c r="F993" s="9"/>
@@ -17170,7 +17171,7 @@
       <c r="P993" s="9"/>
       <c r="Q993" s="9"/>
     </row>
-    <row r="994" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="994" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D994" s="9"/>
       <c r="E994" s="9"/>
       <c r="F994" s="9"/>
@@ -17185,7 +17186,7 @@
       <c r="P994" s="9"/>
       <c r="Q994" s="9"/>
     </row>
-    <row r="995" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="995" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D995" s="9"/>
       <c r="E995" s="9"/>
       <c r="F995" s="9"/>
@@ -17200,7 +17201,7 @@
       <c r="P995" s="9"/>
       <c r="Q995" s="9"/>
     </row>
-    <row r="996" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="996" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D996" s="9"/>
       <c r="E996" s="9"/>
       <c r="F996" s="9"/>
@@ -17215,7 +17216,7 @@
       <c r="P996" s="9"/>
       <c r="Q996" s="9"/>
     </row>
-    <row r="997" spans="4:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="997" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D997" s="9"/>
       <c r="E997" s="9"/>
       <c r="F997" s="9"/>
